--- a/Code/Results/Cases/Case_0_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_18/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8931253026551569</v>
+        <v>0.893125302655159</v>
       </c>
       <c r="D2">
-        <v>0.9078967621430839</v>
+        <v>0.9078967621430859</v>
       </c>
       <c r="E2">
-        <v>0.9118221625247661</v>
+        <v>0.9118221625247679</v>
       </c>
       <c r="F2">
-        <v>0.8785525101509921</v>
+        <v>0.8785525101509939</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.022799201682209</v>
       </c>
       <c r="J2">
-        <v>0.9190511156525228</v>
+        <v>0.9190511156525248</v>
       </c>
       <c r="K2">
-        <v>0.9208081225479738</v>
+        <v>0.9208081225479759</v>
       </c>
       <c r="L2">
-        <v>0.9246638802680646</v>
+        <v>0.9246638802680665</v>
       </c>
       <c r="M2">
-        <v>0.8920103354629991</v>
+        <v>0.8920103354630009</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9157497706093314</v>
+        <v>0.9157497706093302</v>
       </c>
       <c r="D3">
-        <v>0.9287417805321553</v>
+        <v>0.9287417805321541</v>
       </c>
       <c r="E3">
-        <v>0.9318463250694282</v>
+        <v>0.931846325069427</v>
       </c>
       <c r="F3">
-        <v>0.9073623017642753</v>
+        <v>0.9073623017642743</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.028859645790069</v>
+        <v>1.028859645790068</v>
       </c>
       <c r="J3">
-        <v>0.9388340740788816</v>
+        <v>0.9388340740788804</v>
       </c>
       <c r="K3">
-        <v>0.9403756323121968</v>
+        <v>0.9403756323121956</v>
       </c>
       <c r="L3">
-        <v>0.9434325007462351</v>
+        <v>0.943432500746234</v>
       </c>
       <c r="M3">
-        <v>0.9193358621115187</v>
+        <v>0.9193358621115179</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9285245001496927</v>
+        <v>0.9285245001496918</v>
       </c>
       <c r="D4">
-        <v>0.9404940676324348</v>
+        <v>0.9404940676324338</v>
       </c>
       <c r="E4">
-        <v>0.9431396907920266</v>
+        <v>0.9431396907920258</v>
       </c>
       <c r="F4">
-        <v>0.9233550452023189</v>
+        <v>0.9233550452023181</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.03217622727769</v>
       </c>
       <c r="J4">
-        <v>0.9499518434388193</v>
+        <v>0.9499518434388184</v>
       </c>
       <c r="K4">
-        <v>0.9513680121495991</v>
+        <v>0.9513680121495981</v>
       </c>
       <c r="L4">
-        <v>0.9539765331616658</v>
+        <v>0.9539765331616651</v>
       </c>
       <c r="M4">
-        <v>0.9344758864697634</v>
+        <v>0.9344758864697623</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9335558029871046</v>
+        <v>0.9335558029871047</v>
       </c>
       <c r="D5">
-        <v>0.9451192034704295</v>
+        <v>0.9451192034704297</v>
       </c>
       <c r="E5">
-        <v>0.9475849856085141</v>
+        <v>0.9475849856085145</v>
       </c>
       <c r="F5">
-        <v>0.929599357501993</v>
+        <v>0.9295993575019933</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.033458630265053</v>
       </c>
       <c r="J5">
-        <v>0.9543198198855058</v>
+        <v>0.9543198198855062</v>
       </c>
       <c r="K5">
-        <v>0.9556858677648913</v>
+        <v>0.9556858677648916</v>
       </c>
       <c r="L5">
-        <v>0.9581183576441468</v>
+        <v>0.9581183576441471</v>
       </c>
       <c r="M5">
-        <v>0.9403806887019058</v>
+        <v>0.9403806887019059</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9343829404317923</v>
+        <v>0.9343829404317945</v>
       </c>
       <c r="D6">
-        <v>0.9458793779902906</v>
+        <v>0.9458793779902926</v>
       </c>
       <c r="E6">
-        <v>0.9483156435955777</v>
+        <v>0.9483156435955796</v>
       </c>
       <c r="F6">
-        <v>0.9306229490934604</v>
+        <v>0.9306229490934621</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.033668078847977</v>
       </c>
       <c r="J6">
-        <v>0.9550373142376238</v>
+        <v>0.9550373142376261</v>
       </c>
       <c r="K6">
-        <v>0.9563950822670861</v>
+        <v>0.9563950822670884</v>
       </c>
       <c r="L6">
-        <v>0.9587986629657719</v>
+        <v>0.9587986629657737</v>
       </c>
       <c r="M6">
-        <v>0.9413482460861808</v>
+        <v>0.9413482460861824</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9285929550941668</v>
+        <v>0.9285929550941655</v>
       </c>
       <c r="D7">
-        <v>0.940557009602347</v>
+        <v>0.9405570096023459</v>
       </c>
       <c r="E7">
-        <v>0.9432001824460299</v>
+        <v>0.9432001824460287</v>
       </c>
       <c r="F7">
-        <v>0.9234402112401512</v>
+        <v>0.9234402112401502</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.032193769881149</v>
       </c>
       <c r="J7">
-        <v>0.9500113145835879</v>
+        <v>0.9500113145835868</v>
       </c>
       <c r="K7">
-        <v>0.9514268041616404</v>
+        <v>0.9514268041616395</v>
       </c>
       <c r="L7">
-        <v>0.9540329280298181</v>
+        <v>0.9540329280298168</v>
       </c>
       <c r="M7">
-        <v>0.934556448106113</v>
+        <v>0.9345564481061122</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9012416496169753</v>
+        <v>0.9012416496169763</v>
       </c>
       <c r="D8">
-        <v>0.9153794324307991</v>
+        <v>0.9153794324308</v>
       </c>
       <c r="E8">
-        <v>0.9190091639350459</v>
+        <v>0.9190091639350466</v>
       </c>
       <c r="F8">
-        <v>0.888959765581286</v>
+        <v>0.8889597655812872</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.024998522832897</v>
       </c>
       <c r="J8">
-        <v>0.9261615943326941</v>
+        <v>0.926161594332695</v>
       </c>
       <c r="K8">
-        <v>0.927842297041243</v>
+        <v>0.9278422970412439</v>
       </c>
       <c r="L8">
-        <v>0.9314107492935171</v>
+        <v>0.9314107492935177</v>
       </c>
       <c r="M8">
-        <v>0.9018882950927863</v>
+        <v>0.9018882950927876</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8257965914190761</v>
+        <v>0.825796591419074</v>
       </c>
       <c r="D9">
-        <v>0.8455832700876189</v>
+        <v>0.8455832700876171</v>
       </c>
       <c r="E9">
-        <v>0.8520144780808964</v>
+        <v>0.8520144780808947</v>
       </c>
       <c r="F9">
-        <v>0.7888108968276248</v>
+        <v>0.7888108968276232</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.003665309902005</v>
+        <v>1.003665309902004</v>
       </c>
       <c r="J9">
-        <v>0.8594599165299712</v>
+        <v>0.8594599165299694</v>
       </c>
       <c r="K9">
-        <v>0.8618012307929515</v>
+        <v>0.8618012307929499</v>
       </c>
       <c r="L9">
-        <v>0.8680717916420015</v>
+        <v>0.8680717916419998</v>
       </c>
       <c r="M9">
-        <v>0.8066041683790948</v>
+        <v>0.8066041683790931</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8257965914190761</v>
+        <v>0.825796591419074</v>
       </c>
       <c r="D10">
-        <v>0.8455832700876189</v>
+        <v>0.8455832700876171</v>
       </c>
       <c r="E10">
-        <v>0.8520144780808964</v>
+        <v>0.8520144780808947</v>
       </c>
       <c r="F10">
-        <v>0.7888108968276248</v>
+        <v>0.7888108968276232</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.003665309902005</v>
+        <v>1.003665309902004</v>
       </c>
       <c r="J10">
-        <v>0.8594599165299712</v>
+        <v>0.8594599165299694</v>
       </c>
       <c r="K10">
-        <v>0.8618012307929515</v>
+        <v>0.8618012307929499</v>
       </c>
       <c r="L10">
-        <v>0.8680717916420015</v>
+        <v>0.8680717916419998</v>
       </c>
       <c r="M10">
-        <v>0.8066041683790948</v>
+        <v>0.8066041683790931</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8257965914190761</v>
+        <v>0.825796591419074</v>
       </c>
       <c r="D11">
-        <v>0.8455832700876189</v>
+        <v>0.8455832700876171</v>
       </c>
       <c r="E11">
-        <v>0.8520144780808964</v>
+        <v>0.8520144780808947</v>
       </c>
       <c r="F11">
-        <v>0.7888108968276248</v>
+        <v>0.7888108968276232</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.003665309902005</v>
+        <v>1.003665309902004</v>
       </c>
       <c r="J11">
-        <v>0.8594599165299712</v>
+        <v>0.8594599165299694</v>
       </c>
       <c r="K11">
-        <v>0.8618012307929515</v>
+        <v>0.8618012307929499</v>
       </c>
       <c r="L11">
-        <v>0.8680717916420015</v>
+        <v>0.8680717916419998</v>
       </c>
       <c r="M11">
-        <v>0.8066041683790948</v>
+        <v>0.8066041683790931</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8257965914190761</v>
+        <v>0.825796591419074</v>
       </c>
       <c r="D12">
-        <v>0.8455832700876189</v>
+        <v>0.8455832700876171</v>
       </c>
       <c r="E12">
-        <v>0.8520144780808964</v>
+        <v>0.8520144780808947</v>
       </c>
       <c r="F12">
-        <v>0.7888108968276248</v>
+        <v>0.7888108968276232</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.003665309902005</v>
+        <v>1.003665309902004</v>
       </c>
       <c r="J12">
-        <v>0.8594599165299712</v>
+        <v>0.8594599165299694</v>
       </c>
       <c r="K12">
-        <v>0.8618012307929515</v>
+        <v>0.8618012307929499</v>
       </c>
       <c r="L12">
-        <v>0.8680717916420015</v>
+        <v>0.8680717916419998</v>
       </c>
       <c r="M12">
-        <v>0.8066041683790948</v>
+        <v>0.8066041683790931</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8257965914190761</v>
+        <v>0.825796591419074</v>
       </c>
       <c r="D13">
-        <v>0.8455832700876189</v>
+        <v>0.8455832700876171</v>
       </c>
       <c r="E13">
-        <v>0.8520144780808964</v>
+        <v>0.8520144780808947</v>
       </c>
       <c r="F13">
-        <v>0.7888108968276248</v>
+        <v>0.7888108968276232</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.003665309902005</v>
+        <v>1.003665309902004</v>
       </c>
       <c r="J13">
-        <v>0.8594599165299712</v>
+        <v>0.8594599165299694</v>
       </c>
       <c r="K13">
-        <v>0.8618012307929515</v>
+        <v>0.8618012307929499</v>
       </c>
       <c r="L13">
-        <v>0.8680717916420015</v>
+        <v>0.8680717916419998</v>
       </c>
       <c r="M13">
-        <v>0.8066041683790948</v>
+        <v>0.8066041683790931</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8257965914190761</v>
+        <v>0.825796591419074</v>
       </c>
       <c r="D14">
-        <v>0.8455832700876189</v>
+        <v>0.8455832700876171</v>
       </c>
       <c r="E14">
-        <v>0.8520144780808964</v>
+        <v>0.8520144780808947</v>
       </c>
       <c r="F14">
-        <v>0.7888108968276248</v>
+        <v>0.7888108968276232</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.003665309902005</v>
+        <v>1.003665309902004</v>
       </c>
       <c r="J14">
-        <v>0.8594599165299712</v>
+        <v>0.8594599165299694</v>
       </c>
       <c r="K14">
-        <v>0.8618012307929515</v>
+        <v>0.8618012307929499</v>
       </c>
       <c r="L14">
-        <v>0.8680717916420015</v>
+        <v>0.8680717916419998</v>
       </c>
       <c r="M14">
-        <v>0.8066041683790948</v>
+        <v>0.8066041683790931</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8257965914190761</v>
+        <v>0.825796591419074</v>
       </c>
       <c r="D15">
-        <v>0.8455832700876189</v>
+        <v>0.8455832700876171</v>
       </c>
       <c r="E15">
-        <v>0.8520144780808964</v>
+        <v>0.8520144780808947</v>
       </c>
       <c r="F15">
-        <v>0.7888108968276248</v>
+        <v>0.7888108968276232</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.003665309902005</v>
+        <v>1.003665309902004</v>
       </c>
       <c r="J15">
-        <v>0.8594599165299712</v>
+        <v>0.8594599165299694</v>
       </c>
       <c r="K15">
-        <v>0.8618012307929515</v>
+        <v>0.8618012307929499</v>
       </c>
       <c r="L15">
-        <v>0.8680717916420015</v>
+        <v>0.8680717916419998</v>
       </c>
       <c r="M15">
-        <v>0.8066041683790948</v>
+        <v>0.8066041683790931</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8257965914190761</v>
+        <v>0.825796591419074</v>
       </c>
       <c r="D16">
-        <v>0.8455832700876189</v>
+        <v>0.8455832700876171</v>
       </c>
       <c r="E16">
-        <v>0.8520144780808964</v>
+        <v>0.8520144780808947</v>
       </c>
       <c r="F16">
-        <v>0.7888108968276248</v>
+        <v>0.7888108968276232</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.003665309902005</v>
+        <v>1.003665309902004</v>
       </c>
       <c r="J16">
-        <v>0.8594599165299712</v>
+        <v>0.8594599165299694</v>
       </c>
       <c r="K16">
-        <v>0.8618012307929515</v>
+        <v>0.8618012307929499</v>
       </c>
       <c r="L16">
-        <v>0.8680717916420015</v>
+        <v>0.8680717916419998</v>
       </c>
       <c r="M16">
-        <v>0.8066041683790948</v>
+        <v>0.8066041683790931</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8257965914190761</v>
+        <v>0.825796591419074</v>
       </c>
       <c r="D17">
-        <v>0.8455832700876189</v>
+        <v>0.8455832700876171</v>
       </c>
       <c r="E17">
-        <v>0.8520144780808964</v>
+        <v>0.8520144780808947</v>
       </c>
       <c r="F17">
-        <v>0.7888108968276248</v>
+        <v>0.7888108968276232</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.003665309902005</v>
+        <v>1.003665309902004</v>
       </c>
       <c r="J17">
-        <v>0.8594599165299712</v>
+        <v>0.8594599165299694</v>
       </c>
       <c r="K17">
-        <v>0.8618012307929515</v>
+        <v>0.8618012307929499</v>
       </c>
       <c r="L17">
-        <v>0.8680717916420015</v>
+        <v>0.8680717916419998</v>
       </c>
       <c r="M17">
-        <v>0.8066041683790948</v>
+        <v>0.8066041683790931</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8257965914190761</v>
+        <v>0.825796591419074</v>
       </c>
       <c r="D18">
-        <v>0.8455832700876189</v>
+        <v>0.8455832700876171</v>
       </c>
       <c r="E18">
-        <v>0.8520144780808964</v>
+        <v>0.8520144780808947</v>
       </c>
       <c r="F18">
-        <v>0.7888108968276248</v>
+        <v>0.7888108968276232</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.003665309902005</v>
+        <v>1.003665309902004</v>
       </c>
       <c r="J18">
-        <v>0.8594599165299712</v>
+        <v>0.8594599165299694</v>
       </c>
       <c r="K18">
-        <v>0.8618012307929515</v>
+        <v>0.8618012307929499</v>
       </c>
       <c r="L18">
-        <v>0.8680717916420015</v>
+        <v>0.8680717916419998</v>
       </c>
       <c r="M18">
-        <v>0.8066041683790948</v>
+        <v>0.8066041683790931</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8257965914190761</v>
+        <v>0.825796591419074</v>
       </c>
       <c r="D19">
-        <v>0.8455832700876189</v>
+        <v>0.8455832700876171</v>
       </c>
       <c r="E19">
-        <v>0.8520144780808964</v>
+        <v>0.8520144780808947</v>
       </c>
       <c r="F19">
-        <v>0.7888108968276248</v>
+        <v>0.7888108968276232</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.003665309902005</v>
+        <v>1.003665309902004</v>
       </c>
       <c r="J19">
-        <v>0.8594599165299712</v>
+        <v>0.8594599165299694</v>
       </c>
       <c r="K19">
-        <v>0.8618012307929515</v>
+        <v>0.8618012307929499</v>
       </c>
       <c r="L19">
-        <v>0.8680717916420015</v>
+        <v>0.8680717916419998</v>
       </c>
       <c r="M19">
-        <v>0.8066041683790948</v>
+        <v>0.8066041683790931</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8257965914190761</v>
+        <v>0.825796591419074</v>
       </c>
       <c r="D20">
-        <v>0.8455832700876189</v>
+        <v>0.8455832700876171</v>
       </c>
       <c r="E20">
-        <v>0.8520144780808964</v>
+        <v>0.8520144780808947</v>
       </c>
       <c r="F20">
-        <v>0.7888108968276248</v>
+        <v>0.7888108968276232</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.003665309902005</v>
+        <v>1.003665309902004</v>
       </c>
       <c r="J20">
-        <v>0.8594599165299712</v>
+        <v>0.8594599165299694</v>
       </c>
       <c r="K20">
-        <v>0.8618012307929515</v>
+        <v>0.8618012307929499</v>
       </c>
       <c r="L20">
-        <v>0.8680717916420015</v>
+        <v>0.8680717916419998</v>
       </c>
       <c r="M20">
-        <v>0.8066041683790948</v>
+        <v>0.8066041683790931</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8257965914190761</v>
+        <v>0.825796591419074</v>
       </c>
       <c r="D21">
-        <v>0.8455832700876189</v>
+        <v>0.8455832700876171</v>
       </c>
       <c r="E21">
-        <v>0.8520144780808964</v>
+        <v>0.8520144780808947</v>
       </c>
       <c r="F21">
-        <v>0.7888108968276248</v>
+        <v>0.7888108968276232</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.003665309902005</v>
+        <v>1.003665309902004</v>
       </c>
       <c r="J21">
-        <v>0.8594599165299712</v>
+        <v>0.8594599165299694</v>
       </c>
       <c r="K21">
-        <v>0.8618012307929515</v>
+        <v>0.8618012307929499</v>
       </c>
       <c r="L21">
-        <v>0.8680717916420015</v>
+        <v>0.8680717916419998</v>
       </c>
       <c r="M21">
-        <v>0.8066041683790948</v>
+        <v>0.8066041683790931</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8257965914190761</v>
+        <v>0.825796591419074</v>
       </c>
       <c r="D22">
-        <v>0.8455832700876189</v>
+        <v>0.8455832700876171</v>
       </c>
       <c r="E22">
-        <v>0.8520144780808964</v>
+        <v>0.8520144780808947</v>
       </c>
       <c r="F22">
-        <v>0.7888108968276248</v>
+        <v>0.7888108968276232</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.003665309902005</v>
+        <v>1.003665309902004</v>
       </c>
       <c r="J22">
-        <v>0.8594599165299712</v>
+        <v>0.8594599165299694</v>
       </c>
       <c r="K22">
-        <v>0.8618012307929515</v>
+        <v>0.8618012307929499</v>
       </c>
       <c r="L22">
-        <v>0.8680717916420015</v>
+        <v>0.8680717916419998</v>
       </c>
       <c r="M22">
-        <v>0.8066041683790948</v>
+        <v>0.8066041683790931</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8257965914190761</v>
+        <v>0.825796591419074</v>
       </c>
       <c r="D23">
-        <v>0.8455832700876189</v>
+        <v>0.8455832700876171</v>
       </c>
       <c r="E23">
-        <v>0.8520144780808964</v>
+        <v>0.8520144780808947</v>
       </c>
       <c r="F23">
-        <v>0.7888108968276248</v>
+        <v>0.7888108968276232</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.003665309902005</v>
+        <v>1.003665309902004</v>
       </c>
       <c r="J23">
-        <v>0.8594599165299712</v>
+        <v>0.8594599165299694</v>
       </c>
       <c r="K23">
-        <v>0.8618012307929515</v>
+        <v>0.8618012307929499</v>
       </c>
       <c r="L23">
-        <v>0.8680717916420015</v>
+        <v>0.8680717916419998</v>
       </c>
       <c r="M23">
-        <v>0.8066041683790948</v>
+        <v>0.8066041683790931</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8257965914190761</v>
+        <v>0.825796591419074</v>
       </c>
       <c r="D24">
-        <v>0.8455832700876189</v>
+        <v>0.8455832700876171</v>
       </c>
       <c r="E24">
-        <v>0.8520144780808964</v>
+        <v>0.8520144780808947</v>
       </c>
       <c r="F24">
-        <v>0.7888108968276248</v>
+        <v>0.7888108968276232</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.003665309902005</v>
+        <v>1.003665309902004</v>
       </c>
       <c r="J24">
-        <v>0.8594599165299712</v>
+        <v>0.8594599165299694</v>
       </c>
       <c r="K24">
-        <v>0.8618012307929515</v>
+        <v>0.8618012307929499</v>
       </c>
       <c r="L24">
-        <v>0.8680717916420015</v>
+        <v>0.8680717916419998</v>
       </c>
       <c r="M24">
-        <v>0.8066041683790948</v>
+        <v>0.8066041683790931</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8257965914190761</v>
+        <v>0.825796591419074</v>
       </c>
       <c r="D25">
-        <v>0.8455832700876189</v>
+        <v>0.8455832700876171</v>
       </c>
       <c r="E25">
-        <v>0.8520144780808964</v>
+        <v>0.8520144780808947</v>
       </c>
       <c r="F25">
-        <v>0.7888108968276248</v>
+        <v>0.7888108968276232</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.003665309902005</v>
+        <v>1.003665309902004</v>
       </c>
       <c r="J25">
-        <v>0.8594599165299712</v>
+        <v>0.8594599165299694</v>
       </c>
       <c r="K25">
-        <v>0.8618012307929515</v>
+        <v>0.8618012307929499</v>
       </c>
       <c r="L25">
-        <v>0.8680717916420015</v>
+        <v>0.8680717916419998</v>
       </c>
       <c r="M25">
-        <v>0.8066041683790948</v>
+        <v>0.8066041683790931</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_18/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.893125302655159</v>
+        <v>0.8931253026551569</v>
       </c>
       <c r="D2">
-        <v>0.9078967621430859</v>
+        <v>0.9078967621430839</v>
       </c>
       <c r="E2">
-        <v>0.9118221625247679</v>
+        <v>0.9118221625247661</v>
       </c>
       <c r="F2">
-        <v>0.8785525101509939</v>
+        <v>0.8785525101509921</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.022799201682209</v>
       </c>
       <c r="J2">
-        <v>0.9190511156525248</v>
+        <v>0.9190511156525228</v>
       </c>
       <c r="K2">
-        <v>0.9208081225479759</v>
+        <v>0.9208081225479738</v>
       </c>
       <c r="L2">
-        <v>0.9246638802680665</v>
+        <v>0.9246638802680646</v>
       </c>
       <c r="M2">
-        <v>0.8920103354630009</v>
+        <v>0.8920103354629991</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9157497706093302</v>
+        <v>0.9157497706093314</v>
       </c>
       <c r="D3">
-        <v>0.9287417805321541</v>
+        <v>0.9287417805321553</v>
       </c>
       <c r="E3">
-        <v>0.931846325069427</v>
+        <v>0.9318463250694282</v>
       </c>
       <c r="F3">
-        <v>0.9073623017642743</v>
+        <v>0.9073623017642753</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.028859645790068</v>
+        <v>1.028859645790069</v>
       </c>
       <c r="J3">
-        <v>0.9388340740788804</v>
+        <v>0.9388340740788816</v>
       </c>
       <c r="K3">
-        <v>0.9403756323121956</v>
+        <v>0.9403756323121968</v>
       </c>
       <c r="L3">
-        <v>0.943432500746234</v>
+        <v>0.9434325007462351</v>
       </c>
       <c r="M3">
-        <v>0.9193358621115179</v>
+        <v>0.9193358621115187</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9285245001496918</v>
+        <v>0.9285245001496927</v>
       </c>
       <c r="D4">
-        <v>0.9404940676324338</v>
+        <v>0.9404940676324348</v>
       </c>
       <c r="E4">
-        <v>0.9431396907920258</v>
+        <v>0.9431396907920266</v>
       </c>
       <c r="F4">
-        <v>0.9233550452023181</v>
+        <v>0.9233550452023189</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.03217622727769</v>
       </c>
       <c r="J4">
-        <v>0.9499518434388184</v>
+        <v>0.9499518434388193</v>
       </c>
       <c r="K4">
-        <v>0.9513680121495981</v>
+        <v>0.9513680121495991</v>
       </c>
       <c r="L4">
-        <v>0.9539765331616651</v>
+        <v>0.9539765331616658</v>
       </c>
       <c r="M4">
-        <v>0.9344758864697623</v>
+        <v>0.9344758864697634</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9335558029871047</v>
+        <v>0.9335558029871046</v>
       </c>
       <c r="D5">
-        <v>0.9451192034704297</v>
+        <v>0.9451192034704295</v>
       </c>
       <c r="E5">
-        <v>0.9475849856085145</v>
+        <v>0.9475849856085141</v>
       </c>
       <c r="F5">
-        <v>0.9295993575019933</v>
+        <v>0.929599357501993</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.033458630265053</v>
       </c>
       <c r="J5">
-        <v>0.9543198198855062</v>
+        <v>0.9543198198855058</v>
       </c>
       <c r="K5">
-        <v>0.9556858677648916</v>
+        <v>0.9556858677648913</v>
       </c>
       <c r="L5">
-        <v>0.9581183576441471</v>
+        <v>0.9581183576441468</v>
       </c>
       <c r="M5">
-        <v>0.9403806887019059</v>
+        <v>0.9403806887019058</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9343829404317945</v>
+        <v>0.9343829404317923</v>
       </c>
       <c r="D6">
-        <v>0.9458793779902926</v>
+        <v>0.9458793779902906</v>
       </c>
       <c r="E6">
-        <v>0.9483156435955796</v>
+        <v>0.9483156435955777</v>
       </c>
       <c r="F6">
-        <v>0.9306229490934621</v>
+        <v>0.9306229490934604</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.033668078847977</v>
       </c>
       <c r="J6">
-        <v>0.9550373142376261</v>
+        <v>0.9550373142376238</v>
       </c>
       <c r="K6">
-        <v>0.9563950822670884</v>
+        <v>0.9563950822670861</v>
       </c>
       <c r="L6">
-        <v>0.9587986629657737</v>
+        <v>0.9587986629657719</v>
       </c>
       <c r="M6">
-        <v>0.9413482460861824</v>
+        <v>0.9413482460861808</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9285929550941655</v>
+        <v>0.9285929550941668</v>
       </c>
       <c r="D7">
-        <v>0.9405570096023459</v>
+        <v>0.940557009602347</v>
       </c>
       <c r="E7">
-        <v>0.9432001824460287</v>
+        <v>0.9432001824460299</v>
       </c>
       <c r="F7">
-        <v>0.9234402112401502</v>
+        <v>0.9234402112401512</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.032193769881149</v>
       </c>
       <c r="J7">
-        <v>0.9500113145835868</v>
+        <v>0.9500113145835879</v>
       </c>
       <c r="K7">
-        <v>0.9514268041616395</v>
+        <v>0.9514268041616404</v>
       </c>
       <c r="L7">
-        <v>0.9540329280298168</v>
+        <v>0.9540329280298181</v>
       </c>
       <c r="M7">
-        <v>0.9345564481061122</v>
+        <v>0.934556448106113</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9012416496169763</v>
+        <v>0.9012416496169753</v>
       </c>
       <c r="D8">
-        <v>0.9153794324308</v>
+        <v>0.9153794324307991</v>
       </c>
       <c r="E8">
-        <v>0.9190091639350466</v>
+        <v>0.9190091639350459</v>
       </c>
       <c r="F8">
-        <v>0.8889597655812872</v>
+        <v>0.888959765581286</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.024998522832897</v>
       </c>
       <c r="J8">
-        <v>0.926161594332695</v>
+        <v>0.9261615943326941</v>
       </c>
       <c r="K8">
-        <v>0.9278422970412439</v>
+        <v>0.927842297041243</v>
       </c>
       <c r="L8">
-        <v>0.9314107492935177</v>
+        <v>0.9314107492935171</v>
       </c>
       <c r="M8">
-        <v>0.9018882950927876</v>
+        <v>0.9018882950927863</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.825796591419074</v>
+        <v>0.8257965914190761</v>
       </c>
       <c r="D9">
-        <v>0.8455832700876171</v>
+        <v>0.8455832700876189</v>
       </c>
       <c r="E9">
-        <v>0.8520144780808947</v>
+        <v>0.8520144780808964</v>
       </c>
       <c r="F9">
-        <v>0.7888108968276232</v>
+        <v>0.7888108968276248</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.003665309902004</v>
+        <v>1.003665309902005</v>
       </c>
       <c r="J9">
-        <v>0.8594599165299694</v>
+        <v>0.8594599165299712</v>
       </c>
       <c r="K9">
-        <v>0.8618012307929499</v>
+        <v>0.8618012307929515</v>
       </c>
       <c r="L9">
-        <v>0.8680717916419998</v>
+        <v>0.8680717916420015</v>
       </c>
       <c r="M9">
-        <v>0.8066041683790931</v>
+        <v>0.8066041683790948</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.825796591419074</v>
+        <v>0.8257965914190761</v>
       </c>
       <c r="D10">
-        <v>0.8455832700876171</v>
+        <v>0.8455832700876189</v>
       </c>
       <c r="E10">
-        <v>0.8520144780808947</v>
+        <v>0.8520144780808964</v>
       </c>
       <c r="F10">
-        <v>0.7888108968276232</v>
+        <v>0.7888108968276248</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.003665309902004</v>
+        <v>1.003665309902005</v>
       </c>
       <c r="J10">
-        <v>0.8594599165299694</v>
+        <v>0.8594599165299712</v>
       </c>
       <c r="K10">
-        <v>0.8618012307929499</v>
+        <v>0.8618012307929515</v>
       </c>
       <c r="L10">
-        <v>0.8680717916419998</v>
+        <v>0.8680717916420015</v>
       </c>
       <c r="M10">
-        <v>0.8066041683790931</v>
+        <v>0.8066041683790948</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.825796591419074</v>
+        <v>0.8257965914190761</v>
       </c>
       <c r="D11">
-        <v>0.8455832700876171</v>
+        <v>0.8455832700876189</v>
       </c>
       <c r="E11">
-        <v>0.8520144780808947</v>
+        <v>0.8520144780808964</v>
       </c>
       <c r="F11">
-        <v>0.7888108968276232</v>
+        <v>0.7888108968276248</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.003665309902004</v>
+        <v>1.003665309902005</v>
       </c>
       <c r="J11">
-        <v>0.8594599165299694</v>
+        <v>0.8594599165299712</v>
       </c>
       <c r="K11">
-        <v>0.8618012307929499</v>
+        <v>0.8618012307929515</v>
       </c>
       <c r="L11">
-        <v>0.8680717916419998</v>
+        <v>0.8680717916420015</v>
       </c>
       <c r="M11">
-        <v>0.8066041683790931</v>
+        <v>0.8066041683790948</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.825796591419074</v>
+        <v>0.8257965914190761</v>
       </c>
       <c r="D12">
-        <v>0.8455832700876171</v>
+        <v>0.8455832700876189</v>
       </c>
       <c r="E12">
-        <v>0.8520144780808947</v>
+        <v>0.8520144780808964</v>
       </c>
       <c r="F12">
-        <v>0.7888108968276232</v>
+        <v>0.7888108968276248</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.003665309902004</v>
+        <v>1.003665309902005</v>
       </c>
       <c r="J12">
-        <v>0.8594599165299694</v>
+        <v>0.8594599165299712</v>
       </c>
       <c r="K12">
-        <v>0.8618012307929499</v>
+        <v>0.8618012307929515</v>
       </c>
       <c r="L12">
-        <v>0.8680717916419998</v>
+        <v>0.8680717916420015</v>
       </c>
       <c r="M12">
-        <v>0.8066041683790931</v>
+        <v>0.8066041683790948</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.825796591419074</v>
+        <v>0.8257965914190761</v>
       </c>
       <c r="D13">
-        <v>0.8455832700876171</v>
+        <v>0.8455832700876189</v>
       </c>
       <c r="E13">
-        <v>0.8520144780808947</v>
+        <v>0.8520144780808964</v>
       </c>
       <c r="F13">
-        <v>0.7888108968276232</v>
+        <v>0.7888108968276248</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.003665309902004</v>
+        <v>1.003665309902005</v>
       </c>
       <c r="J13">
-        <v>0.8594599165299694</v>
+        <v>0.8594599165299712</v>
       </c>
       <c r="K13">
-        <v>0.8618012307929499</v>
+        <v>0.8618012307929515</v>
       </c>
       <c r="L13">
-        <v>0.8680717916419998</v>
+        <v>0.8680717916420015</v>
       </c>
       <c r="M13">
-        <v>0.8066041683790931</v>
+        <v>0.8066041683790948</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.825796591419074</v>
+        <v>0.8257965914190761</v>
       </c>
       <c r="D14">
-        <v>0.8455832700876171</v>
+        <v>0.8455832700876189</v>
       </c>
       <c r="E14">
-        <v>0.8520144780808947</v>
+        <v>0.8520144780808964</v>
       </c>
       <c r="F14">
-        <v>0.7888108968276232</v>
+        <v>0.7888108968276248</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.003665309902004</v>
+        <v>1.003665309902005</v>
       </c>
       <c r="J14">
-        <v>0.8594599165299694</v>
+        <v>0.8594599165299712</v>
       </c>
       <c r="K14">
-        <v>0.8618012307929499</v>
+        <v>0.8618012307929515</v>
       </c>
       <c r="L14">
-        <v>0.8680717916419998</v>
+        <v>0.8680717916420015</v>
       </c>
       <c r="M14">
-        <v>0.8066041683790931</v>
+        <v>0.8066041683790948</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.825796591419074</v>
+        <v>0.8257965914190761</v>
       </c>
       <c r="D15">
-        <v>0.8455832700876171</v>
+        <v>0.8455832700876189</v>
       </c>
       <c r="E15">
-        <v>0.8520144780808947</v>
+        <v>0.8520144780808964</v>
       </c>
       <c r="F15">
-        <v>0.7888108968276232</v>
+        <v>0.7888108968276248</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.003665309902004</v>
+        <v>1.003665309902005</v>
       </c>
       <c r="J15">
-        <v>0.8594599165299694</v>
+        <v>0.8594599165299712</v>
       </c>
       <c r="K15">
-        <v>0.8618012307929499</v>
+        <v>0.8618012307929515</v>
       </c>
       <c r="L15">
-        <v>0.8680717916419998</v>
+        <v>0.8680717916420015</v>
       </c>
       <c r="M15">
-        <v>0.8066041683790931</v>
+        <v>0.8066041683790948</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.825796591419074</v>
+        <v>0.8257965914190761</v>
       </c>
       <c r="D16">
-        <v>0.8455832700876171</v>
+        <v>0.8455832700876189</v>
       </c>
       <c r="E16">
-        <v>0.8520144780808947</v>
+        <v>0.8520144780808964</v>
       </c>
       <c r="F16">
-        <v>0.7888108968276232</v>
+        <v>0.7888108968276248</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.003665309902004</v>
+        <v>1.003665309902005</v>
       </c>
       <c r="J16">
-        <v>0.8594599165299694</v>
+        <v>0.8594599165299712</v>
       </c>
       <c r="K16">
-        <v>0.8618012307929499</v>
+        <v>0.8618012307929515</v>
       </c>
       <c r="L16">
-        <v>0.8680717916419998</v>
+        <v>0.8680717916420015</v>
       </c>
       <c r="M16">
-        <v>0.8066041683790931</v>
+        <v>0.8066041683790948</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.825796591419074</v>
+        <v>0.8257965914190761</v>
       </c>
       <c r="D17">
-        <v>0.8455832700876171</v>
+        <v>0.8455832700876189</v>
       </c>
       <c r="E17">
-        <v>0.8520144780808947</v>
+        <v>0.8520144780808964</v>
       </c>
       <c r="F17">
-        <v>0.7888108968276232</v>
+        <v>0.7888108968276248</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.003665309902004</v>
+        <v>1.003665309902005</v>
       </c>
       <c r="J17">
-        <v>0.8594599165299694</v>
+        <v>0.8594599165299712</v>
       </c>
       <c r="K17">
-        <v>0.8618012307929499</v>
+        <v>0.8618012307929515</v>
       </c>
       <c r="L17">
-        <v>0.8680717916419998</v>
+        <v>0.8680717916420015</v>
       </c>
       <c r="M17">
-        <v>0.8066041683790931</v>
+        <v>0.8066041683790948</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.825796591419074</v>
+        <v>0.8257965914190761</v>
       </c>
       <c r="D18">
-        <v>0.8455832700876171</v>
+        <v>0.8455832700876189</v>
       </c>
       <c r="E18">
-        <v>0.8520144780808947</v>
+        <v>0.8520144780808964</v>
       </c>
       <c r="F18">
-        <v>0.7888108968276232</v>
+        <v>0.7888108968276248</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.003665309902004</v>
+        <v>1.003665309902005</v>
       </c>
       <c r="J18">
-        <v>0.8594599165299694</v>
+        <v>0.8594599165299712</v>
       </c>
       <c r="K18">
-        <v>0.8618012307929499</v>
+        <v>0.8618012307929515</v>
       </c>
       <c r="L18">
-        <v>0.8680717916419998</v>
+        <v>0.8680717916420015</v>
       </c>
       <c r="M18">
-        <v>0.8066041683790931</v>
+        <v>0.8066041683790948</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.825796591419074</v>
+        <v>0.8257965914190761</v>
       </c>
       <c r="D19">
-        <v>0.8455832700876171</v>
+        <v>0.8455832700876189</v>
       </c>
       <c r="E19">
-        <v>0.8520144780808947</v>
+        <v>0.8520144780808964</v>
       </c>
       <c r="F19">
-        <v>0.7888108968276232</v>
+        <v>0.7888108968276248</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.003665309902004</v>
+        <v>1.003665309902005</v>
       </c>
       <c r="J19">
-        <v>0.8594599165299694</v>
+        <v>0.8594599165299712</v>
       </c>
       <c r="K19">
-        <v>0.8618012307929499</v>
+        <v>0.8618012307929515</v>
       </c>
       <c r="L19">
-        <v>0.8680717916419998</v>
+        <v>0.8680717916420015</v>
       </c>
       <c r="M19">
-        <v>0.8066041683790931</v>
+        <v>0.8066041683790948</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.825796591419074</v>
+        <v>0.8257965914190761</v>
       </c>
       <c r="D20">
-        <v>0.8455832700876171</v>
+        <v>0.8455832700876189</v>
       </c>
       <c r="E20">
-        <v>0.8520144780808947</v>
+        <v>0.8520144780808964</v>
       </c>
       <c r="F20">
-        <v>0.7888108968276232</v>
+        <v>0.7888108968276248</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.003665309902004</v>
+        <v>1.003665309902005</v>
       </c>
       <c r="J20">
-        <v>0.8594599165299694</v>
+        <v>0.8594599165299712</v>
       </c>
       <c r="K20">
-        <v>0.8618012307929499</v>
+        <v>0.8618012307929515</v>
       </c>
       <c r="L20">
-        <v>0.8680717916419998</v>
+        <v>0.8680717916420015</v>
       </c>
       <c r="M20">
-        <v>0.8066041683790931</v>
+        <v>0.8066041683790948</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.825796591419074</v>
+        <v>0.8257965914190761</v>
       </c>
       <c r="D21">
-        <v>0.8455832700876171</v>
+        <v>0.8455832700876189</v>
       </c>
       <c r="E21">
-        <v>0.8520144780808947</v>
+        <v>0.8520144780808964</v>
       </c>
       <c r="F21">
-        <v>0.7888108968276232</v>
+        <v>0.7888108968276248</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.003665309902004</v>
+        <v>1.003665309902005</v>
       </c>
       <c r="J21">
-        <v>0.8594599165299694</v>
+        <v>0.8594599165299712</v>
       </c>
       <c r="K21">
-        <v>0.8618012307929499</v>
+        <v>0.8618012307929515</v>
       </c>
       <c r="L21">
-        <v>0.8680717916419998</v>
+        <v>0.8680717916420015</v>
       </c>
       <c r="M21">
-        <v>0.8066041683790931</v>
+        <v>0.8066041683790948</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.825796591419074</v>
+        <v>0.8257965914190761</v>
       </c>
       <c r="D22">
-        <v>0.8455832700876171</v>
+        <v>0.8455832700876189</v>
       </c>
       <c r="E22">
-        <v>0.8520144780808947</v>
+        <v>0.8520144780808964</v>
       </c>
       <c r="F22">
-        <v>0.7888108968276232</v>
+        <v>0.7888108968276248</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.003665309902004</v>
+        <v>1.003665309902005</v>
       </c>
       <c r="J22">
-        <v>0.8594599165299694</v>
+        <v>0.8594599165299712</v>
       </c>
       <c r="K22">
-        <v>0.8618012307929499</v>
+        <v>0.8618012307929515</v>
       </c>
       <c r="L22">
-        <v>0.8680717916419998</v>
+        <v>0.8680717916420015</v>
       </c>
       <c r="M22">
-        <v>0.8066041683790931</v>
+        <v>0.8066041683790948</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.825796591419074</v>
+        <v>0.8257965914190761</v>
       </c>
       <c r="D23">
-        <v>0.8455832700876171</v>
+        <v>0.8455832700876189</v>
       </c>
       <c r="E23">
-        <v>0.8520144780808947</v>
+        <v>0.8520144780808964</v>
       </c>
       <c r="F23">
-        <v>0.7888108968276232</v>
+        <v>0.7888108968276248</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.003665309902004</v>
+        <v>1.003665309902005</v>
       </c>
       <c r="J23">
-        <v>0.8594599165299694</v>
+        <v>0.8594599165299712</v>
       </c>
       <c r="K23">
-        <v>0.8618012307929499</v>
+        <v>0.8618012307929515</v>
       </c>
       <c r="L23">
-        <v>0.8680717916419998</v>
+        <v>0.8680717916420015</v>
       </c>
       <c r="M23">
-        <v>0.8066041683790931</v>
+        <v>0.8066041683790948</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.825796591419074</v>
+        <v>0.8257965914190761</v>
       </c>
       <c r="D24">
-        <v>0.8455832700876171</v>
+        <v>0.8455832700876189</v>
       </c>
       <c r="E24">
-        <v>0.8520144780808947</v>
+        <v>0.8520144780808964</v>
       </c>
       <c r="F24">
-        <v>0.7888108968276232</v>
+        <v>0.7888108968276248</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.003665309902004</v>
+        <v>1.003665309902005</v>
       </c>
       <c r="J24">
-        <v>0.8594599165299694</v>
+        <v>0.8594599165299712</v>
       </c>
       <c r="K24">
-        <v>0.8618012307929499</v>
+        <v>0.8618012307929515</v>
       </c>
       <c r="L24">
-        <v>0.8680717916419998</v>
+        <v>0.8680717916420015</v>
       </c>
       <c r="M24">
-        <v>0.8066041683790931</v>
+        <v>0.8066041683790948</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.825796591419074</v>
+        <v>0.8257965914190761</v>
       </c>
       <c r="D25">
-        <v>0.8455832700876171</v>
+        <v>0.8455832700876189</v>
       </c>
       <c r="E25">
-        <v>0.8520144780808947</v>
+        <v>0.8520144780808964</v>
       </c>
       <c r="F25">
-        <v>0.7888108968276232</v>
+        <v>0.7888108968276248</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.003665309902004</v>
+        <v>1.003665309902005</v>
       </c>
       <c r="J25">
-        <v>0.8594599165299694</v>
+        <v>0.8594599165299712</v>
       </c>
       <c r="K25">
-        <v>0.8618012307929499</v>
+        <v>0.8618012307929515</v>
       </c>
       <c r="L25">
-        <v>0.8680717916419998</v>
+        <v>0.8680717916420015</v>
       </c>
       <c r="M25">
-        <v>0.8066041683790931</v>
+        <v>0.8066041683790948</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_18/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8931253026551569</v>
+        <v>0.8932342436350685</v>
       </c>
       <c r="D2">
-        <v>0.9078967621430839</v>
+        <v>0.9079969395319667</v>
       </c>
       <c r="E2">
-        <v>0.9118221625247661</v>
+        <v>0.9119168606911604</v>
       </c>
       <c r="F2">
-        <v>0.8785525101509921</v>
+        <v>0.8786517281753048</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.022799201682209</v>
+        <v>1.022811436964238</v>
       </c>
       <c r="J2">
-        <v>0.9190511156525228</v>
+        <v>0.9191555878618077</v>
       </c>
       <c r="K2">
-        <v>0.9208081225479738</v>
+        <v>0.920906512914761</v>
       </c>
       <c r="L2">
-        <v>0.9246638802680646</v>
+        <v>0.9247569079460658</v>
       </c>
       <c r="M2">
-        <v>0.8920103354629991</v>
+        <v>0.8921076251584538</v>
+      </c>
+      <c r="N2">
+        <v>0.9478467359517816</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9157497706093314</v>
+        <v>0.915830882616595</v>
       </c>
       <c r="D3">
-        <v>0.9287417805321553</v>
+        <v>0.9288164499110063</v>
       </c>
       <c r="E3">
-        <v>0.9318463250694282</v>
+        <v>0.9319168690403276</v>
       </c>
       <c r="F3">
-        <v>0.9073623017642753</v>
+        <v>0.9074339703659814</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.028859645790069</v>
+        <v>1.028868055195342</v>
       </c>
       <c r="J3">
-        <v>0.9388340740788816</v>
+        <v>0.9389123675002117</v>
       </c>
       <c r="K3">
-        <v>0.9403756323121968</v>
+        <v>0.9404491502271145</v>
       </c>
       <c r="L3">
-        <v>0.9434325007462351</v>
+        <v>0.9435019660900039</v>
       </c>
       <c r="M3">
-        <v>0.9193358621115187</v>
+        <v>0.9194063575658521</v>
+      </c>
+      <c r="N3">
+        <v>0.9611996840030247</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9285245001496927</v>
+        <v>0.9285917302931807</v>
       </c>
       <c r="D4">
-        <v>0.9404940676324348</v>
+        <v>0.9405560079726137</v>
       </c>
       <c r="E4">
-        <v>0.9431396907920266</v>
+        <v>0.9431981963747077</v>
       </c>
       <c r="F4">
-        <v>0.9233550452023189</v>
+        <v>0.9234136001232391</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03217622727769</v>
+        <v>1.032182929198157</v>
       </c>
       <c r="J4">
-        <v>0.9499518434388193</v>
+        <v>0.9500169674222215</v>
       </c>
       <c r="K4">
-        <v>0.9513680121495991</v>
+        <v>0.9514290808255448</v>
       </c>
       <c r="L4">
-        <v>0.9539765331616658</v>
+        <v>0.9540342212331833</v>
       </c>
       <c r="M4">
-        <v>0.9344758864697634</v>
+        <v>0.9345335780608238</v>
+      </c>
+      <c r="N4">
+        <v>0.9687051652859053</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9335558029871046</v>
+        <v>0.9336178525522246</v>
       </c>
       <c r="D5">
-        <v>0.9451192034704295</v>
+        <v>0.9451763914280318</v>
       </c>
       <c r="E5">
-        <v>0.9475849856085141</v>
+        <v>0.9476389992805522</v>
       </c>
       <c r="F5">
-        <v>0.929599357501993</v>
+        <v>0.9296531206897503</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033458630265053</v>
+        <v>1.033464727418613</v>
       </c>
       <c r="J5">
-        <v>0.9543198198855058</v>
+        <v>0.9543800077343962</v>
       </c>
       <c r="K5">
-        <v>0.9556858677648913</v>
+        <v>0.9557422811126693</v>
       </c>
       <c r="L5">
-        <v>0.9581183576441468</v>
+        <v>0.9581716444770951</v>
       </c>
       <c r="M5">
-        <v>0.9403806887019058</v>
+        <v>0.9404336926156176</v>
+      </c>
+      <c r="N5">
+        <v>0.9716540419901292</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9343829404317923</v>
+        <v>0.9344441523574175</v>
       </c>
       <c r="D6">
-        <v>0.9458793779902906</v>
+        <v>0.9459357974139018</v>
       </c>
       <c r="E6">
-        <v>0.9483156435955777</v>
+        <v>0.9483689309904204</v>
       </c>
       <c r="F6">
-        <v>0.9306229490934604</v>
+        <v>0.9306759425877141</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033668078847977</v>
+        <v>1.033674079824315</v>
       </c>
       <c r="J6">
-        <v>0.9550373142376238</v>
+        <v>0.9550967028236143</v>
       </c>
       <c r="K6">
-        <v>0.9563950822670861</v>
+        <v>0.9564507423748795</v>
       </c>
       <c r="L6">
-        <v>0.9587986629657719</v>
+        <v>0.9588512378148877</v>
       </c>
       <c r="M6">
-        <v>0.9413482460861808</v>
+        <v>0.9414004965392</v>
+      </c>
+      <c r="N6">
+        <v>0.972138433537189</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9285929550941668</v>
+        <v>0.9286601137376921</v>
       </c>
       <c r="D7">
-        <v>0.940557009602347</v>
+        <v>0.9406188843611174</v>
       </c>
       <c r="E7">
-        <v>0.9432001824460299</v>
+        <v>0.9432586260320103</v>
       </c>
       <c r="F7">
-        <v>0.9234402112401512</v>
+        <v>0.923498699656854</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032193769881149</v>
+        <v>1.032200463337346</v>
       </c>
       <c r="J7">
-        <v>0.9500113145835879</v>
+        <v>0.9500763705227151</v>
       </c>
       <c r="K7">
-        <v>0.9514268041616404</v>
+        <v>0.9514878086240659</v>
       </c>
       <c r="L7">
-        <v>0.9540329280298181</v>
+        <v>0.9540905553821929</v>
       </c>
       <c r="M7">
-        <v>0.934556448106113</v>
+        <v>0.9346140746719488</v>
+      </c>
+      <c r="N7">
+        <v>0.9687453147977479</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9012416496169753</v>
+        <v>0.9013400481785939</v>
       </c>
       <c r="D8">
-        <v>0.9153794324307991</v>
+        <v>0.9154699467573356</v>
       </c>
       <c r="E8">
-        <v>0.9190091639350459</v>
+        <v>0.919094707225223</v>
       </c>
       <c r="F8">
-        <v>0.888959765581286</v>
+        <v>0.8890483443659022</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.024998522832897</v>
+        <v>1.025009243720706</v>
       </c>
       <c r="J8">
-        <v>0.9261615943326941</v>
+        <v>0.9262561809632311</v>
       </c>
       <c r="K8">
-        <v>0.927842297041243</v>
+        <v>0.9279312756262607</v>
       </c>
       <c r="L8">
-        <v>0.9314107492935171</v>
+        <v>0.931494855918641</v>
       </c>
       <c r="M8">
-        <v>0.9018882950927863</v>
+        <v>0.9019752524046514</v>
+      </c>
+      <c r="N8">
+        <v>0.9526456342585494</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8257965914190761</v>
+        <v>0.826046474763602</v>
       </c>
       <c r="D9">
-        <v>0.8455832700876189</v>
+        <v>0.8458132455628129</v>
       </c>
       <c r="E9">
-        <v>0.8520144780808964</v>
+        <v>0.8522326166296044</v>
       </c>
       <c r="F9">
-        <v>0.7888108968276248</v>
+        <v>0.7890750660230593</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.003665309902005</v>
+        <v>1.003705200884226</v>
       </c>
       <c r="J9">
-        <v>0.8594599165299712</v>
+        <v>0.8596945145030245</v>
       </c>
       <c r="K9">
-        <v>0.8618012307929515</v>
+        <v>0.862025404768294</v>
       </c>
       <c r="L9">
-        <v>0.8680717916420015</v>
+        <v>0.8682845385023152</v>
       </c>
       <c r="M9">
-        <v>0.8066041683790948</v>
+        <v>0.8068602827311824</v>
+      </c>
+      <c r="N9">
+        <v>0.9076785728462464</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8257965914190761</v>
+        <v>0.826046474763602</v>
       </c>
       <c r="D10">
-        <v>0.8455832700876189</v>
+        <v>0.8458132455628129</v>
       </c>
       <c r="E10">
-        <v>0.8520144780808964</v>
+        <v>0.8522326166296044</v>
       </c>
       <c r="F10">
-        <v>0.7888108968276248</v>
+        <v>0.7890750660230593</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.003665309902005</v>
+        <v>1.003705200884226</v>
       </c>
       <c r="J10">
-        <v>0.8594599165299712</v>
+        <v>0.8596945145030245</v>
       </c>
       <c r="K10">
-        <v>0.8618012307929515</v>
+        <v>0.862025404768294</v>
       </c>
       <c r="L10">
-        <v>0.8680717916420015</v>
+        <v>0.8682845385023152</v>
       </c>
       <c r="M10">
-        <v>0.8066041683790948</v>
+        <v>0.8068602827311824</v>
+      </c>
+      <c r="N10">
+        <v>0.9076785728462464</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8257965914190761</v>
+        <v>0.826046474763602</v>
       </c>
       <c r="D11">
-        <v>0.8455832700876189</v>
+        <v>0.8458132455628129</v>
       </c>
       <c r="E11">
-        <v>0.8520144780808964</v>
+        <v>0.8522326166296044</v>
       </c>
       <c r="F11">
-        <v>0.7888108968276248</v>
+        <v>0.7890750660230593</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.003665309902005</v>
+        <v>1.003705200884226</v>
       </c>
       <c r="J11">
-        <v>0.8594599165299712</v>
+        <v>0.8596945145030245</v>
       </c>
       <c r="K11">
-        <v>0.8618012307929515</v>
+        <v>0.862025404768294</v>
       </c>
       <c r="L11">
-        <v>0.8680717916420015</v>
+        <v>0.8682845385023152</v>
       </c>
       <c r="M11">
-        <v>0.8066041683790948</v>
+        <v>0.8068602827311824</v>
+      </c>
+      <c r="N11">
+        <v>0.9076785728462464</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8257965914190761</v>
+        <v>0.826046474763602</v>
       </c>
       <c r="D12">
-        <v>0.8455832700876189</v>
+        <v>0.8458132455628129</v>
       </c>
       <c r="E12">
-        <v>0.8520144780808964</v>
+        <v>0.8522326166296044</v>
       </c>
       <c r="F12">
-        <v>0.7888108968276248</v>
+        <v>0.7890750660230593</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.003665309902005</v>
+        <v>1.003705200884226</v>
       </c>
       <c r="J12">
-        <v>0.8594599165299712</v>
+        <v>0.8596945145030245</v>
       </c>
       <c r="K12">
-        <v>0.8618012307929515</v>
+        <v>0.862025404768294</v>
       </c>
       <c r="L12">
-        <v>0.8680717916420015</v>
+        <v>0.8682845385023152</v>
       </c>
       <c r="M12">
-        <v>0.8066041683790948</v>
+        <v>0.8068602827311824</v>
+      </c>
+      <c r="N12">
+        <v>0.9076785728462464</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8257965914190761</v>
+        <v>0.826046474763602</v>
       </c>
       <c r="D13">
-        <v>0.8455832700876189</v>
+        <v>0.8458132455628129</v>
       </c>
       <c r="E13">
-        <v>0.8520144780808964</v>
+        <v>0.8522326166296044</v>
       </c>
       <c r="F13">
-        <v>0.7888108968276248</v>
+        <v>0.7890750660230593</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.003665309902005</v>
+        <v>1.003705200884226</v>
       </c>
       <c r="J13">
-        <v>0.8594599165299712</v>
+        <v>0.8596945145030245</v>
       </c>
       <c r="K13">
-        <v>0.8618012307929515</v>
+        <v>0.862025404768294</v>
       </c>
       <c r="L13">
-        <v>0.8680717916420015</v>
+        <v>0.8682845385023152</v>
       </c>
       <c r="M13">
-        <v>0.8066041683790948</v>
+        <v>0.8068602827311824</v>
+      </c>
+      <c r="N13">
+        <v>0.9076785728462464</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8257965914190761</v>
+        <v>0.826046474763602</v>
       </c>
       <c r="D14">
-        <v>0.8455832700876189</v>
+        <v>0.8458132455628129</v>
       </c>
       <c r="E14">
-        <v>0.8520144780808964</v>
+        <v>0.8522326166296044</v>
       </c>
       <c r="F14">
-        <v>0.7888108968276248</v>
+        <v>0.7890750660230593</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.003665309902005</v>
+        <v>1.003705200884226</v>
       </c>
       <c r="J14">
-        <v>0.8594599165299712</v>
+        <v>0.8596945145030245</v>
       </c>
       <c r="K14">
-        <v>0.8618012307929515</v>
+        <v>0.862025404768294</v>
       </c>
       <c r="L14">
-        <v>0.8680717916420015</v>
+        <v>0.8682845385023152</v>
       </c>
       <c r="M14">
-        <v>0.8066041683790948</v>
+        <v>0.8068602827311824</v>
+      </c>
+      <c r="N14">
+        <v>0.9076785728462464</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8257965914190761</v>
+        <v>0.826046474763602</v>
       </c>
       <c r="D15">
-        <v>0.8455832700876189</v>
+        <v>0.8458132455628129</v>
       </c>
       <c r="E15">
-        <v>0.8520144780808964</v>
+        <v>0.8522326166296044</v>
       </c>
       <c r="F15">
-        <v>0.7888108968276248</v>
+        <v>0.7890750660230593</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.003665309902005</v>
+        <v>1.003705200884226</v>
       </c>
       <c r="J15">
-        <v>0.8594599165299712</v>
+        <v>0.8596945145030245</v>
       </c>
       <c r="K15">
-        <v>0.8618012307929515</v>
+        <v>0.862025404768294</v>
       </c>
       <c r="L15">
-        <v>0.8680717916420015</v>
+        <v>0.8682845385023152</v>
       </c>
       <c r="M15">
-        <v>0.8066041683790948</v>
+        <v>0.8068602827311824</v>
+      </c>
+      <c r="N15">
+        <v>0.9076785728462464</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8257965914190761</v>
+        <v>0.826046474763602</v>
       </c>
       <c r="D16">
-        <v>0.8455832700876189</v>
+        <v>0.8458132455628129</v>
       </c>
       <c r="E16">
-        <v>0.8520144780808964</v>
+        <v>0.8522326166296044</v>
       </c>
       <c r="F16">
-        <v>0.7888108968276248</v>
+        <v>0.7890750660230593</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.003665309902005</v>
+        <v>1.003705200884226</v>
       </c>
       <c r="J16">
-        <v>0.8594599165299712</v>
+        <v>0.8596945145030245</v>
       </c>
       <c r="K16">
-        <v>0.8618012307929515</v>
+        <v>0.862025404768294</v>
       </c>
       <c r="L16">
-        <v>0.8680717916420015</v>
+        <v>0.8682845385023152</v>
       </c>
       <c r="M16">
-        <v>0.8066041683790948</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8068602827311824</v>
+      </c>
+      <c r="N16">
+        <v>0.9076785728462464</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8257965914190761</v>
+        <v>0.826046474763602</v>
       </c>
       <c r="D17">
-        <v>0.8455832700876189</v>
+        <v>0.8458132455628129</v>
       </c>
       <c r="E17">
-        <v>0.8520144780808964</v>
+        <v>0.8522326166296044</v>
       </c>
       <c r="F17">
-        <v>0.7888108968276248</v>
+        <v>0.7890750660230593</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.003665309902005</v>
+        <v>1.003705200884226</v>
       </c>
       <c r="J17">
-        <v>0.8594599165299712</v>
+        <v>0.8596945145030245</v>
       </c>
       <c r="K17">
-        <v>0.8618012307929515</v>
+        <v>0.862025404768294</v>
       </c>
       <c r="L17">
-        <v>0.8680717916420015</v>
+        <v>0.8682845385023152</v>
       </c>
       <c r="M17">
-        <v>0.8066041683790948</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8068602827311824</v>
+      </c>
+      <c r="N17">
+        <v>0.9076785728462464</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8257965914190761</v>
+        <v>0.826046474763602</v>
       </c>
       <c r="D18">
-        <v>0.8455832700876189</v>
+        <v>0.8458132455628129</v>
       </c>
       <c r="E18">
-        <v>0.8520144780808964</v>
+        <v>0.8522326166296044</v>
       </c>
       <c r="F18">
-        <v>0.7888108968276248</v>
+        <v>0.7890750660230593</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.003665309902005</v>
+        <v>1.003705200884226</v>
       </c>
       <c r="J18">
-        <v>0.8594599165299712</v>
+        <v>0.8596945145030245</v>
       </c>
       <c r="K18">
-        <v>0.8618012307929515</v>
+        <v>0.862025404768294</v>
       </c>
       <c r="L18">
-        <v>0.8680717916420015</v>
+        <v>0.8682845385023152</v>
       </c>
       <c r="M18">
-        <v>0.8066041683790948</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8068602827311824</v>
+      </c>
+      <c r="N18">
+        <v>0.9076785728462464</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8257965914190761</v>
+        <v>0.826046474763602</v>
       </c>
       <c r="D19">
-        <v>0.8455832700876189</v>
+        <v>0.8458132455628129</v>
       </c>
       <c r="E19">
-        <v>0.8520144780808964</v>
+        <v>0.8522326166296044</v>
       </c>
       <c r="F19">
-        <v>0.7888108968276248</v>
+        <v>0.7890750660230593</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.003665309902005</v>
+        <v>1.003705200884226</v>
       </c>
       <c r="J19">
-        <v>0.8594599165299712</v>
+        <v>0.8596945145030245</v>
       </c>
       <c r="K19">
-        <v>0.8618012307929515</v>
+        <v>0.862025404768294</v>
       </c>
       <c r="L19">
-        <v>0.8680717916420015</v>
+        <v>0.8682845385023152</v>
       </c>
       <c r="M19">
-        <v>0.8066041683790948</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8068602827311824</v>
+      </c>
+      <c r="N19">
+        <v>0.9076785728462464</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8257965914190761</v>
+        <v>0.826046474763602</v>
       </c>
       <c r="D20">
-        <v>0.8455832700876189</v>
+        <v>0.8458132455628129</v>
       </c>
       <c r="E20">
-        <v>0.8520144780808964</v>
+        <v>0.8522326166296044</v>
       </c>
       <c r="F20">
-        <v>0.7888108968276248</v>
+        <v>0.7890750660230593</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.003665309902005</v>
+        <v>1.003705200884226</v>
       </c>
       <c r="J20">
-        <v>0.8594599165299712</v>
+        <v>0.8596945145030245</v>
       </c>
       <c r="K20">
-        <v>0.8618012307929515</v>
+        <v>0.862025404768294</v>
       </c>
       <c r="L20">
-        <v>0.8680717916420015</v>
+        <v>0.8682845385023152</v>
       </c>
       <c r="M20">
-        <v>0.8066041683790948</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8068602827311824</v>
+      </c>
+      <c r="N20">
+        <v>0.9076785728462464</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8257965914190761</v>
+        <v>0.826046474763602</v>
       </c>
       <c r="D21">
-        <v>0.8455832700876189</v>
+        <v>0.8458132455628129</v>
       </c>
       <c r="E21">
-        <v>0.8520144780808964</v>
+        <v>0.8522326166296044</v>
       </c>
       <c r="F21">
-        <v>0.7888108968276248</v>
+        <v>0.7890750660230593</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.003665309902005</v>
+        <v>1.003705200884226</v>
       </c>
       <c r="J21">
-        <v>0.8594599165299712</v>
+        <v>0.8596945145030245</v>
       </c>
       <c r="K21">
-        <v>0.8618012307929515</v>
+        <v>0.862025404768294</v>
       </c>
       <c r="L21">
-        <v>0.8680717916420015</v>
+        <v>0.8682845385023152</v>
       </c>
       <c r="M21">
-        <v>0.8066041683790948</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8068602827311824</v>
+      </c>
+      <c r="N21">
+        <v>0.9076785728462464</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8257965914190761</v>
+        <v>0.826046474763602</v>
       </c>
       <c r="D22">
-        <v>0.8455832700876189</v>
+        <v>0.8458132455628129</v>
       </c>
       <c r="E22">
-        <v>0.8520144780808964</v>
+        <v>0.8522326166296044</v>
       </c>
       <c r="F22">
-        <v>0.7888108968276248</v>
+        <v>0.7890750660230593</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.003665309902005</v>
+        <v>1.003705200884226</v>
       </c>
       <c r="J22">
-        <v>0.8594599165299712</v>
+        <v>0.8596945145030245</v>
       </c>
       <c r="K22">
-        <v>0.8618012307929515</v>
+        <v>0.862025404768294</v>
       </c>
       <c r="L22">
-        <v>0.8680717916420015</v>
+        <v>0.8682845385023152</v>
       </c>
       <c r="M22">
-        <v>0.8066041683790948</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8068602827311824</v>
+      </c>
+      <c r="N22">
+        <v>0.9076785728462464</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8257965914190761</v>
+        <v>0.826046474763602</v>
       </c>
       <c r="D23">
-        <v>0.8455832700876189</v>
+        <v>0.8458132455628129</v>
       </c>
       <c r="E23">
-        <v>0.8520144780808964</v>
+        <v>0.8522326166296044</v>
       </c>
       <c r="F23">
-        <v>0.7888108968276248</v>
+        <v>0.7890750660230593</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.003665309902005</v>
+        <v>1.003705200884226</v>
       </c>
       <c r="J23">
-        <v>0.8594599165299712</v>
+        <v>0.8596945145030245</v>
       </c>
       <c r="K23">
-        <v>0.8618012307929515</v>
+        <v>0.862025404768294</v>
       </c>
       <c r="L23">
-        <v>0.8680717916420015</v>
+        <v>0.8682845385023152</v>
       </c>
       <c r="M23">
-        <v>0.8066041683790948</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8068602827311824</v>
+      </c>
+      <c r="N23">
+        <v>0.9076785728462464</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8257965914190761</v>
+        <v>0.826046474763602</v>
       </c>
       <c r="D24">
-        <v>0.8455832700876189</v>
+        <v>0.8458132455628129</v>
       </c>
       <c r="E24">
-        <v>0.8520144780808964</v>
+        <v>0.8522326166296044</v>
       </c>
       <c r="F24">
-        <v>0.7888108968276248</v>
+        <v>0.7890750660230593</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.003665309902005</v>
+        <v>1.003705200884226</v>
       </c>
       <c r="J24">
-        <v>0.8594599165299712</v>
+        <v>0.8596945145030245</v>
       </c>
       <c r="K24">
-        <v>0.8618012307929515</v>
+        <v>0.862025404768294</v>
       </c>
       <c r="L24">
-        <v>0.8680717916420015</v>
+        <v>0.8682845385023152</v>
       </c>
       <c r="M24">
-        <v>0.8066041683790948</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8068602827311824</v>
+      </c>
+      <c r="N24">
+        <v>0.9076785728462464</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8257965914190761</v>
+        <v>0.826046474763602</v>
       </c>
       <c r="D25">
-        <v>0.8455832700876189</v>
+        <v>0.8458132455628129</v>
       </c>
       <c r="E25">
-        <v>0.8520144780808964</v>
+        <v>0.8522326166296044</v>
       </c>
       <c r="F25">
-        <v>0.7888108968276248</v>
+        <v>0.7890750660230593</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.003665309902005</v>
+        <v>1.003705200884226</v>
       </c>
       <c r="J25">
-        <v>0.8594599165299712</v>
+        <v>0.8596945145030245</v>
       </c>
       <c r="K25">
-        <v>0.8618012307929515</v>
+        <v>0.862025404768294</v>
       </c>
       <c r="L25">
-        <v>0.8680717916420015</v>
+        <v>0.8682845385023152</v>
       </c>
       <c r="M25">
-        <v>0.8066041683790948</v>
+        <v>0.8068602827311824</v>
+      </c>
+      <c r="N25">
+        <v>0.9076785728462464</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_18/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8932342436350685</v>
+        <v>0.9884298131776029</v>
       </c>
       <c r="D2">
-        <v>0.9079969395319667</v>
+        <v>1.003174705694478</v>
       </c>
       <c r="E2">
-        <v>0.9119168606911604</v>
+        <v>1.002468949245132</v>
       </c>
       <c r="F2">
-        <v>0.8786517281753048</v>
+        <v>1.009121592730422</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.022811436964238</v>
+        <v>1.042209770869604</v>
       </c>
       <c r="J2">
-        <v>0.9191555878618077</v>
+        <v>1.010962180990853</v>
       </c>
       <c r="K2">
-        <v>0.920906512914761</v>
+        <v>1.014589988306789</v>
       </c>
       <c r="L2">
-        <v>0.9247569079460658</v>
+        <v>1.013893994516781</v>
       </c>
       <c r="M2">
-        <v>0.8921076251584538</v>
+        <v>1.020455295309269</v>
       </c>
       <c r="N2">
-        <v>0.9478467359517816</v>
+        <v>1.012397863246843</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.915830882616595</v>
+        <v>1.003527759312714</v>
       </c>
       <c r="D3">
-        <v>0.9288164499110063</v>
+        <v>1.017617479205522</v>
       </c>
       <c r="E3">
-        <v>0.9319168690403276</v>
+        <v>1.015985770083528</v>
       </c>
       <c r="F3">
-        <v>0.9074339703659814</v>
+        <v>1.023706246460797</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.028868055195342</v>
+        <v>1.043718016720968</v>
       </c>
       <c r="J3">
-        <v>0.9389123675002117</v>
+        <v>1.023922713865982</v>
       </c>
       <c r="K3">
-        <v>0.9404491502271145</v>
+        <v>1.028029796361075</v>
       </c>
       <c r="L3">
-        <v>0.9435019660900039</v>
+        <v>1.026418115600945</v>
       </c>
       <c r="M3">
-        <v>0.9194063575658521</v>
+        <v>1.034044527120329</v>
       </c>
       <c r="N3">
-        <v>0.9611996840030247</v>
+        <v>1.025376801565249</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9285917302931807</v>
+        <v>1.01275676528432</v>
       </c>
       <c r="D4">
-        <v>0.9405560079726137</v>
+        <v>1.026454336350293</v>
       </c>
       <c r="E4">
-        <v>0.9431981963747077</v>
+        <v>1.024255942231561</v>
       </c>
       <c r="F4">
-        <v>0.9234136001232391</v>
+        <v>1.032632149204976</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032182929198157</v>
+        <v>1.044621092314818</v>
       </c>
       <c r="J4">
-        <v>0.9500169674222215</v>
+        <v>1.031839686592834</v>
       </c>
       <c r="K4">
-        <v>0.9514290808255448</v>
+        <v>1.036243630109676</v>
       </c>
       <c r="L4">
-        <v>0.9540342212331833</v>
+        <v>1.034070174767552</v>
       </c>
       <c r="M4">
-        <v>0.9345335780608238</v>
+        <v>1.042352060937068</v>
       </c>
       <c r="N4">
-        <v>0.9687051652859053</v>
+        <v>1.033305017301463</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9336178525522246</v>
+        <v>1.016521176089697</v>
       </c>
       <c r="D5">
-        <v>0.9451763914280318</v>
+        <v>1.03006056597138</v>
       </c>
       <c r="E5">
-        <v>0.9476389992805522</v>
+        <v>1.027630824800865</v>
       </c>
       <c r="F5">
-        <v>0.9296531206897503</v>
+        <v>1.036275246348725</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033464727418613</v>
+        <v>1.044984677042296</v>
       </c>
       <c r="J5">
-        <v>0.9543800077343962</v>
+        <v>1.035067427236261</v>
       </c>
       <c r="K5">
-        <v>0.9557422811126693</v>
+        <v>1.039593379286336</v>
       </c>
       <c r="L5">
-        <v>0.9581716444770951</v>
+        <v>1.037190290551093</v>
       </c>
       <c r="M5">
-        <v>0.9404336926156176</v>
+        <v>1.045740586528328</v>
       </c>
       <c r="N5">
-        <v>0.9716540419901292</v>
+        <v>1.03653734170683</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9344441523574175</v>
+        <v>1.017146824857627</v>
       </c>
       <c r="D6">
-        <v>0.9459357974139018</v>
+        <v>1.030660023221556</v>
       </c>
       <c r="E6">
-        <v>0.9483689309904204</v>
+        <v>1.028191818976831</v>
       </c>
       <c r="F6">
-        <v>0.9306759425877141</v>
+        <v>1.0368808629783</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033674079824315</v>
+        <v>1.045044817801635</v>
       </c>
       <c r="J6">
-        <v>0.9550967028236143</v>
+        <v>1.035603787263487</v>
       </c>
       <c r="K6">
-        <v>0.9564507423748795</v>
+        <v>1.040150071247697</v>
       </c>
       <c r="L6">
-        <v>0.9588512378148877</v>
+        <v>1.037708788215043</v>
       </c>
       <c r="M6">
-        <v>0.9414004965392</v>
+        <v>1.046303755740509</v>
       </c>
       <c r="N6">
-        <v>0.972138433537189</v>
+        <v>1.037074463426816</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9286601137376921</v>
+        <v>1.012807502685468</v>
       </c>
       <c r="D7">
-        <v>0.9406188843611174</v>
+        <v>1.026502934985529</v>
       </c>
       <c r="E7">
-        <v>0.9432586260320103</v>
+        <v>1.024301423583883</v>
       </c>
       <c r="F7">
-        <v>0.923498699656854</v>
+        <v>1.032681242583062</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032200463337346</v>
+        <v>1.04462601204982</v>
       </c>
       <c r="J7">
-        <v>0.9500763705227151</v>
+        <v>1.031883196878493</v>
       </c>
       <c r="K7">
-        <v>0.9514878086240659</v>
+        <v>1.036288781193773</v>
       </c>
       <c r="L7">
-        <v>0.9540905553821929</v>
+        <v>1.03411223277019</v>
       </c>
       <c r="M7">
-        <v>0.9346140746719488</v>
+        <v>1.042397732451082</v>
       </c>
       <c r="N7">
-        <v>0.9687453147977479</v>
+        <v>1.033348589376716</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9013400481785939</v>
+        <v>0.9936533506569248</v>
       </c>
       <c r="D8">
-        <v>0.9154699467573356</v>
+        <v>1.008169618002974</v>
       </c>
       <c r="E8">
-        <v>0.919094707225223</v>
+        <v>1.007143619486772</v>
       </c>
       <c r="F8">
-        <v>0.8890483443659022</v>
+        <v>1.014165087588338</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.025009243720706</v>
+        <v>1.042735486266454</v>
       </c>
       <c r="J8">
-        <v>0.9262561809632311</v>
+        <v>1.015447271339213</v>
       </c>
       <c r="K8">
-        <v>0.9279312756262607</v>
+        <v>1.019240052197276</v>
       </c>
       <c r="L8">
-        <v>0.931494855918641</v>
+        <v>1.018227687629847</v>
       </c>
       <c r="M8">
-        <v>0.9019752524046514</v>
+        <v>1.025156542326746</v>
       </c>
       <c r="N8">
-        <v>0.9526456342585494</v>
+        <v>1.016889322937945</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.826046474763602</v>
+        <v>0.9549573756067778</v>
       </c>
       <c r="D9">
-        <v>0.8458132455628129</v>
+        <v>0.9712187298648234</v>
       </c>
       <c r="E9">
-        <v>0.8522326166296044</v>
+        <v>0.9725644553045638</v>
       </c>
       <c r="F9">
-        <v>0.7890750660230593</v>
+        <v>0.9768655037220255</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.003705200884226</v>
+        <v>1.038766981101279</v>
       </c>
       <c r="J9">
-        <v>0.8596945145030245</v>
+        <v>0.98220750182158</v>
       </c>
       <c r="K9">
-        <v>0.862025404768294</v>
+        <v>0.9847966863173603</v>
       </c>
       <c r="L9">
-        <v>0.8682845385023152</v>
+        <v>0.9861189121845005</v>
       </c>
       <c r="M9">
-        <v>0.8068602827311824</v>
+        <v>0.9903454154763651</v>
       </c>
       <c r="N9">
-        <v>0.9076785728462464</v>
+        <v>0.9836023491349418</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.826046474763602</v>
+        <v>0.9242642875788614</v>
       </c>
       <c r="D10">
-        <v>0.8458132455628129</v>
+        <v>0.9420004993713923</v>
       </c>
       <c r="E10">
-        <v>0.8522326166296044</v>
+        <v>0.9452310193907886</v>
       </c>
       <c r="F10">
-        <v>0.7890750660230593</v>
+        <v>0.9473866289285585</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.003705200884226</v>
+        <v>1.035539756544823</v>
       </c>
       <c r="J10">
-        <v>0.8596945145030245</v>
+        <v>0.95584206740537</v>
       </c>
       <c r="K10">
-        <v>0.862025404768294</v>
+        <v>0.9575023420726816</v>
       </c>
       <c r="L10">
-        <v>0.8682845385023152</v>
+        <v>0.9606649436191623</v>
       </c>
       <c r="M10">
-        <v>0.8068602827311824</v>
+        <v>0.9627755740203124</v>
       </c>
       <c r="N10">
-        <v>0.9076785728462464</v>
+        <v>0.9571994727777033</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.826046474763602</v>
+        <v>0.9092431339635167</v>
       </c>
       <c r="D11">
-        <v>0.8458132455628129</v>
+        <v>0.9277333261062575</v>
       </c>
       <c r="E11">
-        <v>0.8522326166296044</v>
+        <v>0.9318892898942231</v>
       </c>
       <c r="F11">
-        <v>0.7890750660230593</v>
+        <v>0.9329962181907688</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.003705200884226</v>
+        <v>1.033949502362656</v>
       </c>
       <c r="J11">
-        <v>0.8596945145030245</v>
+        <v>0.942947779858433</v>
       </c>
       <c r="K11">
-        <v>0.862025404768294</v>
+        <v>0.9441601287366085</v>
       </c>
       <c r="L11">
-        <v>0.8682845385023152</v>
+        <v>0.9482211021003382</v>
       </c>
       <c r="M11">
-        <v>0.8068602827311824</v>
+        <v>0.9493029203592035</v>
       </c>
       <c r="N11">
-        <v>0.9076785728462464</v>
+        <v>0.944286873863454</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.826046474763602</v>
+        <v>0.9033264011794687</v>
       </c>
       <c r="D12">
-        <v>0.8458132455628129</v>
+        <v>0.9221197617966089</v>
       </c>
       <c r="E12">
-        <v>0.8522326166296044</v>
+        <v>0.9266410001362136</v>
       </c>
       <c r="F12">
-        <v>0.7890750660230593</v>
+        <v>0.9273348259363204</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.003705200884226</v>
+        <v>1.033322465835076</v>
       </c>
       <c r="J12">
-        <v>0.8596945145030245</v>
+        <v>0.9378713250450302</v>
       </c>
       <c r="K12">
-        <v>0.862025404768294</v>
+        <v>0.938908302367608</v>
       </c>
       <c r="L12">
-        <v>0.8682845385023152</v>
+        <v>0.9433228608779699</v>
       </c>
       <c r="M12">
-        <v>0.8068602827311824</v>
+        <v>0.9440004389281959</v>
       </c>
       <c r="N12">
-        <v>0.9076785728462464</v>
+        <v>0.939203209901939</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.826046474763602</v>
+        <v>0.9046124674725916</v>
       </c>
       <c r="D13">
-        <v>0.8458132455628129</v>
+        <v>0.9233396266343634</v>
       </c>
       <c r="E13">
-        <v>0.8522326166296044</v>
+        <v>0.9277814288981455</v>
       </c>
       <c r="F13">
-        <v>0.7890750660230593</v>
+        <v>0.9285650533297638</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.003705200884226</v>
+        <v>1.033458768666283</v>
       </c>
       <c r="J13">
-        <v>0.8596945145030245</v>
+        <v>0.9389746104905388</v>
       </c>
       <c r="K13">
-        <v>0.862025404768294</v>
+        <v>0.9400496578948148</v>
       </c>
       <c r="L13">
-        <v>0.8682845385023152</v>
+        <v>0.9443873717173226</v>
       </c>
       <c r="M13">
-        <v>0.8068602827311824</v>
+        <v>0.9451527710654679</v>
       </c>
       <c r="N13">
-        <v>0.9076785728462464</v>
+        <v>0.9403080621393282</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.826046474763602</v>
+        <v>0.9087615121521403</v>
       </c>
       <c r="D14">
-        <v>0.8458132455628129</v>
+        <v>0.9272762490599904</v>
       </c>
       <c r="E14">
-        <v>0.8522326166296044</v>
+        <v>0.93146192908661</v>
       </c>
       <c r="F14">
-        <v>0.7890750660230593</v>
+        <v>0.9325352331994461</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.003705200884226</v>
+        <v>1.033898467764061</v>
       </c>
       <c r="J14">
-        <v>0.8596945145030245</v>
+        <v>0.9425344977876332</v>
       </c>
       <c r="K14">
-        <v>0.862025404768294</v>
+        <v>0.9437325497585601</v>
       </c>
       <c r="L14">
-        <v>0.8682845385023152</v>
+        <v>0.9478223099527734</v>
       </c>
       <c r="M14">
-        <v>0.8068602827311824</v>
+        <v>0.948871203107984</v>
       </c>
       <c r="N14">
-        <v>0.9076785728462464</v>
+        <v>0.9438730048847097</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.826046474763602</v>
+        <v>0.9112702694508414</v>
       </c>
       <c r="D15">
-        <v>0.8458132455628129</v>
+        <v>0.9296574093033015</v>
       </c>
       <c r="E15">
-        <v>0.8522326166296044</v>
+        <v>0.9336883300391672</v>
       </c>
       <c r="F15">
-        <v>0.7890750660230593</v>
+        <v>0.9349367788274817</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.003705200884226</v>
+        <v>1.034164286648598</v>
       </c>
       <c r="J15">
-        <v>0.8596945145030245</v>
+        <v>0.944687383682522</v>
       </c>
       <c r="K15">
-        <v>0.862025404768294</v>
+        <v>0.9459599507967199</v>
       </c>
       <c r="L15">
-        <v>0.8682845385023152</v>
+        <v>0.9498997504497977</v>
       </c>
       <c r="M15">
-        <v>0.8068602827311824</v>
+        <v>0.9511201897061988</v>
       </c>
       <c r="N15">
-        <v>0.9076785728462464</v>
+        <v>0.9460289481245087</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.826046474763602</v>
+        <v>0.9252188970067734</v>
       </c>
       <c r="D16">
-        <v>0.8458132455628129</v>
+        <v>0.9429079330595234</v>
       </c>
       <c r="E16">
-        <v>0.8522326166296044</v>
+        <v>0.9460797217917156</v>
       </c>
       <c r="F16">
-        <v>0.7890750660230593</v>
+        <v>0.9483019854646437</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.003705200884226</v>
+        <v>1.035640675322807</v>
       </c>
       <c r="J16">
-        <v>0.8596945145030245</v>
+        <v>0.956661775928369</v>
       </c>
       <c r="K16">
-        <v>0.862025404768294</v>
+        <v>0.9583506545077281</v>
       </c>
       <c r="L16">
-        <v>0.8682845385023152</v>
+        <v>0.9614561223841326</v>
       </c>
       <c r="M16">
-        <v>0.8068602827311824</v>
+        <v>0.9636322683818423</v>
       </c>
       <c r="N16">
-        <v>0.9076785728462464</v>
+        <v>0.9580203453808265</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.826046474763602</v>
+        <v>0.9334604625578018</v>
       </c>
       <c r="D17">
-        <v>0.8458132455628129</v>
+        <v>0.9507457824115945</v>
       </c>
       <c r="E17">
-        <v>0.8522326166296044</v>
+        <v>0.9534108655624495</v>
       </c>
       <c r="F17">
-        <v>0.7890750660230593</v>
+        <v>0.956208707072016</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.003705200884226</v>
+        <v>1.036510863126018</v>
       </c>
       <c r="J17">
-        <v>0.8596945145030245</v>
+        <v>0.9637397314232015</v>
       </c>
       <c r="K17">
-        <v>0.862025404768294</v>
+        <v>0.9656762855730409</v>
       </c>
       <c r="L17">
-        <v>0.8682845385023152</v>
+        <v>0.9682882486325158</v>
       </c>
       <c r="M17">
-        <v>0.8068602827311824</v>
+        <v>0.9710307422806858</v>
       </c>
       <c r="N17">
-        <v>0.9076785728462464</v>
+        <v>0.9651083523843147</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.826046474763602</v>
+        <v>0.9381071482230036</v>
       </c>
       <c r="D18">
-        <v>0.8458132455628129</v>
+        <v>0.9551676252980841</v>
       </c>
       <c r="E18">
-        <v>0.8522326166296044</v>
+        <v>0.9575472707013661</v>
       </c>
       <c r="F18">
-        <v>0.7890750660230593</v>
+        <v>0.9606697622520639</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.003705200884226</v>
+        <v>1.037000443462005</v>
       </c>
       <c r="J18">
-        <v>0.8596945145030245</v>
+        <v>0.9677310697108734</v>
       </c>
       <c r="K18">
-        <v>0.862025404768294</v>
+        <v>0.9698078589245875</v>
       </c>
       <c r="L18">
-        <v>0.8682845385023152</v>
+        <v>0.9721413669811123</v>
       </c>
       <c r="M18">
-        <v>0.8068602827311824</v>
+        <v>0.975203772487642</v>
       </c>
       <c r="N18">
-        <v>0.9076785728462464</v>
+        <v>0.9691053588301679</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.826046474763602</v>
+        <v>0.9396661563935229</v>
       </c>
       <c r="D19">
-        <v>0.8458132455628129</v>
+        <v>0.9566516375115912</v>
       </c>
       <c r="E19">
-        <v>0.8522326166296044</v>
+        <v>0.9589355514847854</v>
       </c>
       <c r="F19">
-        <v>0.7890750660230593</v>
+        <v>0.9621669938401212</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.003705200884226</v>
+        <v>1.037164502627842</v>
       </c>
       <c r="J19">
-        <v>0.8596945145030245</v>
+        <v>0.9690702964660245</v>
       </c>
       <c r="K19">
-        <v>0.862025404768294</v>
+        <v>0.9711942351287808</v>
       </c>
       <c r="L19">
-        <v>0.8682845385023152</v>
+        <v>0.973434281530061</v>
       </c>
       <c r="M19">
-        <v>0.8068602827311824</v>
+        <v>0.976604122137251</v>
       </c>
       <c r="N19">
-        <v>0.9076785728462464</v>
+        <v>0.9704464874409228</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.826046474763602</v>
+        <v>0.9325932715494419</v>
       </c>
       <c r="D20">
-        <v>0.8458132455628129</v>
+        <v>0.9499207726158662</v>
       </c>
       <c r="E20">
-        <v>0.8522326166296044</v>
+        <v>0.9526391445097895</v>
       </c>
       <c r="F20">
-        <v>0.7890750660230593</v>
+        <v>0.9553764101116293</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.003705200884226</v>
+        <v>1.036419403878094</v>
       </c>
       <c r="J20">
-        <v>0.8596945145030245</v>
+        <v>0.9629948965333657</v>
       </c>
       <c r="K20">
-        <v>0.862025404768294</v>
+        <v>0.9649053274042328</v>
       </c>
       <c r="L20">
-        <v>0.8682845385023152</v>
+        <v>0.9675692396531995</v>
       </c>
       <c r="M20">
-        <v>0.8068602827311824</v>
+        <v>0.9702520785368848</v>
       </c>
       <c r="N20">
-        <v>0.9076785728462464</v>
+        <v>0.9643624597435017</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.826046474763602</v>
+        <v>0.9075498345905691</v>
       </c>
       <c r="D21">
-        <v>0.8458132455628129</v>
+        <v>0.926126425697977</v>
       </c>
       <c r="E21">
-        <v>0.8522326166296044</v>
+        <v>0.9303868797900792</v>
       </c>
       <c r="F21">
-        <v>0.7890750660230593</v>
+        <v>0.9313755897519583</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.003705200884226</v>
+        <v>1.03377006713566</v>
       </c>
       <c r="J21">
-        <v>0.8596945145030245</v>
+        <v>0.9414947961867236</v>
       </c>
       <c r="K21">
-        <v>0.862025404768294</v>
+        <v>0.9426568967490836</v>
       </c>
       <c r="L21">
-        <v>0.8682845385023152</v>
+        <v>0.946819075542963</v>
       </c>
       <c r="M21">
-        <v>0.8068602827311824</v>
+        <v>0.9477851507069612</v>
       </c>
       <c r="N21">
-        <v>0.9076785728462464</v>
+        <v>0.9428318267882712</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.826046474763602</v>
+        <v>0.8897823847951447</v>
       </c>
       <c r="D22">
-        <v>0.8458132455628129</v>
+        <v>0.9092834651135078</v>
       </c>
       <c r="E22">
-        <v>0.8522326166296044</v>
+        <v>0.9146427350110746</v>
       </c>
       <c r="F22">
-        <v>0.7890750660230593</v>
+        <v>0.9143904947908315</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.003705200884226</v>
+        <v>1.031887353797743</v>
       </c>
       <c r="J22">
-        <v>0.8596945145030245</v>
+        <v>0.9262574006540838</v>
       </c>
       <c r="K22">
-        <v>0.862025404768294</v>
+        <v>0.9268950255470521</v>
       </c>
       <c r="L22">
-        <v>0.8682845385023152</v>
+        <v>0.9321185755184758</v>
       </c>
       <c r="M22">
-        <v>0.8068602827311824</v>
+        <v>0.9318726749648683</v>
       </c>
       <c r="N22">
-        <v>0.9076785728462464</v>
+        <v>0.9275727924062215</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.826046474763602</v>
+        <v>0.8994297232297289</v>
       </c>
       <c r="D23">
-        <v>0.8458132455628129</v>
+        <v>0.9184247144764518</v>
       </c>
       <c r="E23">
-        <v>0.8522326166296044</v>
+        <v>0.923186778595902</v>
       </c>
       <c r="F23">
-        <v>0.7890750660230593</v>
+        <v>0.9236084925700146</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.003705200884226</v>
+        <v>1.032909480972022</v>
       </c>
       <c r="J23">
-        <v>0.8596945145030245</v>
+        <v>0.9345289510606078</v>
       </c>
       <c r="K23">
-        <v>0.862025404768294</v>
+        <v>0.9354507410510379</v>
       </c>
       <c r="L23">
-        <v>0.8682845385023152</v>
+        <v>0.9400980999692644</v>
       </c>
       <c r="M23">
-        <v>0.8068602827311824</v>
+        <v>0.9405097325036421</v>
       </c>
       <c r="N23">
-        <v>0.9076785728462464</v>
+        <v>0.935856089363083</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.826046474763602</v>
+        <v>0.9329856084268033</v>
       </c>
       <c r="D24">
-        <v>0.8458132455628129</v>
+        <v>0.9502940171413589</v>
       </c>
       <c r="E24">
-        <v>0.8522326166296044</v>
+        <v>0.9529882792398333</v>
       </c>
       <c r="F24">
-        <v>0.7890750660230593</v>
+        <v>0.9557529503247479</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.003705200884226</v>
+        <v>1.036460785444344</v>
       </c>
       <c r="J24">
-        <v>0.8596945145030245</v>
+        <v>0.9633318745833666</v>
       </c>
       <c r="K24">
-        <v>0.862025404768294</v>
+        <v>0.9652541223640458</v>
       </c>
       <c r="L24">
-        <v>0.8682845385023152</v>
+        <v>0.9678945322888914</v>
       </c>
       <c r="M24">
-        <v>0.8068602827311824</v>
+        <v>0.9706043584641471</v>
       </c>
       <c r="N24">
-        <v>0.9076785728462464</v>
+        <v>0.9646999163409854</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.826046474763602</v>
+        <v>0.965680138373</v>
       </c>
       <c r="D25">
-        <v>0.8458132455628129</v>
+        <v>0.9814457298815975</v>
       </c>
       <c r="E25">
-        <v>0.8522326166296044</v>
+        <v>0.982134152336349</v>
       </c>
       <c r="F25">
-        <v>0.7890750660230593</v>
+        <v>0.9871866745092507</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.003705200884226</v>
+        <v>1.039881470597211</v>
       </c>
       <c r="J25">
-        <v>0.8596945145030245</v>
+        <v>0.9914203972876631</v>
       </c>
       <c r="K25">
-        <v>0.862025404768294</v>
+        <v>0.9943390718008649</v>
       </c>
       <c r="L25">
-        <v>0.8682845385023152</v>
+        <v>0.9950162920949419</v>
       </c>
       <c r="M25">
-        <v>0.8068602827311824</v>
+        <v>0.9999872117723101</v>
       </c>
       <c r="N25">
-        <v>0.9076785728462464</v>
+        <v>0.9928283279693204</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_18/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9884298131776029</v>
+        <v>1.001767725232002</v>
       </c>
       <c r="D2">
-        <v>1.003174705694478</v>
+        <v>1.016549966742095</v>
       </c>
       <c r="E2">
-        <v>1.002468949245132</v>
+        <v>1.008002221462537</v>
       </c>
       <c r="F2">
-        <v>1.009121592730422</v>
+        <v>1.022884714382597</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042209770869604</v>
+        <v>1.049294212343749</v>
       </c>
       <c r="J2">
-        <v>1.010962180990853</v>
+        <v>1.023895692188516</v>
       </c>
       <c r="K2">
-        <v>1.014589988306789</v>
+        <v>1.027783450468875</v>
       </c>
       <c r="L2">
-        <v>1.013893994516781</v>
+        <v>1.01935118710089</v>
       </c>
       <c r="M2">
-        <v>1.020455295309269</v>
+        <v>1.034034175816646</v>
       </c>
       <c r="N2">
-        <v>1.012397863246843</v>
+        <v>1.011902951293662</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.003527759312714</v>
+        <v>1.006111425898334</v>
       </c>
       <c r="D3">
-        <v>1.017617479205522</v>
+        <v>1.020400732517711</v>
       </c>
       <c r="E3">
-        <v>1.015985770083528</v>
+        <v>1.011452900665857</v>
       </c>
       <c r="F3">
-        <v>1.023706246460797</v>
+        <v>1.027117198267162</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043718016720968</v>
+        <v>1.050446827330378</v>
       </c>
       <c r="J3">
-        <v>1.023922713865982</v>
+        <v>1.026436862510402</v>
       </c>
       <c r="K3">
-        <v>1.028029796361075</v>
+        <v>1.030779070412999</v>
       </c>
       <c r="L3">
-        <v>1.026418115600945</v>
+        <v>1.021941307121397</v>
       </c>
       <c r="M3">
-        <v>1.034044527120329</v>
+        <v>1.037414479267154</v>
       </c>
       <c r="N3">
-        <v>1.025376801565249</v>
+        <v>1.012748416326868</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.01275676528432</v>
+        <v>1.008864078200072</v>
       </c>
       <c r="D4">
-        <v>1.026454336350293</v>
+        <v>1.022845536240528</v>
       </c>
       <c r="E4">
-        <v>1.024255942231561</v>
+        <v>1.013645574399986</v>
       </c>
       <c r="F4">
-        <v>1.032632149204976</v>
+        <v>1.029803678696749</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044621092314818</v>
+        <v>1.051161506854591</v>
       </c>
       <c r="J4">
-        <v>1.031839686592834</v>
+        <v>1.028043726041593</v>
       </c>
       <c r="K4">
-        <v>1.036243630109676</v>
+        <v>1.03267583818448</v>
       </c>
       <c r="L4">
-        <v>1.034070174767552</v>
+        <v>1.023582052415374</v>
       </c>
       <c r="M4">
-        <v>1.042352060937068</v>
+        <v>1.039555229304201</v>
       </c>
       <c r="N4">
-        <v>1.033305017301463</v>
+        <v>1.013282982120728</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016521176089697</v>
+        <v>1.010007873596099</v>
       </c>
       <c r="D5">
-        <v>1.03006056597138</v>
+        <v>1.02386246501628</v>
       </c>
       <c r="E5">
-        <v>1.027630824800865</v>
+        <v>1.014558069027206</v>
       </c>
       <c r="F5">
-        <v>1.036275246348725</v>
+        <v>1.030920980463558</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044984677042296</v>
+        <v>1.051454640998188</v>
       </c>
       <c r="J5">
-        <v>1.035067427236261</v>
+        <v>1.028710542372785</v>
       </c>
       <c r="K5">
-        <v>1.039593379286336</v>
+        <v>1.033463574554592</v>
       </c>
       <c r="L5">
-        <v>1.037190290551093</v>
+        <v>1.024263633586543</v>
       </c>
       <c r="M5">
-        <v>1.045740586528328</v>
+        <v>1.040444392656165</v>
       </c>
       <c r="N5">
-        <v>1.03653734170683</v>
+        <v>1.013504802519723</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017146824857627</v>
+        <v>1.01019914813959</v>
       </c>
       <c r="D6">
-        <v>1.030660023221556</v>
+        <v>1.024032584781415</v>
       </c>
       <c r="E6">
-        <v>1.028191818976831</v>
+        <v>1.014710743838569</v>
       </c>
       <c r="F6">
-        <v>1.0368808629783</v>
+        <v>1.031107882581328</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045044817801635</v>
+        <v>1.051503434297717</v>
       </c>
       <c r="J6">
-        <v>1.035603787263487</v>
+        <v>1.028822000243512</v>
       </c>
       <c r="K6">
-        <v>1.040150071247697</v>
+        <v>1.03359528049086</v>
       </c>
       <c r="L6">
-        <v>1.037708788215043</v>
+        <v>1.024377600875184</v>
       </c>
       <c r="M6">
-        <v>1.046303755740509</v>
+        <v>1.040593062663852</v>
       </c>
       <c r="N6">
-        <v>1.037074463426816</v>
+        <v>1.01354187877315</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.012807502685468</v>
+        <v>1.008879413775873</v>
       </c>
       <c r="D7">
-        <v>1.026502934985529</v>
+        <v>1.022859166725102</v>
       </c>
       <c r="E7">
-        <v>1.024301423583883</v>
+        <v>1.013657803366726</v>
       </c>
       <c r="F7">
-        <v>1.032681242583062</v>
+        <v>1.029818655135895</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04462601204982</v>
+        <v>1.051165452300922</v>
       </c>
       <c r="J7">
-        <v>1.031883196878493</v>
+        <v>1.028052669965742</v>
       </c>
       <c r="K7">
-        <v>1.036288781193773</v>
+        <v>1.032686401552937</v>
       </c>
       <c r="L7">
-        <v>1.03411223277019</v>
+        <v>1.023591191590829</v>
       </c>
       <c r="M7">
-        <v>1.042397732451082</v>
+        <v>1.039567152387773</v>
       </c>
       <c r="N7">
-        <v>1.033348589376716</v>
+        <v>1.013285957427032</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9936533506569248</v>
+        <v>1.003248000750734</v>
       </c>
       <c r="D8">
-        <v>1.008169618002974</v>
+        <v>1.017861284828242</v>
       </c>
       <c r="E8">
-        <v>1.007143619486772</v>
+        <v>1.009176895980308</v>
       </c>
       <c r="F8">
-        <v>1.014165087588338</v>
+        <v>1.024326165848725</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042735486266454</v>
+        <v>1.049690276905266</v>
       </c>
       <c r="J8">
-        <v>1.015447271339213</v>
+        <v>1.024762403118383</v>
       </c>
       <c r="K8">
-        <v>1.019240052197276</v>
+        <v>1.028804629176293</v>
       </c>
       <c r="L8">
-        <v>1.018227687629847</v>
+        <v>1.020233978828845</v>
       </c>
       <c r="M8">
-        <v>1.025156542326746</v>
+        <v>1.035186405115897</v>
       </c>
       <c r="N8">
-        <v>1.016889322937945</v>
+        <v>1.01219132106938</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9549573756067778</v>
+        <v>0.9928581360917779</v>
       </c>
       <c r="D9">
-        <v>0.9712187298648234</v>
+        <v>1.008678052529268</v>
       </c>
       <c r="E9">
-        <v>0.9725644553045638</v>
+        <v>1.000958994561875</v>
       </c>
       <c r="F9">
-        <v>0.9768655037220255</v>
+        <v>1.014228444047446</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038766981101279</v>
+        <v>1.046845757460705</v>
       </c>
       <c r="J9">
-        <v>0.98220750182158</v>
+        <v>1.018665637424548</v>
       </c>
       <c r="K9">
-        <v>0.9847966863173603</v>
+        <v>1.021631886122285</v>
       </c>
       <c r="L9">
-        <v>0.9861189121845005</v>
+        <v>1.014036531886309</v>
       </c>
       <c r="M9">
-        <v>0.9903454154763651</v>
+        <v>1.027094816843235</v>
       </c>
       <c r="N9">
-        <v>0.9836023491349418</v>
+        <v>1.010162696850561</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9242642875788614</v>
+        <v>0.9855846795107241</v>
       </c>
       <c r="D10">
-        <v>0.9420004993713923</v>
+        <v>1.002277446910987</v>
       </c>
       <c r="E10">
-        <v>0.9452310193907886</v>
+        <v>0.9952424231513982</v>
       </c>
       <c r="F10">
-        <v>0.9473866289285585</v>
+        <v>1.00718607173796</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035539756544823</v>
+        <v>1.04477480563462</v>
       </c>
       <c r="J10">
-        <v>0.95584206740537</v>
+        <v>1.014382141144071</v>
       </c>
       <c r="K10">
-        <v>0.9575023420726816</v>
+        <v>1.01660570274158</v>
       </c>
       <c r="L10">
-        <v>0.9606649436191623</v>
+        <v>1.009698111728558</v>
       </c>
       <c r="M10">
-        <v>0.9627755740203124</v>
+        <v>1.02142678037507</v>
       </c>
       <c r="N10">
-        <v>0.9571994727777033</v>
+        <v>1.008737350055243</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9092431339635167</v>
+        <v>0.9823448871564942</v>
       </c>
       <c r="D11">
-        <v>0.9277333261062575</v>
+        <v>0.9994337346901048</v>
       </c>
       <c r="E11">
-        <v>0.9318892898942231</v>
+        <v>0.9927054622268211</v>
       </c>
       <c r="F11">
-        <v>0.9329962181907688</v>
+        <v>1.004056066338691</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033949502362656</v>
+        <v>1.043834257343541</v>
       </c>
       <c r="J11">
-        <v>0.942947779858433</v>
+        <v>1.012471041543145</v>
       </c>
       <c r="K11">
-        <v>0.9441601287366085</v>
+        <v>1.014366337852134</v>
       </c>
       <c r="L11">
-        <v>0.9482211021003382</v>
+        <v>1.007766266538878</v>
       </c>
       <c r="M11">
-        <v>0.9493029203592035</v>
+        <v>1.018901894427738</v>
       </c>
       <c r="N11">
-        <v>0.944286873863454</v>
+        <v>1.008101440325288</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9033264011794687</v>
+        <v>0.9811271728671673</v>
       </c>
       <c r="D12">
-        <v>0.9221197617966089</v>
+        <v>0.9983660421382472</v>
       </c>
       <c r="E12">
-        <v>0.9266410001362136</v>
+        <v>0.9917533854163116</v>
       </c>
       <c r="F12">
-        <v>0.9273348259363204</v>
+        <v>1.002880696836446</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033322465835076</v>
+        <v>1.043478093126417</v>
       </c>
       <c r="J12">
-        <v>0.9378713250450302</v>
+        <v>1.011752312496222</v>
       </c>
       <c r="K12">
-        <v>0.938908302367608</v>
+        <v>1.013524613295924</v>
       </c>
       <c r="L12">
-        <v>0.9433228608779699</v>
+        <v>1.007040301513515</v>
       </c>
       <c r="M12">
-        <v>0.9440004389281959</v>
+        <v>1.017952914562458</v>
       </c>
       <c r="N12">
-        <v>0.939203209901939</v>
+        <v>1.007862291298679</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9046124674725916</v>
+        <v>0.9813890367611653</v>
       </c>
       <c r="D13">
-        <v>0.9233396266343634</v>
+        <v>0.9985955916514716</v>
       </c>
       <c r="E13">
-        <v>0.9277814288981455</v>
+        <v>0.9919580576940106</v>
       </c>
       <c r="F13">
-        <v>0.9285650533297638</v>
+        <v>1.003133405045983</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033458768666283</v>
+        <v>1.043554803104427</v>
       </c>
       <c r="J13">
-        <v>0.9389746104905388</v>
+        <v>1.011906890053681</v>
       </c>
       <c r="K13">
-        <v>0.9400496578948148</v>
+        <v>1.013705622925415</v>
       </c>
       <c r="L13">
-        <v>0.9443873717173226</v>
+        <v>1.007196409719179</v>
       </c>
       <c r="M13">
-        <v>0.9451527710654679</v>
+        <v>1.018156986118264</v>
       </c>
       <c r="N13">
-        <v>0.9403080621393282</v>
+        <v>1.007913724987152</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9087615121521403</v>
+        <v>0.9822445269125</v>
       </c>
       <c r="D14">
-        <v>0.9272762490599904</v>
+        <v>0.9993457150642915</v>
       </c>
       <c r="E14">
-        <v>0.93146192908661</v>
+        <v>0.9926269647397998</v>
       </c>
       <c r="F14">
-        <v>0.9325352331994461</v>
+        <v>1.003959173770587</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033898467764061</v>
+        <v>1.043804956799837</v>
       </c>
       <c r="J14">
-        <v>0.9425344977876332</v>
+        <v>1.012411814361706</v>
       </c>
       <c r="K14">
-        <v>0.9437325497585601</v>
+        <v>1.014296965872789</v>
       </c>
       <c r="L14">
-        <v>0.9478223099527734</v>
+        <v>1.007706431561306</v>
       </c>
       <c r="M14">
-        <v>0.948871203107984</v>
+        <v>1.018823681527937</v>
       </c>
       <c r="N14">
-        <v>0.9438730048847097</v>
+        <v>1.008081733032306</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9112702694508414</v>
+        <v>0.9827697032863173</v>
       </c>
       <c r="D15">
-        <v>0.9296574093033015</v>
+        <v>0.9998063612855749</v>
       </c>
       <c r="E15">
-        <v>0.9336883300391672</v>
+        <v>0.9930377955278047</v>
       </c>
       <c r="F15">
-        <v>0.9349367788274817</v>
+        <v>1.004466248426845</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034164286648598</v>
+        <v>1.043958176472778</v>
       </c>
       <c r="J15">
-        <v>0.944687383682522</v>
+        <v>1.012721728207884</v>
       </c>
       <c r="K15">
-        <v>0.9459599507967199</v>
+        <v>1.014659982353177</v>
       </c>
       <c r="L15">
-        <v>0.9498997504497977</v>
+        <v>1.008019548854501</v>
       </c>
       <c r="M15">
-        <v>0.9511201897061988</v>
+        <v>1.019232964291346</v>
       </c>
       <c r="N15">
-        <v>0.9460289481245087</v>
+        <v>1.008184854189538</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9252188970067734</v>
+        <v>0.985797728638472</v>
       </c>
       <c r="D16">
-        <v>0.9429079330595234</v>
+        <v>1.002464606203401</v>
       </c>
       <c r="E16">
-        <v>0.9460797217917156</v>
+        <v>0.9954094542373018</v>
       </c>
       <c r="F16">
-        <v>0.9483019854646437</v>
+        <v>1.007392048245479</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035640675322807</v>
+        <v>1.044836285183866</v>
       </c>
       <c r="J16">
-        <v>0.956661775928369</v>
+        <v>1.014507754417179</v>
       </c>
       <c r="K16">
-        <v>0.9583506545077281</v>
+        <v>1.016752956190073</v>
       </c>
       <c r="L16">
-        <v>0.9614561223841326</v>
+        <v>1.009825166934912</v>
       </c>
       <c r="M16">
-        <v>0.9636322683818423</v>
+        <v>1.021592817954396</v>
       </c>
       <c r="N16">
-        <v>0.9580203453808265</v>
+        <v>1.008779147826149</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9334604625578018</v>
+        <v>0.9876724372345883</v>
       </c>
       <c r="D17">
-        <v>0.9507457824115945</v>
+        <v>1.004112335279575</v>
       </c>
       <c r="E17">
-        <v>0.9534108655624495</v>
+        <v>0.9968803028300537</v>
       </c>
       <c r="F17">
-        <v>0.956208707072016</v>
+        <v>1.009205307972733</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036510863126018</v>
+        <v>1.04537521889172</v>
       </c>
       <c r="J17">
-        <v>0.9637397314232015</v>
+        <v>1.015612729382644</v>
       </c>
       <c r="K17">
-        <v>0.9656762855730409</v>
+        <v>1.018048642524704</v>
       </c>
       <c r="L17">
-        <v>0.9682882486325158</v>
+        <v>1.010943253643102</v>
       </c>
       <c r="M17">
-        <v>0.9710307422806858</v>
+        <v>1.02305383720354</v>
       </c>
       <c r="N17">
-        <v>0.9651083523843147</v>
+        <v>1.009146829824135</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9381071482230036</v>
+        <v>0.9887572593244567</v>
       </c>
       <c r="D18">
-        <v>0.9551676252980841</v>
+        <v>1.005066500724742</v>
       </c>
       <c r="E18">
-        <v>0.9575472707013661</v>
+        <v>0.9977323094880989</v>
       </c>
       <c r="F18">
-        <v>0.9606697622520639</v>
+        <v>1.010255218929608</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037000443462005</v>
+        <v>1.045685358214472</v>
       </c>
       <c r="J18">
-        <v>0.9677310697108734</v>
+        <v>1.01625183722378</v>
       </c>
       <c r="K18">
-        <v>0.9698078589245875</v>
+        <v>1.018798349114776</v>
       </c>
       <c r="L18">
-        <v>0.9721413669811123</v>
+        <v>1.011590301368602</v>
       </c>
       <c r="M18">
-        <v>0.975203772487642</v>
+        <v>1.023899251126452</v>
       </c>
       <c r="N18">
-        <v>0.9691053588301679</v>
+        <v>1.00935949508584</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9396661563935229</v>
+        <v>0.9891257077117317</v>
       </c>
       <c r="D19">
-        <v>0.9566516375115912</v>
+        <v>1.005390688015773</v>
       </c>
       <c r="E19">
-        <v>0.9589355514847854</v>
+        <v>0.9980218324540573</v>
       </c>
       <c r="F19">
-        <v>0.9621669938401212</v>
+        <v>1.010611918416497</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037164502627842</v>
+        <v>1.045790399793457</v>
       </c>
       <c r="J19">
-        <v>0.9690702964660245</v>
+        <v>1.016468851358493</v>
       </c>
       <c r="K19">
-        <v>0.9711942351287808</v>
+        <v>1.019052967775367</v>
       </c>
       <c r="L19">
-        <v>0.973434281530061</v>
+        <v>1.011810071937518</v>
       </c>
       <c r="M19">
-        <v>0.976604122137251</v>
+        <v>1.024186381668803</v>
       </c>
       <c r="N19">
-        <v>0.9704464874409228</v>
+        <v>1.009431707390877</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9325932715494419</v>
+        <v>0.9874722000500733</v>
       </c>
       <c r="D20">
-        <v>0.9499207726158662</v>
+        <v>1.003936269988643</v>
       </c>
       <c r="E20">
-        <v>0.9526391445097895</v>
+        <v>0.9967231097855034</v>
       </c>
       <c r="F20">
-        <v>0.9553764101116293</v>
+        <v>1.009011566655102</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036419403878094</v>
+        <v>1.045317833574281</v>
       </c>
       <c r="J20">
-        <v>0.9629948965333657</v>
+        <v>1.015494737936228</v>
       </c>
       <c r="K20">
-        <v>0.9649053274042328</v>
+        <v>1.017910256169485</v>
       </c>
       <c r="L20">
-        <v>0.9675692396531995</v>
+        <v>1.010823825130529</v>
       </c>
       <c r="M20">
-        <v>0.9702520785368848</v>
+        <v>1.022897787964183</v>
       </c>
       <c r="N20">
-        <v>0.9643624597435017</v>
+        <v>1.009107567857391</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9075498345905691</v>
+        <v>0.9819930076383961</v>
       </c>
       <c r="D21">
-        <v>0.926126425697977</v>
+        <v>0.9991251421317549</v>
       </c>
       <c r="E21">
-        <v>0.9303868797900792</v>
+        <v>0.9924302610347661</v>
       </c>
       <c r="F21">
-        <v>0.9313755897519583</v>
+        <v>1.00371636263572</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03377006713566</v>
+        <v>1.043731482406496</v>
       </c>
       <c r="J21">
-        <v>0.9414947961867236</v>
+        <v>1.012263374714734</v>
       </c>
       <c r="K21">
-        <v>0.9426568967490836</v>
+        <v>1.014123107940944</v>
       </c>
       <c r="L21">
-        <v>0.946819075542963</v>
+        <v>1.007556477731902</v>
       </c>
       <c r="M21">
-        <v>0.9477851507069612</v>
+        <v>1.018627667796518</v>
       </c>
       <c r="N21">
-        <v>0.9428318267882712</v>
+        <v>1.008032341208701</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8897823847951447</v>
+        <v>0.9784648174538079</v>
       </c>
       <c r="D22">
-        <v>0.9092834651135078</v>
+        <v>0.9960338663976857</v>
       </c>
       <c r="E22">
-        <v>0.9146427350110746</v>
+        <v>0.9896745853389048</v>
       </c>
       <c r="F22">
-        <v>0.9143904947908315</v>
+        <v>1.000312965989826</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031887353797743</v>
+        <v>1.042694601580531</v>
       </c>
       <c r="J22">
-        <v>0.9262574006540838</v>
+        <v>1.010180199417327</v>
       </c>
       <c r="K22">
-        <v>0.9268950255470521</v>
+        <v>1.011684304754942</v>
       </c>
       <c r="L22">
-        <v>0.9321185755184758</v>
+        <v>1.00545340383777</v>
       </c>
       <c r="M22">
-        <v>0.9318726749648683</v>
+        <v>1.015878225511367</v>
       </c>
       <c r="N22">
-        <v>0.9275727924062215</v>
+        <v>1.007339200066212</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8994297232297289</v>
+        <v>0.9803433251665244</v>
       </c>
       <c r="D23">
-        <v>0.9184247144764518</v>
+        <v>0.9976790953563212</v>
       </c>
       <c r="E23">
-        <v>0.923186778595902</v>
+        <v>0.9911409522563261</v>
       </c>
       <c r="F23">
-        <v>0.9236084925700146</v>
+        <v>1.002124417493582</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032909480972022</v>
+        <v>1.043248091530277</v>
       </c>
       <c r="J23">
-        <v>0.9345289510606078</v>
+        <v>1.011289551634224</v>
       </c>
       <c r="K23">
-        <v>0.9354507410510379</v>
+        <v>1.012982789287333</v>
       </c>
       <c r="L23">
-        <v>0.9400980999692644</v>
+        <v>1.00657304141122</v>
       </c>
       <c r="M23">
-        <v>0.9405097325036421</v>
+        <v>1.01734206768594</v>
       </c>
       <c r="N23">
-        <v>0.935856089363083</v>
+        <v>1.007708314497803</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9329856084268033</v>
+        <v>0.9875627053342462</v>
       </c>
       <c r="D24">
-        <v>0.9502940171413589</v>
+        <v>1.004015847680879</v>
       </c>
       <c r="E24">
-        <v>0.9529882792398333</v>
+        <v>0.9967941567991802</v>
       </c>
       <c r="F24">
-        <v>0.9557529503247479</v>
+        <v>1.009099133867555</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036460785444344</v>
+        <v>1.045343776528052</v>
       </c>
       <c r="J24">
-        <v>0.9633318745833666</v>
+        <v>1.015548069867068</v>
       </c>
       <c r="K24">
-        <v>0.9652541223640458</v>
+        <v>1.017972805655088</v>
       </c>
       <c r="L24">
-        <v>0.9678945322888914</v>
+        <v>1.010877805508319</v>
       </c>
       <c r="M24">
-        <v>0.9706043584641471</v>
+        <v>1.022968320794012</v>
       </c>
       <c r="N24">
-        <v>0.9646999163409854</v>
+        <v>1.009125314195261</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.965680138373</v>
+        <v>0.9956027423767607</v>
       </c>
       <c r="D25">
-        <v>0.9814457298815975</v>
+        <v>1.01109925569964</v>
       </c>
       <c r="E25">
-        <v>0.982134152336349</v>
+        <v>1.003123806153946</v>
       </c>
       <c r="F25">
-        <v>0.9871866745092507</v>
+        <v>1.016891473003179</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039881470597211</v>
+        <v>1.047611148127408</v>
       </c>
       <c r="J25">
-        <v>0.9914203972876631</v>
+        <v>1.02027900342302</v>
       </c>
       <c r="K25">
-        <v>0.9943390718008649</v>
+        <v>1.02352767922206</v>
       </c>
       <c r="L25">
-        <v>0.9950162920949419</v>
+        <v>1.015673821833883</v>
       </c>
       <c r="M25">
-        <v>0.9999872117723101</v>
+        <v>1.02923310983225</v>
       </c>
       <c r="N25">
-        <v>0.9928283279693204</v>
+        <v>1.010699545711771</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_18/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.001767725232002</v>
+        <v>1.031148601803523</v>
       </c>
       <c r="D2">
-        <v>1.016549966742095</v>
+        <v>1.040909313596436</v>
       </c>
       <c r="E2">
-        <v>1.008002221462537</v>
+        <v>1.030764055098374</v>
       </c>
       <c r="F2">
-        <v>1.022884714382597</v>
+        <v>1.049117848103666</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049294212343749</v>
+        <v>1.035216852450105</v>
       </c>
       <c r="J2">
-        <v>1.023895692188516</v>
+        <v>1.036285924666486</v>
       </c>
       <c r="K2">
-        <v>1.027783450468875</v>
+        <v>1.043690326243687</v>
       </c>
       <c r="L2">
-        <v>1.01935118710089</v>
+        <v>1.033574122881548</v>
       </c>
       <c r="M2">
-        <v>1.034034175816646</v>
+        <v>1.051875798331636</v>
       </c>
       <c r="N2">
-        <v>1.011902951293662</v>
+        <v>1.016088676407724</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.006111425898334</v>
+        <v>1.032060128394431</v>
       </c>
       <c r="D3">
-        <v>1.020400732517711</v>
+        <v>1.041767317166288</v>
       </c>
       <c r="E3">
-        <v>1.011452900665857</v>
+        <v>1.031536809732144</v>
       </c>
       <c r="F3">
-        <v>1.027117198267162</v>
+        <v>1.050063457818646</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050446827330378</v>
+        <v>1.035365694545445</v>
       </c>
       <c r="J3">
-        <v>1.026436862510402</v>
+        <v>1.036839397791536</v>
       </c>
       <c r="K3">
-        <v>1.030779070412999</v>
+        <v>1.044358724687893</v>
       </c>
       <c r="L3">
-        <v>1.021941307121397</v>
+        <v>1.034155396247195</v>
       </c>
       <c r="M3">
-        <v>1.037414479267154</v>
+        <v>1.052633245090698</v>
       </c>
       <c r="N3">
-        <v>1.012748416326868</v>
+        <v>1.016272192556716</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.008864078200072</v>
+        <v>1.032650115229043</v>
       </c>
       <c r="D4">
-        <v>1.022845536240528</v>
+        <v>1.042322927955699</v>
       </c>
       <c r="E4">
-        <v>1.013645574399986</v>
+        <v>1.032037373449064</v>
       </c>
       <c r="F4">
-        <v>1.029803678696749</v>
+        <v>1.05067576123919</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051161506854591</v>
+        <v>1.035460075148996</v>
       </c>
       <c r="J4">
-        <v>1.028043726041593</v>
+        <v>1.037197078348086</v>
       </c>
       <c r="K4">
-        <v>1.03267583818448</v>
+        <v>1.044791007081779</v>
       </c>
       <c r="L4">
-        <v>1.023582052415374</v>
+        <v>1.034531400701405</v>
       </c>
       <c r="M4">
-        <v>1.039555229304201</v>
+        <v>1.053123170322535</v>
       </c>
       <c r="N4">
-        <v>1.013282982120728</v>
+        <v>1.016390765544594</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.010007873596099</v>
+        <v>1.032898184855489</v>
       </c>
       <c r="D5">
-        <v>1.02386246501628</v>
+        <v>1.042556607075932</v>
       </c>
       <c r="E5">
-        <v>1.014558069027206</v>
+        <v>1.03224793822235</v>
       </c>
       <c r="F5">
-        <v>1.030920980463558</v>
+        <v>1.050933275260189</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051454640998188</v>
+        <v>1.035499289895941</v>
       </c>
       <c r="J5">
-        <v>1.028710542372785</v>
+        <v>1.037347337617059</v>
       </c>
       <c r="K5">
-        <v>1.033463574554592</v>
+        <v>1.044972685666293</v>
       </c>
       <c r="L5">
-        <v>1.024263633586543</v>
+        <v>1.034689443543587</v>
       </c>
       <c r="M5">
-        <v>1.040444392656165</v>
+        <v>1.05332908725958</v>
       </c>
       <c r="N5">
-        <v>1.013504802519723</v>
+        <v>1.016440571537063</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.01019914813959</v>
+        <v>1.032939839101719</v>
       </c>
       <c r="D6">
-        <v>1.024032584781415</v>
+        <v>1.042595848671116</v>
       </c>
       <c r="E6">
-        <v>1.014710743838569</v>
+        <v>1.032283300425774</v>
       </c>
       <c r="F6">
-        <v>1.031107882581328</v>
+        <v>1.0509765189168</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051503434297717</v>
+        <v>1.03550584705979</v>
       </c>
       <c r="J6">
-        <v>1.028822000243512</v>
+        <v>1.037372560349635</v>
       </c>
       <c r="K6">
-        <v>1.03359528049086</v>
+        <v>1.045003187160994</v>
       </c>
       <c r="L6">
-        <v>1.024377600875184</v>
+        <v>1.034715977873944</v>
       </c>
       <c r="M6">
-        <v>1.040593062663852</v>
+        <v>1.053363658788038</v>
       </c>
       <c r="N6">
-        <v>1.01354187877315</v>
+        <v>1.016448931702997</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.008879413775873</v>
+        <v>1.032653429795038</v>
       </c>
       <c r="D7">
-        <v>1.022859166725102</v>
+        <v>1.042326049995056</v>
       </c>
       <c r="E7">
-        <v>1.013657803366726</v>
+        <v>1.032040186525576</v>
       </c>
       <c r="F7">
-        <v>1.029818655135895</v>
+        <v>1.050679201756504</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051165452300922</v>
+        <v>1.035460600958056</v>
       </c>
       <c r="J7">
-        <v>1.028052669965742</v>
+        <v>1.03719908655192</v>
       </c>
       <c r="K7">
-        <v>1.032686401552937</v>
+        <v>1.044793434889427</v>
       </c>
       <c r="L7">
-        <v>1.023591191590829</v>
+        <v>1.034533512594645</v>
       </c>
       <c r="M7">
-        <v>1.039567152387773</v>
+        <v>1.05312592198354</v>
       </c>
       <c r="N7">
-        <v>1.013285957427032</v>
+        <v>1.016391431220574</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.003248000750734</v>
+        <v>1.03145662099909</v>
       </c>
       <c r="D8">
-        <v>1.017861284828242</v>
+        <v>1.04119919104253</v>
       </c>
       <c r="E8">
-        <v>1.009176895980308</v>
+        <v>1.03102509851141</v>
       </c>
       <c r="F8">
-        <v>1.024326165848725</v>
+        <v>1.049437331284884</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049690276905266</v>
+        <v>1.035267553530297</v>
       </c>
       <c r="J8">
-        <v>1.024762403118383</v>
+        <v>1.036473066782729</v>
       </c>
       <c r="K8">
-        <v>1.028804629176293</v>
+        <v>1.043916258650825</v>
       </c>
       <c r="L8">
-        <v>1.020233978828845</v>
+        <v>1.033770590760079</v>
       </c>
       <c r="M8">
-        <v>1.035186405115897</v>
+        <v>1.052131820281672</v>
       </c>
       <c r="N8">
-        <v>1.01219132106938</v>
+        <v>1.016150732397332</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9928581360917779</v>
+        <v>1.029349027333419</v>
       </c>
       <c r="D9">
-        <v>1.008678052529268</v>
+        <v>1.039216840087114</v>
       </c>
       <c r="E9">
-        <v>1.000958994561875</v>
+        <v>1.029240581309583</v>
       </c>
       <c r="F9">
-        <v>1.014228444047446</v>
+        <v>1.047252359113965</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046845757460705</v>
+        <v>1.034912629995352</v>
       </c>
       <c r="J9">
-        <v>1.018665637424548</v>
+        <v>1.035190299590403</v>
       </c>
       <c r="K9">
-        <v>1.021631886122285</v>
+        <v>1.042368959704436</v>
       </c>
       <c r="L9">
-        <v>1.014036531886309</v>
+        <v>1.032425368001598</v>
       </c>
       <c r="M9">
-        <v>1.027094816843235</v>
+        <v>1.050378661939392</v>
       </c>
       <c r="N9">
-        <v>1.010162696850561</v>
+        <v>1.015725272591836</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9855846795107241</v>
+        <v>1.027944926820261</v>
       </c>
       <c r="D10">
-        <v>1.002277446910987</v>
+        <v>1.03789758722709</v>
       </c>
       <c r="E10">
-        <v>0.9952424231513982</v>
+        <v>1.028053809912794</v>
       </c>
       <c r="F10">
-        <v>1.00718607173796</v>
+        <v>1.045798055865456</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04477480563462</v>
+        <v>1.034666142231606</v>
       </c>
       <c r="J10">
-        <v>1.014382141144071</v>
+        <v>1.034332878134033</v>
       </c>
       <c r="K10">
-        <v>1.01660570274158</v>
+        <v>1.041336419618208</v>
       </c>
       <c r="L10">
-        <v>1.009698111728558</v>
+        <v>1.0315280416173</v>
       </c>
       <c r="M10">
-        <v>1.02142678037507</v>
+        <v>1.049209008564177</v>
       </c>
       <c r="N10">
-        <v>1.008737350055243</v>
+        <v>1.015440768915799</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9823448871564942</v>
+        <v>1.027337176800189</v>
       </c>
       <c r="D11">
-        <v>0.9994337346901048</v>
+        <v>1.037326902308375</v>
       </c>
       <c r="E11">
-        <v>0.9927054622268211</v>
+        <v>1.027540631781856</v>
       </c>
       <c r="F11">
-        <v>1.004056066338691</v>
+        <v>1.045168899985498</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043834257343541</v>
+        <v>1.034557077912625</v>
       </c>
       <c r="J11">
-        <v>1.012471041543145</v>
+        <v>1.033961085662616</v>
       </c>
       <c r="K11">
-        <v>1.014366337852134</v>
+        <v>1.040889093776141</v>
       </c>
       <c r="L11">
-        <v>1.007766266538878</v>
+        <v>1.031139381552834</v>
       </c>
       <c r="M11">
-        <v>1.018901894427738</v>
+        <v>1.048702342428471</v>
       </c>
       <c r="N11">
-        <v>1.008101440325288</v>
+        <v>1.015317375367554</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9811271728671673</v>
+        <v>1.027111467626357</v>
       </c>
       <c r="D12">
-        <v>0.9983660421382472</v>
+        <v>1.037115010040097</v>
       </c>
       <c r="E12">
-        <v>0.9917533854163116</v>
+        <v>1.027350121388362</v>
       </c>
       <c r="F12">
-        <v>1.002880696836446</v>
+        <v>1.044935290013867</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043478093126417</v>
+        <v>1.034516216676168</v>
       </c>
       <c r="J12">
-        <v>1.011752312496222</v>
+        <v>1.03382290773254</v>
       </c>
       <c r="K12">
-        <v>1.013524613295924</v>
+        <v>1.040722903725427</v>
       </c>
       <c r="L12">
-        <v>1.007040301513515</v>
+        <v>1.030995000148485</v>
       </c>
       <c r="M12">
-        <v>1.017952914562458</v>
+        <v>1.048514115457716</v>
       </c>
       <c r="N12">
-        <v>1.007862291298679</v>
+        <v>1.015271511579262</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9813890367611653</v>
+        <v>1.027159881354631</v>
       </c>
       <c r="D13">
-        <v>0.9985955916514716</v>
+        <v>1.037160457759407</v>
       </c>
       <c r="E13">
-        <v>0.9919580576940106</v>
+        <v>1.027390981658687</v>
       </c>
       <c r="F13">
-        <v>1.003133405045983</v>
+        <v>1.044985396208311</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043554803104427</v>
+        <v>1.03452499737246</v>
       </c>
       <c r="J13">
-        <v>1.011906890053681</v>
+        <v>1.033852550865972</v>
       </c>
       <c r="K13">
-        <v>1.013705622925415</v>
+        <v>1.040758553545212</v>
       </c>
       <c r="L13">
-        <v>1.007196409719179</v>
+        <v>1.031025971145828</v>
       </c>
       <c r="M13">
-        <v>1.018156986118264</v>
+        <v>1.048554492057045</v>
       </c>
       <c r="N13">
-        <v>1.007913724987152</v>
+        <v>1.015281350866275</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9822445269125</v>
+        <v>1.02731851886449</v>
       </c>
       <c r="D14">
-        <v>0.9993457150642915</v>
+        <v>1.03730938547503</v>
       </c>
       <c r="E14">
-        <v>0.9926269647397998</v>
+        <v>1.027524881946323</v>
       </c>
       <c r="F14">
-        <v>1.003959173770587</v>
+        <v>1.045149587939303</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043804956799837</v>
+        <v>1.034553707443807</v>
       </c>
       <c r="J14">
-        <v>1.012411814361706</v>
+        <v>1.03394966541029</v>
       </c>
       <c r="K14">
-        <v>1.014296965872789</v>
+        <v>1.040875357127908</v>
       </c>
       <c r="L14">
-        <v>1.007706431561306</v>
+        <v>1.031127447256187</v>
       </c>
       <c r="M14">
-        <v>1.018823681527937</v>
+        <v>1.048686784104952</v>
       </c>
       <c r="N14">
-        <v>1.008081733032306</v>
+        <v>1.015313584861032</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9827697032863173</v>
+        <v>1.027416265501721</v>
       </c>
       <c r="D15">
-        <v>0.9998063612855749</v>
+        <v>1.037401156128283</v>
       </c>
       <c r="E15">
-        <v>0.9930377955278047</v>
+        <v>1.02760739652809</v>
       </c>
       <c r="F15">
-        <v>1.004466248426845</v>
+        <v>1.045250763390751</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043958176472778</v>
+        <v>1.034571350322695</v>
       </c>
       <c r="J15">
-        <v>1.012721728207884</v>
+        <v>1.034009490625546</v>
       </c>
       <c r="K15">
-        <v>1.014659982353177</v>
+        <v>1.04094731928881</v>
       </c>
       <c r="L15">
-        <v>1.008019548854501</v>
+        <v>1.031189967980989</v>
       </c>
       <c r="M15">
-        <v>1.019232964291346</v>
+        <v>1.048768289847182</v>
       </c>
       <c r="N15">
-        <v>1.008184854189538</v>
+        <v>1.015333441333573</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.985797728638472</v>
+        <v>1.027985266216847</v>
       </c>
       <c r="D16">
-        <v>1.002464606203401</v>
+        <v>1.037935473624937</v>
       </c>
       <c r="E16">
-        <v>0.9954094542373018</v>
+        <v>1.028087882758237</v>
       </c>
       <c r="F16">
-        <v>1.007392048245479</v>
+        <v>1.045839822930705</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044836285183866</v>
+        <v>1.03467333136616</v>
       </c>
       <c r="J16">
-        <v>1.014507754417179</v>
+        <v>1.034357541833081</v>
       </c>
       <c r="K16">
-        <v>1.016752956190073</v>
+        <v>1.041366102427985</v>
       </c>
       <c r="L16">
-        <v>1.009825166934912</v>
+        <v>1.031553833439437</v>
       </c>
       <c r="M16">
-        <v>1.021592817954396</v>
+        <v>1.049242630248439</v>
       </c>
       <c r="N16">
-        <v>1.008779147826149</v>
+        <v>1.015448953922475</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9876724372345883</v>
+        <v>1.028342248873741</v>
       </c>
       <c r="D17">
-        <v>1.004112335279575</v>
+        <v>1.038270787826999</v>
       </c>
       <c r="E17">
-        <v>0.9968803028300537</v>
+        <v>1.028389467927394</v>
       </c>
       <c r="F17">
-        <v>1.009205307972733</v>
+        <v>1.04620947717773</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04537521889172</v>
+        <v>1.034736677126216</v>
       </c>
       <c r="J17">
-        <v>1.015612729382644</v>
+        <v>1.034575725738841</v>
       </c>
       <c r="K17">
-        <v>1.018048642524704</v>
+        <v>1.041628733459818</v>
       </c>
       <c r="L17">
-        <v>1.010943253643102</v>
+        <v>1.03178204743267</v>
       </c>
       <c r="M17">
-        <v>1.02305383720354</v>
+        <v>1.049540119163671</v>
       </c>
       <c r="N17">
-        <v>1.009146829824135</v>
+        <v>1.015521358200099</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9887572593244567</v>
+        <v>1.02855049340442</v>
       </c>
       <c r="D18">
-        <v>1.005066500724742</v>
+        <v>1.038466424896524</v>
       </c>
       <c r="E18">
-        <v>0.9977323094880989</v>
+        <v>1.028565445066679</v>
       </c>
       <c r="F18">
-        <v>1.010255218929608</v>
+        <v>1.046425144865495</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045685358214472</v>
+        <v>1.034773400442445</v>
       </c>
       <c r="J18">
-        <v>1.01625183722378</v>
+        <v>1.034702938161763</v>
       </c>
       <c r="K18">
-        <v>1.018798349114776</v>
+        <v>1.041781899511166</v>
       </c>
       <c r="L18">
-        <v>1.011590301368602</v>
+        <v>1.031915149934933</v>
       </c>
       <c r="M18">
-        <v>1.023899251126452</v>
+        <v>1.049713620180722</v>
       </c>
       <c r="N18">
-        <v>1.00935949508584</v>
+        <v>1.015563570917108</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9891257077117317</v>
+        <v>1.028621503209322</v>
       </c>
       <c r="D19">
-        <v>1.005390688015773</v>
+        <v>1.038533141194514</v>
       </c>
       <c r="E19">
-        <v>0.9980218324540573</v>
+        <v>1.028625460149444</v>
       </c>
       <c r="F19">
-        <v>1.010611918416497</v>
+        <v>1.046498691197055</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045790399793457</v>
+        <v>1.034785883926457</v>
       </c>
       <c r="J19">
-        <v>1.016468851358493</v>
+        <v>1.034746305705401</v>
       </c>
       <c r="K19">
-        <v>1.019052967775367</v>
+        <v>1.041834121379375</v>
       </c>
       <c r="L19">
-        <v>1.011810071937518</v>
+        <v>1.031960532574714</v>
       </c>
       <c r="M19">
-        <v>1.024186381668803</v>
+        <v>1.049772776244408</v>
       </c>
       <c r="N19">
-        <v>1.009431707390877</v>
+        <v>1.015577961048938</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9874722000500733</v>
+        <v>1.028303945669784</v>
       </c>
       <c r="D20">
-        <v>1.003936269988643</v>
+        <v>1.038234806194518</v>
       </c>
       <c r="E20">
-        <v>0.9967231097855034</v>
+        <v>1.028357103689369</v>
       </c>
       <c r="F20">
-        <v>1.009011566655102</v>
+        <v>1.04616981111606</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045317833574281</v>
+        <v>1.034729904013515</v>
       </c>
       <c r="J20">
-        <v>1.015494737936228</v>
+        <v>1.034552321893011</v>
       </c>
       <c r="K20">
-        <v>1.017910256169485</v>
+        <v>1.04160055792234</v>
       </c>
       <c r="L20">
-        <v>1.010823825130529</v>
+        <v>1.031757563346572</v>
       </c>
       <c r="M20">
-        <v>1.022897787964183</v>
+        <v>1.049508203399119</v>
       </c>
       <c r="N20">
-        <v>1.009107567857391</v>
+        <v>1.015513591917961</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9819930076383961</v>
+        <v>1.027271803063466</v>
       </c>
       <c r="D21">
-        <v>0.9991251421317549</v>
+        <v>1.037265527603147</v>
       </c>
       <c r="E21">
-        <v>0.9924302610347661</v>
+        <v>1.027485448689286</v>
       </c>
       <c r="F21">
-        <v>1.00371636263572</v>
+        <v>1.045101235167307</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043731482406496</v>
+        <v>1.034545262696612</v>
       </c>
       <c r="J21">
-        <v>1.012263374714734</v>
+        <v>1.033921069733306</v>
       </c>
       <c r="K21">
-        <v>1.014123107940944</v>
+        <v>1.040840962294808</v>
       </c>
       <c r="L21">
-        <v>1.007556477731902</v>
+        <v>1.031097565497329</v>
       </c>
       <c r="M21">
-        <v>1.018627667796518</v>
+        <v>1.048647828174144</v>
       </c>
       <c r="N21">
-        <v>1.008032341208701</v>
+        <v>1.015304093576372</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9784648174538079</v>
+        <v>1.026623064216575</v>
       </c>
       <c r="D22">
-        <v>0.9960338663976857</v>
+        <v>1.036656599138668</v>
       </c>
       <c r="E22">
-        <v>0.9896745853389048</v>
+        <v>1.026938023269053</v>
       </c>
       <c r="F22">
-        <v>1.000312965989826</v>
+        <v>1.044429880386907</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042694601580531</v>
+        <v>1.034427147340552</v>
       </c>
       <c r="J22">
-        <v>1.010180199417327</v>
+        <v>1.033523727652655</v>
       </c>
       <c r="K22">
-        <v>1.011684304754942</v>
+        <v>1.040363182169199</v>
       </c>
       <c r="L22">
-        <v>1.00545340383777</v>
+        <v>1.030682508037817</v>
       </c>
       <c r="M22">
-        <v>1.015878225511367</v>
+        <v>1.04810671119908</v>
       </c>
       <c r="N22">
-        <v>1.007339200066212</v>
+        <v>1.015172200660536</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9803433251665244</v>
+        <v>1.026966952707311</v>
       </c>
       <c r="D23">
-        <v>0.9976790953563212</v>
+        <v>1.036979356227516</v>
       </c>
       <c r="E23">
-        <v>0.9911409522563261</v>
+        <v>1.027228164736436</v>
       </c>
       <c r="F23">
-        <v>1.002124417493582</v>
+        <v>1.044785730289708</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043248091530277</v>
+        <v>1.034489954151901</v>
       </c>
       <c r="J23">
-        <v>1.011289551634224</v>
+        <v>1.033734408424825</v>
       </c>
       <c r="K23">
-        <v>1.012982789287333</v>
+        <v>1.040616480301632</v>
       </c>
       <c r="L23">
-        <v>1.00657304141122</v>
+        <v>1.030902546090776</v>
       </c>
       <c r="M23">
-        <v>1.01734206768594</v>
+        <v>1.048393582774315</v>
       </c>
       <c r="N23">
-        <v>1.007708314497803</v>
+        <v>1.015242135870514</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9875627053342462</v>
+        <v>1.028321253169169</v>
       </c>
       <c r="D24">
-        <v>1.004015847680879</v>
+        <v>1.038251064578788</v>
       </c>
       <c r="E24">
-        <v>0.9967941567991802</v>
+        <v>1.028371727486656</v>
       </c>
       <c r="F24">
-        <v>1.009099133867555</v>
+        <v>1.046187734333262</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045343776528052</v>
+        <v>1.034732965187461</v>
       </c>
       <c r="J24">
-        <v>1.015548069867068</v>
+        <v>1.034562897239825</v>
       </c>
       <c r="K24">
-        <v>1.017972805655088</v>
+        <v>1.041613289303565</v>
       </c>
       <c r="L24">
-        <v>1.010877805508319</v>
+        <v>1.031768626684819</v>
       </c>
       <c r="M24">
-        <v>1.022968320794012</v>
+        <v>1.049522624818844</v>
       </c>
       <c r="N24">
-        <v>1.009125314195261</v>
+        <v>1.015517101226762</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9956027423767607</v>
+        <v>1.029893725904318</v>
       </c>
       <c r="D25">
-        <v>1.01109925569964</v>
+        <v>1.039728923466168</v>
       </c>
       <c r="E25">
-        <v>1.003123806153946</v>
+        <v>1.029701415616014</v>
       </c>
       <c r="F25">
-        <v>1.016891473003179</v>
+        <v>1.047816819645062</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047611148127408</v>
+        <v>1.035006129496208</v>
       </c>
       <c r="J25">
-        <v>1.02027900342302</v>
+        <v>1.03552232552163</v>
       </c>
       <c r="K25">
-        <v>1.02352767922206</v>
+        <v>1.042769156237689</v>
       </c>
       <c r="L25">
-        <v>1.015673821833883</v>
+        <v>1.032773235174733</v>
       </c>
       <c r="M25">
-        <v>1.02923310983225</v>
+        <v>1.050832056271856</v>
       </c>
       <c r="N25">
-        <v>1.010699545711771</v>
+        <v>1.015835418017196</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_18/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.031148601803523</v>
+        <v>1.001767725232002</v>
       </c>
       <c r="D2">
-        <v>1.040909313596436</v>
+        <v>1.016549966742096</v>
       </c>
       <c r="E2">
-        <v>1.030764055098374</v>
+        <v>1.008002221462537</v>
       </c>
       <c r="F2">
-        <v>1.049117848103666</v>
+        <v>1.022884714382597</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035216852450105</v>
+        <v>1.049294212343749</v>
       </c>
       <c r="J2">
-        <v>1.036285924666486</v>
+        <v>1.023895692188516</v>
       </c>
       <c r="K2">
-        <v>1.043690326243687</v>
+        <v>1.027783450468876</v>
       </c>
       <c r="L2">
-        <v>1.033574122881548</v>
+        <v>1.01935118710089</v>
       </c>
       <c r="M2">
-        <v>1.051875798331636</v>
+        <v>1.034034175816647</v>
       </c>
       <c r="N2">
-        <v>1.016088676407724</v>
+        <v>1.011902951293662</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.032060128394431</v>
+        <v>1.006111425898332</v>
       </c>
       <c r="D3">
-        <v>1.041767317166288</v>
+        <v>1.020400732517709</v>
       </c>
       <c r="E3">
-        <v>1.031536809732144</v>
+        <v>1.011452900665856</v>
       </c>
       <c r="F3">
-        <v>1.050063457818646</v>
+        <v>1.027117198267159</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035365694545445</v>
+        <v>1.050446827330378</v>
       </c>
       <c r="J3">
-        <v>1.036839397791536</v>
+        <v>1.0264368625104</v>
       </c>
       <c r="K3">
-        <v>1.044358724687893</v>
+        <v>1.030779070412997</v>
       </c>
       <c r="L3">
-        <v>1.034155396247195</v>
+        <v>1.021941307121395</v>
       </c>
       <c r="M3">
-        <v>1.052633245090698</v>
+        <v>1.037414479267152</v>
       </c>
       <c r="N3">
-        <v>1.016272192556716</v>
+        <v>1.012748416326868</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032650115229043</v>
+        <v>1.008864078200072</v>
       </c>
       <c r="D4">
-        <v>1.042322927955699</v>
+        <v>1.022845536240527</v>
       </c>
       <c r="E4">
-        <v>1.032037373449064</v>
+        <v>1.013645574399985</v>
       </c>
       <c r="F4">
-        <v>1.05067576123919</v>
+        <v>1.029803678696749</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035460075148996</v>
+        <v>1.051161506854591</v>
       </c>
       <c r="J4">
-        <v>1.037197078348086</v>
+        <v>1.028043726041592</v>
       </c>
       <c r="K4">
-        <v>1.044791007081779</v>
+        <v>1.03267583818448</v>
       </c>
       <c r="L4">
-        <v>1.034531400701405</v>
+        <v>1.023582052415374</v>
       </c>
       <c r="M4">
-        <v>1.053123170322535</v>
+        <v>1.0395552293042</v>
       </c>
       <c r="N4">
-        <v>1.016390765544594</v>
+        <v>1.013282982120728</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032898184855489</v>
+        <v>1.010007873596099</v>
       </c>
       <c r="D5">
-        <v>1.042556607075932</v>
+        <v>1.02386246501628</v>
       </c>
       <c r="E5">
-        <v>1.03224793822235</v>
+        <v>1.014558069027206</v>
       </c>
       <c r="F5">
-        <v>1.050933275260189</v>
+        <v>1.030920980463558</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035499289895941</v>
+        <v>1.051454640998188</v>
       </c>
       <c r="J5">
-        <v>1.037347337617059</v>
+        <v>1.028710542372785</v>
       </c>
       <c r="K5">
-        <v>1.044972685666293</v>
+        <v>1.033463574554592</v>
       </c>
       <c r="L5">
-        <v>1.034689443543587</v>
+        <v>1.024263633586544</v>
       </c>
       <c r="M5">
-        <v>1.05332908725958</v>
+        <v>1.040444392656164</v>
       </c>
       <c r="N5">
-        <v>1.016440571537063</v>
+        <v>1.013504802519723</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032939839101719</v>
+        <v>1.01019914813959</v>
       </c>
       <c r="D6">
-        <v>1.042595848671116</v>
+        <v>1.024032584781415</v>
       </c>
       <c r="E6">
-        <v>1.032283300425774</v>
+        <v>1.014710743838568</v>
       </c>
       <c r="F6">
-        <v>1.0509765189168</v>
+        <v>1.031107882581328</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03550584705979</v>
+        <v>1.051503434297717</v>
       </c>
       <c r="J6">
-        <v>1.037372560349635</v>
+        <v>1.028822000243511</v>
       </c>
       <c r="K6">
-        <v>1.045003187160994</v>
+        <v>1.03359528049086</v>
       </c>
       <c r="L6">
-        <v>1.034715977873944</v>
+        <v>1.024377600875184</v>
       </c>
       <c r="M6">
-        <v>1.053363658788038</v>
+        <v>1.040593062663852</v>
       </c>
       <c r="N6">
-        <v>1.016448931702997</v>
+        <v>1.01354187877315</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032653429795038</v>
+        <v>1.008879413775872</v>
       </c>
       <c r="D7">
-        <v>1.042326049995056</v>
+        <v>1.022859166725101</v>
       </c>
       <c r="E7">
-        <v>1.032040186525576</v>
+        <v>1.013657803366726</v>
       </c>
       <c r="F7">
-        <v>1.050679201756504</v>
+        <v>1.029818655135895</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035460600958056</v>
+        <v>1.051165452300922</v>
       </c>
       <c r="J7">
-        <v>1.03719908655192</v>
+        <v>1.028052669965742</v>
       </c>
       <c r="K7">
-        <v>1.044793434889427</v>
+        <v>1.032686401552937</v>
       </c>
       <c r="L7">
-        <v>1.034533512594645</v>
+        <v>1.023591191590829</v>
       </c>
       <c r="M7">
-        <v>1.05312592198354</v>
+        <v>1.039567152387773</v>
       </c>
       <c r="N7">
-        <v>1.016391431220574</v>
+        <v>1.013285957427032</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.03145662099909</v>
+        <v>1.003248000750734</v>
       </c>
       <c r="D8">
-        <v>1.04119919104253</v>
+        <v>1.017861284828243</v>
       </c>
       <c r="E8">
-        <v>1.03102509851141</v>
+        <v>1.009176895980308</v>
       </c>
       <c r="F8">
-        <v>1.049437331284884</v>
+        <v>1.024326165848726</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035267553530297</v>
+        <v>1.049690276905266</v>
       </c>
       <c r="J8">
-        <v>1.036473066782729</v>
+        <v>1.024762403118383</v>
       </c>
       <c r="K8">
-        <v>1.043916258650825</v>
+        <v>1.028804629176293</v>
       </c>
       <c r="L8">
-        <v>1.033770590760079</v>
+        <v>1.020233978828845</v>
       </c>
       <c r="M8">
-        <v>1.052131820281672</v>
+        <v>1.035186405115897</v>
       </c>
       <c r="N8">
-        <v>1.016150732397332</v>
+        <v>1.01219132106938</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.029349027333419</v>
+        <v>0.9928581360917775</v>
       </c>
       <c r="D9">
-        <v>1.039216840087114</v>
+        <v>1.008678052529268</v>
       </c>
       <c r="E9">
-        <v>1.029240581309583</v>
+        <v>1.000958994561874</v>
       </c>
       <c r="F9">
-        <v>1.047252359113965</v>
+        <v>1.014228444047446</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034912629995352</v>
+        <v>1.046845757460705</v>
       </c>
       <c r="J9">
-        <v>1.035190299590403</v>
+        <v>1.018665637424547</v>
       </c>
       <c r="K9">
-        <v>1.042368959704436</v>
+        <v>1.021631886122285</v>
       </c>
       <c r="L9">
-        <v>1.032425368001598</v>
+        <v>1.014036531886308</v>
       </c>
       <c r="M9">
-        <v>1.050378661939392</v>
+        <v>1.027094816843235</v>
       </c>
       <c r="N9">
-        <v>1.015725272591836</v>
+        <v>1.010162696850561</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.027944926820261</v>
+        <v>0.9855846795107239</v>
       </c>
       <c r="D10">
-        <v>1.03789758722709</v>
+        <v>1.002277446910987</v>
       </c>
       <c r="E10">
-        <v>1.028053809912794</v>
+        <v>0.9952424231513983</v>
       </c>
       <c r="F10">
-        <v>1.045798055865456</v>
+        <v>1.00718607173796</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034666142231606</v>
+        <v>1.04477480563462</v>
       </c>
       <c r="J10">
-        <v>1.034332878134033</v>
+        <v>1.014382141144071</v>
       </c>
       <c r="K10">
-        <v>1.041336419618208</v>
+        <v>1.016605702741579</v>
       </c>
       <c r="L10">
-        <v>1.0315280416173</v>
+        <v>1.009698111728558</v>
       </c>
       <c r="M10">
-        <v>1.049209008564177</v>
+        <v>1.02142678037507</v>
       </c>
       <c r="N10">
-        <v>1.015440768915799</v>
+        <v>1.008737350055243</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.027337176800189</v>
+        <v>0.9823448871564942</v>
       </c>
       <c r="D11">
-        <v>1.037326902308375</v>
+        <v>0.999433734690105</v>
       </c>
       <c r="E11">
-        <v>1.027540631781856</v>
+        <v>0.9927054622268211</v>
       </c>
       <c r="F11">
-        <v>1.045168899985498</v>
+        <v>1.004056066338691</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034557077912625</v>
+        <v>1.043834257343541</v>
       </c>
       <c r="J11">
-        <v>1.033961085662616</v>
+        <v>1.012471041543146</v>
       </c>
       <c r="K11">
-        <v>1.040889093776141</v>
+        <v>1.014366337852134</v>
       </c>
       <c r="L11">
-        <v>1.031139381552834</v>
+        <v>1.007766266538878</v>
       </c>
       <c r="M11">
-        <v>1.048702342428471</v>
+        <v>1.018901894427738</v>
       </c>
       <c r="N11">
-        <v>1.015317375367554</v>
+        <v>1.008101440325288</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.027111467626357</v>
+        <v>0.9811271728671676</v>
       </c>
       <c r="D12">
-        <v>1.037115010040097</v>
+        <v>0.9983660421382472</v>
       </c>
       <c r="E12">
-        <v>1.027350121388362</v>
+        <v>0.9917533854163115</v>
       </c>
       <c r="F12">
-        <v>1.044935290013867</v>
+        <v>1.002880696836446</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034516216676168</v>
+        <v>1.043478093126417</v>
       </c>
       <c r="J12">
-        <v>1.03382290773254</v>
+        <v>1.011752312496222</v>
       </c>
       <c r="K12">
-        <v>1.040722903725427</v>
+        <v>1.013524613295924</v>
       </c>
       <c r="L12">
-        <v>1.030995000148485</v>
+        <v>1.007040301513515</v>
       </c>
       <c r="M12">
-        <v>1.048514115457716</v>
+        <v>1.017952914562458</v>
       </c>
       <c r="N12">
-        <v>1.015271511579262</v>
+        <v>1.007862291298679</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.027159881354631</v>
+        <v>0.9813890367611644</v>
       </c>
       <c r="D13">
-        <v>1.037160457759407</v>
+        <v>0.9985955916514707</v>
       </c>
       <c r="E13">
-        <v>1.027390981658687</v>
+        <v>0.9919580576940097</v>
       </c>
       <c r="F13">
-        <v>1.044985396208311</v>
+        <v>1.003133405045982</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03452499737246</v>
+        <v>1.043554803104427</v>
       </c>
       <c r="J13">
-        <v>1.033852550865972</v>
+        <v>1.011906890053681</v>
       </c>
       <c r="K13">
-        <v>1.040758553545212</v>
+        <v>1.013705622925414</v>
       </c>
       <c r="L13">
-        <v>1.031025971145828</v>
+        <v>1.007196409719178</v>
       </c>
       <c r="M13">
-        <v>1.048554492057045</v>
+        <v>1.018156986118262</v>
       </c>
       <c r="N13">
-        <v>1.015281350866275</v>
+        <v>1.007913724987152</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.02731851886449</v>
+        <v>0.9822445269124999</v>
       </c>
       <c r="D14">
-        <v>1.03730938547503</v>
+        <v>0.9993457150642917</v>
       </c>
       <c r="E14">
-        <v>1.027524881946323</v>
+        <v>0.9926269647397998</v>
       </c>
       <c r="F14">
-        <v>1.045149587939303</v>
+        <v>1.003959173770587</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034553707443807</v>
+        <v>1.043804956799837</v>
       </c>
       <c r="J14">
-        <v>1.03394966541029</v>
+        <v>1.012411814361706</v>
       </c>
       <c r="K14">
-        <v>1.040875357127908</v>
+        <v>1.014296965872789</v>
       </c>
       <c r="L14">
-        <v>1.031127447256187</v>
+        <v>1.007706431561306</v>
       </c>
       <c r="M14">
-        <v>1.048686784104952</v>
+        <v>1.018823681527937</v>
       </c>
       <c r="N14">
-        <v>1.015313584861032</v>
+        <v>1.008081733032306</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.027416265501721</v>
+        <v>0.9827697032863169</v>
       </c>
       <c r="D15">
-        <v>1.037401156128283</v>
+        <v>0.9998063612855743</v>
       </c>
       <c r="E15">
-        <v>1.02760739652809</v>
+        <v>0.9930377955278044</v>
       </c>
       <c r="F15">
-        <v>1.045250763390751</v>
+        <v>1.004466248426844</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034571350322695</v>
+        <v>1.043958176472778</v>
       </c>
       <c r="J15">
-        <v>1.034009490625546</v>
+        <v>1.012721728207883</v>
       </c>
       <c r="K15">
-        <v>1.04094731928881</v>
+        <v>1.014659982353176</v>
       </c>
       <c r="L15">
-        <v>1.031189967980989</v>
+        <v>1.008019548854501</v>
       </c>
       <c r="M15">
-        <v>1.048768289847182</v>
+        <v>1.019232964291346</v>
       </c>
       <c r="N15">
-        <v>1.015333441333573</v>
+        <v>1.008184854189538</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.027985266216847</v>
+        <v>0.9857977286384718</v>
       </c>
       <c r="D16">
-        <v>1.037935473624937</v>
+        <v>1.002464606203401</v>
       </c>
       <c r="E16">
-        <v>1.028087882758237</v>
+        <v>0.9954094542373014</v>
       </c>
       <c r="F16">
-        <v>1.045839822930705</v>
+        <v>1.007392048245479</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03467333136616</v>
+        <v>1.044836285183866</v>
       </c>
       <c r="J16">
-        <v>1.034357541833081</v>
+        <v>1.014507754417179</v>
       </c>
       <c r="K16">
-        <v>1.041366102427985</v>
+        <v>1.016752956190073</v>
       </c>
       <c r="L16">
-        <v>1.031553833439437</v>
+        <v>1.009825166934912</v>
       </c>
       <c r="M16">
-        <v>1.049242630248439</v>
+        <v>1.021592817954396</v>
       </c>
       <c r="N16">
-        <v>1.015448953922475</v>
+        <v>1.008779147826149</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.028342248873741</v>
+        <v>0.9876724372345886</v>
       </c>
       <c r="D17">
-        <v>1.038270787826999</v>
+        <v>1.004112335279575</v>
       </c>
       <c r="E17">
-        <v>1.028389467927394</v>
+        <v>0.9968803028300537</v>
       </c>
       <c r="F17">
-        <v>1.04620947717773</v>
+        <v>1.009205307972733</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034736677126216</v>
+        <v>1.04537521889172</v>
       </c>
       <c r="J17">
-        <v>1.034575725738841</v>
+        <v>1.015612729382644</v>
       </c>
       <c r="K17">
-        <v>1.041628733459818</v>
+        <v>1.018048642524705</v>
       </c>
       <c r="L17">
-        <v>1.03178204743267</v>
+        <v>1.010943253643102</v>
       </c>
       <c r="M17">
-        <v>1.049540119163671</v>
+        <v>1.02305383720354</v>
       </c>
       <c r="N17">
-        <v>1.015521358200099</v>
+        <v>1.009146829824135</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.02855049340442</v>
+        <v>0.9887572593244552</v>
       </c>
       <c r="D18">
-        <v>1.038466424896524</v>
+        <v>1.005066500724741</v>
       </c>
       <c r="E18">
-        <v>1.028565445066679</v>
+        <v>0.997732309488098</v>
       </c>
       <c r="F18">
-        <v>1.046425144865495</v>
+        <v>1.010255218929607</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034773400442445</v>
+        <v>1.045685358214471</v>
       </c>
       <c r="J18">
-        <v>1.034702938161763</v>
+        <v>1.016251837223779</v>
       </c>
       <c r="K18">
-        <v>1.041781899511166</v>
+        <v>1.018798349114775</v>
       </c>
       <c r="L18">
-        <v>1.031915149934933</v>
+        <v>1.011590301368601</v>
       </c>
       <c r="M18">
-        <v>1.049713620180722</v>
+        <v>1.023899251126451</v>
       </c>
       <c r="N18">
-        <v>1.015563570917108</v>
+        <v>1.009359495085839</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.028621503209322</v>
+        <v>0.989125707711732</v>
       </c>
       <c r="D19">
-        <v>1.038533141194514</v>
+        <v>1.005390688015774</v>
       </c>
       <c r="E19">
-        <v>1.028625460149444</v>
+        <v>0.9980218324540575</v>
       </c>
       <c r="F19">
-        <v>1.046498691197055</v>
+        <v>1.010611918416498</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034785883926457</v>
+        <v>1.045790399793457</v>
       </c>
       <c r="J19">
-        <v>1.034746305705401</v>
+        <v>1.016468851358493</v>
       </c>
       <c r="K19">
-        <v>1.041834121379375</v>
+        <v>1.019052967775368</v>
       </c>
       <c r="L19">
-        <v>1.031960532574714</v>
+        <v>1.011810071937518</v>
       </c>
       <c r="M19">
-        <v>1.049772776244408</v>
+        <v>1.024186381668804</v>
       </c>
       <c r="N19">
-        <v>1.015577961048938</v>
+        <v>1.009431707390877</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.028303945669784</v>
+        <v>0.9874722000500725</v>
       </c>
       <c r="D20">
-        <v>1.038234806194518</v>
+        <v>1.003936269988642</v>
       </c>
       <c r="E20">
-        <v>1.028357103689369</v>
+        <v>0.9967231097855026</v>
       </c>
       <c r="F20">
-        <v>1.04616981111606</v>
+        <v>1.009011566655101</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034729904013515</v>
+        <v>1.045317833574281</v>
       </c>
       <c r="J20">
-        <v>1.034552321893011</v>
+        <v>1.015494737936227</v>
       </c>
       <c r="K20">
-        <v>1.04160055792234</v>
+        <v>1.017910256169484</v>
       </c>
       <c r="L20">
-        <v>1.031757563346572</v>
+        <v>1.010823825130528</v>
       </c>
       <c r="M20">
-        <v>1.049508203399119</v>
+        <v>1.022897787964182</v>
       </c>
       <c r="N20">
-        <v>1.015513591917961</v>
+        <v>1.00910756785739</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.027271803063466</v>
+        <v>0.9819930076383957</v>
       </c>
       <c r="D21">
-        <v>1.037265527603147</v>
+        <v>0.9991251421317544</v>
       </c>
       <c r="E21">
-        <v>1.027485448689286</v>
+        <v>0.9924302610347657</v>
       </c>
       <c r="F21">
-        <v>1.045101235167307</v>
+        <v>1.00371636263572</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034545262696612</v>
+        <v>1.043731482406495</v>
       </c>
       <c r="J21">
-        <v>1.033921069733306</v>
+        <v>1.012263374714734</v>
       </c>
       <c r="K21">
-        <v>1.040840962294808</v>
+        <v>1.014123107940944</v>
       </c>
       <c r="L21">
-        <v>1.031097565497329</v>
+        <v>1.007556477731902</v>
       </c>
       <c r="M21">
-        <v>1.048647828174144</v>
+        <v>1.018627667796518</v>
       </c>
       <c r="N21">
-        <v>1.015304093576372</v>
+        <v>1.008032341208701</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.026623064216575</v>
+        <v>0.9784648174538074</v>
       </c>
       <c r="D22">
-        <v>1.036656599138668</v>
+        <v>0.9960338663976851</v>
       </c>
       <c r="E22">
-        <v>1.026938023269053</v>
+        <v>0.9896745853389045</v>
       </c>
       <c r="F22">
-        <v>1.044429880386907</v>
+        <v>1.000312965989826</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034427147340552</v>
+        <v>1.042694601580531</v>
       </c>
       <c r="J22">
-        <v>1.033523727652655</v>
+        <v>1.010180199417327</v>
       </c>
       <c r="K22">
-        <v>1.040363182169199</v>
+        <v>1.011684304754941</v>
       </c>
       <c r="L22">
-        <v>1.030682508037817</v>
+        <v>1.005453403837769</v>
       </c>
       <c r="M22">
-        <v>1.04810671119908</v>
+        <v>1.015878225511367</v>
       </c>
       <c r="N22">
-        <v>1.015172200660536</v>
+        <v>1.007339200066212</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.026966952707311</v>
+        <v>0.980343325166524</v>
       </c>
       <c r="D23">
-        <v>1.036979356227516</v>
+        <v>0.9976790953563208</v>
       </c>
       <c r="E23">
-        <v>1.027228164736436</v>
+        <v>0.9911409522563255</v>
       </c>
       <c r="F23">
-        <v>1.044785730289708</v>
+        <v>1.002124417493582</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034489954151901</v>
+        <v>1.043248091530277</v>
       </c>
       <c r="J23">
-        <v>1.033734408424825</v>
+        <v>1.011289551634223</v>
       </c>
       <c r="K23">
-        <v>1.040616480301632</v>
+        <v>1.012982789287332</v>
       </c>
       <c r="L23">
-        <v>1.030902546090776</v>
+        <v>1.006573041411219</v>
       </c>
       <c r="M23">
-        <v>1.048393582774315</v>
+        <v>1.017342067685939</v>
       </c>
       <c r="N23">
-        <v>1.015242135870514</v>
+        <v>1.007708314497803</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.028321253169169</v>
+        <v>0.9875627053342446</v>
       </c>
       <c r="D24">
-        <v>1.038251064578788</v>
+        <v>1.004015847680877</v>
       </c>
       <c r="E24">
-        <v>1.028371727486656</v>
+        <v>0.9967941567991788</v>
       </c>
       <c r="F24">
-        <v>1.046187734333262</v>
+        <v>1.009099133867553</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034732965187461</v>
+        <v>1.045343776528051</v>
       </c>
       <c r="J24">
-        <v>1.034562897239825</v>
+        <v>1.015548069867067</v>
       </c>
       <c r="K24">
-        <v>1.041613289303565</v>
+        <v>1.017972805655086</v>
       </c>
       <c r="L24">
-        <v>1.031768626684819</v>
+        <v>1.010877805508318</v>
       </c>
       <c r="M24">
-        <v>1.049522624818844</v>
+        <v>1.022968320794011</v>
       </c>
       <c r="N24">
-        <v>1.015517101226762</v>
+        <v>1.00912531419526</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.029893725904318</v>
+        <v>0.9956027423767614</v>
       </c>
       <c r="D25">
-        <v>1.039728923466168</v>
+        <v>1.01109925569964</v>
       </c>
       <c r="E25">
-        <v>1.029701415616014</v>
+        <v>1.003123806153946</v>
       </c>
       <c r="F25">
-        <v>1.047816819645062</v>
+        <v>1.016891473003179</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035006129496208</v>
+        <v>1.047611148127409</v>
       </c>
       <c r="J25">
-        <v>1.03552232552163</v>
+        <v>1.02027900342302</v>
       </c>
       <c r="K25">
-        <v>1.042769156237689</v>
+        <v>1.023527679222061</v>
       </c>
       <c r="L25">
-        <v>1.032773235174733</v>
+        <v>1.015673821833883</v>
       </c>
       <c r="M25">
-        <v>1.050832056271856</v>
+        <v>1.02923310983225</v>
       </c>
       <c r="N25">
-        <v>1.015835418017196</v>
+        <v>1.010699545711771</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_18/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.001767725232002</v>
+        <v>1.010742505509922</v>
       </c>
       <c r="D2">
-        <v>1.016549966742096</v>
+        <v>1.027218876231575</v>
       </c>
       <c r="E2">
-        <v>1.008002221462537</v>
+        <v>1.025077246027541</v>
       </c>
       <c r="F2">
-        <v>1.022884714382597</v>
+        <v>1.034574778228051</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049294212343749</v>
+        <v>1.046558251517738</v>
       </c>
       <c r="J2">
-        <v>1.023895692188516</v>
+        <v>1.032606589760072</v>
       </c>
       <c r="K2">
-        <v>1.027783450468876</v>
+        <v>1.038311598380479</v>
       </c>
       <c r="L2">
-        <v>1.01935118710089</v>
+        <v>1.03619792950031</v>
       </c>
       <c r="M2">
-        <v>1.034034175816647</v>
+        <v>1.045572563051745</v>
       </c>
       <c r="N2">
-        <v>1.011902951293662</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.014664881544288</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.04464000559606</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.038159889407293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.006111425898332</v>
+        <v>1.014167477506347</v>
       </c>
       <c r="D3">
-        <v>1.020400732517709</v>
+        <v>1.029728019941966</v>
       </c>
       <c r="E3">
-        <v>1.011452900665856</v>
+        <v>1.027739130678918</v>
       </c>
       <c r="F3">
-        <v>1.027117198267159</v>
+        <v>1.037191831415306</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050446827330378</v>
+        <v>1.04701465413948</v>
       </c>
       <c r="J3">
-        <v>1.0264368625104</v>
+        <v>1.034279234958005</v>
       </c>
       <c r="K3">
-        <v>1.030779070412997</v>
+        <v>1.03999414634414</v>
       </c>
       <c r="L3">
-        <v>1.021941307121395</v>
+        <v>1.038028972429147</v>
       </c>
       <c r="M3">
-        <v>1.037414479267152</v>
+        <v>1.04736996349608</v>
       </c>
       <c r="N3">
-        <v>1.012748416326868</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.015235939564827</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.046062518046021</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.039346932474415</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,81 +539,105 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008864078200072</v>
+        <v>1.016348195308807</v>
       </c>
       <c r="D4">
-        <v>1.022845536240527</v>
+        <v>1.031332309080285</v>
       </c>
       <c r="E4">
-        <v>1.013645574399985</v>
+        <v>1.029440112312626</v>
       </c>
       <c r="F4">
-        <v>1.029803678696749</v>
+        <v>1.038865797401598</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051161506854591</v>
+        <v>1.047294059300084</v>
       </c>
       <c r="J4">
-        <v>1.028043726041592</v>
+        <v>1.03534275998053</v>
       </c>
       <c r="K4">
-        <v>1.03267583818448</v>
+        <v>1.041066734115379</v>
       </c>
       <c r="L4">
-        <v>1.023582052415374</v>
+        <v>1.03919574525156</v>
       </c>
       <c r="M4">
-        <v>1.0395552293042</v>
+        <v>1.048516727776582</v>
       </c>
       <c r="N4">
-        <v>1.013282982120728</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.015598932126395</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.046970097592802</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.040106240255556</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C5">
-        <v>1.010007873596099</v>
+        <v>1.01726024860069</v>
       </c>
       <c r="D5">
-        <v>1.02386246501628</v>
+        <v>1.032007271281263</v>
       </c>
       <c r="E5">
-        <v>1.014558069027206</v>
+        <v>1.03015354483441</v>
       </c>
       <c r="F5">
-        <v>1.030920980463558</v>
+        <v>1.039568520867772</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051454640998188</v>
+        <v>1.047409010003578</v>
       </c>
       <c r="J5">
-        <v>1.028710542372785</v>
+        <v>1.035788920542084</v>
       </c>
       <c r="K5">
-        <v>1.033463574554592</v>
+        <v>1.041518841842731</v>
       </c>
       <c r="L5">
-        <v>1.024263633586544</v>
+        <v>1.039685341307834</v>
       </c>
       <c r="M5">
-        <v>1.040444392656164</v>
+        <v>1.048998506380255</v>
       </c>
       <c r="N5">
-        <v>1.013504802519723</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.015751426058623</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.047351389574171</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.040433084809095</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.01019914813959</v>
+        <v>1.017417231183588</v>
       </c>
       <c r="D6">
-        <v>1.024032584781415</v>
+        <v>1.032126458943589</v>
       </c>
       <c r="E6">
-        <v>1.014710743838568</v>
+        <v>1.030277123641022</v>
       </c>
       <c r="F6">
-        <v>1.031107882581328</v>
+        <v>1.039690544489048</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051503434297717</v>
+        <v>1.047429638075317</v>
       </c>
       <c r="J6">
-        <v>1.028822000243511</v>
+        <v>1.035867798491824</v>
       </c>
       <c r="K6">
-        <v>1.03359528049086</v>
+        <v>1.04160058704984</v>
       </c>
       <c r="L6">
-        <v>1.024377600875184</v>
+        <v>1.039771337658107</v>
       </c>
       <c r="M6">
-        <v>1.040593062663852</v>
+        <v>1.049083428710752</v>
       </c>
       <c r="N6">
-        <v>1.01354187877315</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.015778678034504</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.047418599270868</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.040499624475191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.008879413775872</v>
+        <v>1.016372090856822</v>
       </c>
       <c r="D7">
-        <v>1.022859166725101</v>
+        <v>1.031357808236079</v>
       </c>
       <c r="E7">
-        <v>1.013657803366726</v>
+        <v>1.029460682408417</v>
       </c>
       <c r="F7">
-        <v>1.029818655135895</v>
+        <v>1.038886783585255</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051165452300922</v>
+        <v>1.047299793195811</v>
       </c>
       <c r="J7">
-        <v>1.028052669965742</v>
+        <v>1.035360129441271</v>
       </c>
       <c r="K7">
-        <v>1.032686401552937</v>
+        <v>1.041089068609266</v>
       </c>
       <c r="L7">
-        <v>1.023591191590829</v>
+        <v>1.039213197671795</v>
       </c>
       <c r="M7">
-        <v>1.039567152387773</v>
+        <v>1.048534631709984</v>
       </c>
       <c r="N7">
-        <v>1.013285957427032</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.015605669172927</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.046984267229823</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.040142134423881</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.003248000750734</v>
+        <v>1.011922280267703</v>
       </c>
       <c r="D8">
-        <v>1.017861284828243</v>
+        <v>1.028091514106909</v>
       </c>
       <c r="E8">
-        <v>1.009176895980308</v>
+        <v>1.025995313878588</v>
       </c>
       <c r="F8">
-        <v>1.024326165848726</v>
+        <v>1.035477898510516</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049690276905266</v>
+        <v>1.046721119529185</v>
       </c>
       <c r="J8">
-        <v>1.024762403118383</v>
+        <v>1.033190205835027</v>
       </c>
       <c r="K8">
-        <v>1.028804629176293</v>
+        <v>1.038903951565977</v>
       </c>
       <c r="L8">
-        <v>1.020233978828845</v>
+        <v>1.036834308935197</v>
       </c>
       <c r="M8">
-        <v>1.035186405115897</v>
+        <v>1.04619782247345</v>
       </c>
       <c r="N8">
-        <v>1.01219132106938</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.014865205016928</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.04513485351774</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.038601644939799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9928581360917775</v>
+        <v>1.003780011411815</v>
       </c>
       <c r="D9">
-        <v>1.008678052529268</v>
+        <v>1.022156366852039</v>
       </c>
       <c r="E9">
-        <v>1.000958994561874</v>
+        <v>1.019701021013012</v>
       </c>
       <c r="F9">
-        <v>1.014228444047446</v>
+        <v>1.02929795152938</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046845757460705</v>
+        <v>1.045571278943353</v>
       </c>
       <c r="J9">
-        <v>1.018665637424547</v>
+        <v>1.029199990246919</v>
       </c>
       <c r="K9">
-        <v>1.021631886122285</v>
+        <v>1.034899916776711</v>
       </c>
       <c r="L9">
-        <v>1.014036531886308</v>
+        <v>1.032482349561332</v>
       </c>
       <c r="M9">
-        <v>1.027094816843235</v>
+        <v>1.041932923780326</v>
       </c>
       <c r="N9">
-        <v>1.010162696850561</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.013501471097828</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.041759485874592</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.035767343495946</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9855846795107239</v>
+        <v>0.9982074013022267</v>
       </c>
       <c r="D10">
-        <v>1.002277446910987</v>
+        <v>1.018155862112915</v>
       </c>
       <c r="E10">
-        <v>0.9952424231513983</v>
+        <v>1.015454155580794</v>
       </c>
       <c r="F10">
-        <v>1.00718607173796</v>
+        <v>1.025169268721872</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04477480563462</v>
+        <v>1.044741050664895</v>
       </c>
       <c r="J10">
-        <v>1.014382141144071</v>
+        <v>1.026492322487377</v>
       </c>
       <c r="K10">
-        <v>1.016605702741579</v>
+        <v>1.032204866070994</v>
       </c>
       <c r="L10">
-        <v>1.009698111728558</v>
+        <v>1.029549876217157</v>
       </c>
       <c r="M10">
-        <v>1.02142678037507</v>
+        <v>1.03909848319863</v>
       </c>
       <c r="N10">
-        <v>1.008737350055243</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.012579619747256</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.039567587109282</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.033878607002942</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,81 +910,105 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9823448871564942</v>
+        <v>0.9962203309319948</v>
       </c>
       <c r="D11">
-        <v>0.999433734690105</v>
+        <v>1.016916891109195</v>
       </c>
       <c r="E11">
-        <v>0.9927054622268211</v>
+        <v>1.014152821894134</v>
       </c>
       <c r="F11">
-        <v>1.004056066338691</v>
+        <v>1.024164112480201</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043834257343541</v>
+        <v>1.044529723047321</v>
       </c>
       <c r="J11">
-        <v>1.012471041543146</v>
+        <v>1.025751198308345</v>
       </c>
       <c r="K11">
-        <v>1.014366337852134</v>
+        <v>1.031526678911523</v>
       </c>
       <c r="L11">
-        <v>1.007766266538878</v>
+        <v>1.028812682725049</v>
       </c>
       <c r="M11">
-        <v>1.018901894427738</v>
+        <v>1.038644276735326</v>
       </c>
       <c r="N11">
-        <v>1.008101440325288</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.012359679796688</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.039643756614268</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.033432009612147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C12">
-        <v>0.9811271728671676</v>
+        <v>0.9956530766721248</v>
       </c>
       <c r="D12">
-        <v>0.9983660421382472</v>
+        <v>1.016639645764505</v>
       </c>
       <c r="E12">
-        <v>0.9917533854163115</v>
+        <v>1.013876323997208</v>
       </c>
       <c r="F12">
-        <v>1.002880696836446</v>
+        <v>1.02408377291845</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043478093126417</v>
+        <v>1.044512045366866</v>
       </c>
       <c r="J12">
-        <v>1.011752312496222</v>
+        <v>1.025642552304159</v>
       </c>
       <c r="K12">
-        <v>1.013524613295924</v>
+        <v>1.031454852019268</v>
       </c>
       <c r="L12">
-        <v>1.007040301513515</v>
+        <v>1.028742418240878</v>
       </c>
       <c r="M12">
-        <v>1.017952914562458</v>
+        <v>1.038763667586637</v>
       </c>
       <c r="N12">
-        <v>1.007862291298679</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.012348759240853</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.040064147929234</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.033381225482513</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9813890367611644</v>
+        <v>0.9961559162190446</v>
       </c>
       <c r="D13">
-        <v>0.9985955916514707</v>
+        <v>1.017104712103747</v>
       </c>
       <c r="E13">
-        <v>0.9919580576940097</v>
+        <v>1.014384869987489</v>
       </c>
       <c r="F13">
-        <v>1.003133405045982</v>
+        <v>1.024732482202906</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043554803104427</v>
+        <v>1.044652235140748</v>
       </c>
       <c r="J13">
-        <v>1.011906890053681</v>
+        <v>1.026030640556605</v>
       </c>
       <c r="K13">
-        <v>1.013705622925414</v>
+        <v>1.031868430049301</v>
       </c>
       <c r="L13">
-        <v>1.007196409719178</v>
+        <v>1.029198445325628</v>
       </c>
       <c r="M13">
-        <v>1.018156986118262</v>
+        <v>1.03935820954733</v>
       </c>
       <c r="N13">
-        <v>1.007913724987152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.012504885628919</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.040810549763998</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.033671142370222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9822445269124999</v>
+        <v>0.9969944590849725</v>
       </c>
       <c r="D14">
-        <v>0.9993457150642917</v>
+        <v>1.017769140613017</v>
       </c>
       <c r="E14">
-        <v>0.9926269647397998</v>
+        <v>1.015097703436719</v>
       </c>
       <c r="F14">
-        <v>1.003959173770587</v>
+        <v>1.025518397204143</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043804956799837</v>
+        <v>1.044822176989464</v>
       </c>
       <c r="J14">
-        <v>1.012411814361706</v>
+        <v>1.026528642419986</v>
       </c>
       <c r="K14">
-        <v>1.014296965872789</v>
+        <v>1.032380100671251</v>
       </c>
       <c r="L14">
-        <v>1.007706431561306</v>
+        <v>1.029757010307662</v>
       </c>
       <c r="M14">
-        <v>1.018823681527937</v>
+        <v>1.039990961987619</v>
       </c>
       <c r="N14">
-        <v>1.008081733032306</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.012690415874383</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.041483829026446</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.034034338658141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9827697032863169</v>
+        <v>0.9974366057895812</v>
       </c>
       <c r="D15">
-        <v>0.9998063612855743</v>
+        <v>1.018101369926582</v>
       </c>
       <c r="E15">
-        <v>0.9930377955278044</v>
+        <v>1.015449876737866</v>
       </c>
       <c r="F15">
-        <v>1.004466248426844</v>
+        <v>1.025881479254122</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043958176472778</v>
+        <v>1.044899984627876</v>
       </c>
       <c r="J15">
-        <v>1.012721728207883</v>
+        <v>1.026764678182899</v>
       </c>
       <c r="K15">
-        <v>1.014659982353176</v>
+        <v>1.03261973030428</v>
       </c>
       <c r="L15">
-        <v>1.008019548854501</v>
+        <v>1.030015853477107</v>
       </c>
       <c r="M15">
-        <v>1.019232964291346</v>
+        <v>1.04026196294356</v>
       </c>
       <c r="N15">
-        <v>1.008184854189538</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.01277447194302</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.041735518018417</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.034209645369947</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9857977286384718</v>
+        <v>0.9996966640799161</v>
       </c>
       <c r="D16">
-        <v>1.002464606203401</v>
+        <v>1.019708039922744</v>
       </c>
       <c r="E16">
-        <v>0.9954094542373014</v>
+        <v>1.01715052224929</v>
       </c>
       <c r="F16">
-        <v>1.007392048245479</v>
+        <v>1.027526051422791</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044836285183866</v>
+        <v>1.045238788461033</v>
       </c>
       <c r="J16">
-        <v>1.014507754417179</v>
+        <v>1.027845498361703</v>
       </c>
       <c r="K16">
-        <v>1.016752956190073</v>
+        <v>1.033694688548924</v>
       </c>
       <c r="L16">
-        <v>1.009825166934912</v>
+        <v>1.031181083280922</v>
       </c>
       <c r="M16">
-        <v>1.021592817954396</v>
+        <v>1.04138021280925</v>
       </c>
       <c r="N16">
-        <v>1.008779147826149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.013138012749455</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.042580715494726</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.034972851921591</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9876724372345886</v>
+        <v>1.000993216780004</v>
       </c>
       <c r="D17">
-        <v>1.004112335279575</v>
+        <v>1.02059452917337</v>
       </c>
       <c r="E17">
-        <v>0.9968803028300537</v>
+        <v>1.018083365760273</v>
       </c>
       <c r="F17">
-        <v>1.009205307972733</v>
+        <v>1.028373599783825</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04537521889172</v>
+        <v>1.045406994878092</v>
       </c>
       <c r="J17">
-        <v>1.015612729382644</v>
+        <v>1.028413280565256</v>
       </c>
       <c r="K17">
-        <v>1.018048642524705</v>
+        <v>1.034250846738161</v>
       </c>
       <c r="L17">
-        <v>1.010943253643102</v>
+        <v>1.031781586980091</v>
       </c>
       <c r="M17">
-        <v>1.02305383720354</v>
+        <v>1.041901777594561</v>
       </c>
       <c r="N17">
-        <v>1.009146829824135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.013319447203375</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.042864124338903</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.035368668778279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9887572593244552</v>
+        <v>1.00156991341473</v>
       </c>
       <c r="D18">
-        <v>1.005066500724741</v>
+        <v>1.020918670346</v>
       </c>
       <c r="E18">
-        <v>0.997732309488098</v>
+        <v>1.018419108065507</v>
       </c>
       <c r="F18">
-        <v>1.010255218929607</v>
+        <v>1.02857435004185</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045685358214471</v>
+        <v>1.045440523086972</v>
       </c>
       <c r="J18">
-        <v>1.016251837223779</v>
+        <v>1.028573742227742</v>
       </c>
       <c r="K18">
-        <v>1.018798349114775</v>
+        <v>1.034385832017209</v>
       </c>
       <c r="L18">
-        <v>1.011590301368601</v>
+        <v>1.031927301465236</v>
       </c>
       <c r="M18">
-        <v>1.023899251126451</v>
+        <v>1.04191743097747</v>
       </c>
       <c r="N18">
-        <v>1.009359495085839</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.013353718698496</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.042639196562576</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.035452458248482</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.989125707711732</v>
+        <v>1.001517632857228</v>
       </c>
       <c r="D19">
-        <v>1.005390688015774</v>
+        <v>1.020761742256466</v>
       </c>
       <c r="E19">
-        <v>0.9980218324540575</v>
+        <v>1.018233852562441</v>
       </c>
       <c r="F19">
-        <v>1.010611918416498</v>
+        <v>1.02820742215105</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045790399793457</v>
+        <v>1.045363302564182</v>
       </c>
       <c r="J19">
-        <v>1.016468851358493</v>
+        <v>1.028389135483575</v>
       </c>
       <c r="K19">
-        <v>1.019052967775368</v>
+        <v>1.034168797247508</v>
       </c>
       <c r="L19">
-        <v>1.011810071937518</v>
+        <v>1.031682200567701</v>
       </c>
       <c r="M19">
-        <v>1.024186381668804</v>
+        <v>1.041494364685815</v>
       </c>
       <c r="N19">
-        <v>1.009431707390877</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.013266173786636</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.041979758651739</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.035305410778296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9874722000500725</v>
+        <v>0.9996826101287417</v>
       </c>
       <c r="D20">
-        <v>1.003936269988642</v>
+        <v>1.019232956529863</v>
       </c>
       <c r="E20">
-        <v>0.9967231097855026</v>
+        <v>1.016582504423773</v>
       </c>
       <c r="F20">
-        <v>1.009011566655101</v>
+        <v>1.026268996425875</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045317833574281</v>
+        <v>1.044971976366984</v>
       </c>
       <c r="J20">
-        <v>1.015494737936227</v>
+        <v>1.027225772108036</v>
       </c>
       <c r="K20">
-        <v>1.017910256169484</v>
+        <v>1.032945842913508</v>
       </c>
       <c r="L20">
-        <v>1.010823825130528</v>
+        <v>1.030339905575211</v>
       </c>
       <c r="M20">
-        <v>1.022897787964182</v>
+        <v>1.039865146046453</v>
       </c>
       <c r="N20">
-        <v>1.00910756785739</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.01283191744943</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.040163783905552</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.034444662325121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9819930076383957</v>
+        <v>0.9954159945604704</v>
       </c>
       <c r="D21">
-        <v>0.9991251421317544</v>
+        <v>1.016146178596053</v>
       </c>
       <c r="E21">
-        <v>0.9924302610347657</v>
+        <v>1.013303909624177</v>
       </c>
       <c r="F21">
-        <v>1.00371636263572</v>
+        <v>1.02303355530573</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043731482406495</v>
+        <v>1.044298614012863</v>
       </c>
       <c r="J21">
-        <v>1.012263374714734</v>
+        <v>1.02510662931499</v>
       </c>
       <c r="K21">
-        <v>1.014123107940944</v>
+        <v>1.030827980029594</v>
       </c>
       <c r="L21">
-        <v>1.007556477731902</v>
+        <v>1.028037544073816</v>
       </c>
       <c r="M21">
-        <v>1.018627667796518</v>
+        <v>1.03759130613499</v>
       </c>
       <c r="N21">
-        <v>1.008032341208701</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.012104273351125</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.038323384408932</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.032950485162738</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9784648174538074</v>
+        <v>0.9927007390945056</v>
       </c>
       <c r="D22">
-        <v>0.9960338663976851</v>
+        <v>1.014193166513314</v>
       </c>
       <c r="E22">
-        <v>0.9896745853389045</v>
+        <v>1.011235859832907</v>
       </c>
       <c r="F22">
-        <v>1.000312965989826</v>
+        <v>1.021010246807276</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042694601580531</v>
+        <v>1.043862114286978</v>
       </c>
       <c r="J22">
-        <v>1.010180199417327</v>
+        <v>1.023764681091427</v>
       </c>
       <c r="K22">
-        <v>1.011684304754941</v>
+        <v>1.029488601849138</v>
       </c>
       <c r="L22">
-        <v>1.005453403837769</v>
+        <v>1.026587970576038</v>
       </c>
       <c r="M22">
-        <v>1.015878225511367</v>
+        <v>1.036176669062719</v>
       </c>
       <c r="N22">
-        <v>1.007339200066212</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.011644222952212</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.037203789742934</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.031989942685395</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.980343325166524</v>
+        <v>0.994133082456812</v>
       </c>
       <c r="D23">
-        <v>0.9976790953563208</v>
+        <v>1.015215492829923</v>
       </c>
       <c r="E23">
-        <v>0.9911409522563255</v>
+        <v>1.012323958027489</v>
       </c>
       <c r="F23">
-        <v>1.002124417493582</v>
+        <v>1.022074138487889</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043248091530277</v>
+        <v>1.044091072675471</v>
       </c>
       <c r="J23">
-        <v>1.011289551634223</v>
+        <v>1.024467204436758</v>
       </c>
       <c r="K23">
-        <v>1.012982789287332</v>
+        <v>1.030185461339161</v>
       </c>
       <c r="L23">
-        <v>1.006573041411219</v>
+        <v>1.027347914400683</v>
       </c>
       <c r="M23">
-        <v>1.017342067685939</v>
+        <v>1.036917639575923</v>
       </c>
       <c r="N23">
-        <v>1.007708314497803</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.011884183749428</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.037790220680164</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.032472992964531</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9875627053342446</v>
+        <v>0.9996900452757074</v>
       </c>
       <c r="D24">
-        <v>1.004015847680877</v>
+        <v>1.019210432920064</v>
       </c>
       <c r="E24">
-        <v>0.9967941567991788</v>
+        <v>1.016565368357915</v>
       </c>
       <c r="F24">
-        <v>1.009099133867553</v>
+        <v>1.02622569382899</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045343776528051</v>
+        <v>1.044960543176086</v>
       </c>
       <c r="J24">
-        <v>1.015548069867067</v>
+        <v>1.027200031874781</v>
       </c>
       <c r="K24">
-        <v>1.017972805655086</v>
+        <v>1.032908386363614</v>
       </c>
       <c r="L24">
-        <v>1.010877805508318</v>
+        <v>1.030307691329731</v>
       </c>
       <c r="M24">
-        <v>1.022968320794011</v>
+        <v>1.039807394727093</v>
       </c>
       <c r="N24">
-        <v>1.00912531419526</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.012818974369787</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.040077273116224</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.034390720985225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9956027423767614</v>
+        <v>1.005939284072729</v>
       </c>
       <c r="D25">
-        <v>1.01109925569964</v>
+        <v>1.023736082611894</v>
       </c>
       <c r="E25">
-        <v>1.003123806153946</v>
+        <v>1.021367422747913</v>
       </c>
       <c r="F25">
-        <v>1.016891473003179</v>
+        <v>1.03093355295687</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047611148127409</v>
+        <v>1.045890302469228</v>
       </c>
       <c r="J25">
-        <v>1.02027900342302</v>
+        <v>1.030268407602088</v>
       </c>
       <c r="K25">
-        <v>1.023527679222061</v>
+        <v>1.03597677104833</v>
       </c>
       <c r="L25">
-        <v>1.015673821833883</v>
+        <v>1.033642851189738</v>
       </c>
       <c r="M25">
-        <v>1.02923310983225</v>
+        <v>1.043069920137218</v>
       </c>
       <c r="N25">
-        <v>1.010699545711771</v>
+        <v>1.013868105411115</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.042659340130408</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.036557365296181</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_18/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_18/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.010742505509922</v>
+        <v>1.010422625850743</v>
       </c>
       <c r="D2">
-        <v>1.027218876231575</v>
+        <v>1.026338311007702</v>
       </c>
       <c r="E2">
-        <v>1.025077246027541</v>
+        <v>1.024751792422608</v>
       </c>
       <c r="F2">
-        <v>1.034574778228051</v>
+        <v>1.034084759104265</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.046558251517738</v>
+        <v>1.046473678212863</v>
       </c>
       <c r="J2">
-        <v>1.032606589760072</v>
+        <v>1.032296004977581</v>
       </c>
       <c r="K2">
-        <v>1.038311598380479</v>
+        <v>1.037442512204508</v>
       </c>
       <c r="L2">
-        <v>1.03619792950031</v>
+        <v>1.035876737866778</v>
       </c>
       <c r="M2">
-        <v>1.045572563051745</v>
+        <v>1.045088815764336</v>
       </c>
       <c r="N2">
-        <v>1.014664881544288</v>
+        <v>1.015694105746015</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.04464000559606</v>
+        <v>1.044257154134673</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.038159889407293</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.037554149046583</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021916161641708</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.014167477506347</v>
+        <v>1.013702871162198</v>
       </c>
       <c r="D3">
-        <v>1.029728019941966</v>
+        <v>1.02864103518687</v>
       </c>
       <c r="E3">
-        <v>1.027739130678918</v>
+        <v>1.027280348439258</v>
       </c>
       <c r="F3">
-        <v>1.037191831415306</v>
+        <v>1.036558710142611</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.04701465413948</v>
+        <v>1.046881880589637</v>
       </c>
       <c r="J3">
-        <v>1.034279234958005</v>
+        <v>1.033826826713842</v>
       </c>
       <c r="K3">
-        <v>1.03999414634414</v>
+        <v>1.03892010861399</v>
       </c>
       <c r="L3">
-        <v>1.038028972429147</v>
+        <v>1.037575676836124</v>
       </c>
       <c r="M3">
-        <v>1.04736996349608</v>
+        <v>1.046744245523999</v>
       </c>
       <c r="N3">
-        <v>1.015235939564827</v>
+        <v>1.016108508542035</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.046062518046021</v>
+        <v>1.045567307840709</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.039346932474415</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.038595996084786</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022222996493743</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,105 +563,123 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016348195308807</v>
+        <v>1.015792474552689</v>
       </c>
       <c r="D4">
-        <v>1.031332309080285</v>
+        <v>1.03011444340014</v>
       </c>
       <c r="E4">
-        <v>1.029440112312626</v>
+        <v>1.028897240380321</v>
       </c>
       <c r="F4">
-        <v>1.038865797401598</v>
+        <v>1.038142212876155</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.047294059300084</v>
+        <v>1.047130848230419</v>
       </c>
       <c r="J4">
-        <v>1.03534275998053</v>
+        <v>1.034800656118015</v>
       </c>
       <c r="K4">
-        <v>1.041066734115379</v>
+        <v>1.039862507376227</v>
       </c>
       <c r="L4">
-        <v>1.03919574525156</v>
+        <v>1.038658975610347</v>
       </c>
       <c r="M4">
-        <v>1.048516727776582</v>
+        <v>1.047801098194319</v>
       </c>
       <c r="N4">
-        <v>1.015598932126395</v>
+        <v>1.016372106551936</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.046970097592802</v>
+        <v>1.046403729567087</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.040106240255556</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.039263330909011</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022416473903803</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01726024860069</v>
+        <v>1.01666660151654</v>
       </c>
       <c r="D5">
-        <v>1.032007271281263</v>
+        <v>1.030734781426002</v>
       </c>
       <c r="E5">
-        <v>1.03015354483441</v>
+        <v>1.029575640677848</v>
       </c>
       <c r="F5">
-        <v>1.039568520867772</v>
+        <v>1.038807218132632</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.047409010003578</v>
+        <v>1.047233104307343</v>
       </c>
       <c r="J5">
-        <v>1.035788920542084</v>
+        <v>1.035209390937939</v>
       </c>
       <c r="K5">
-        <v>1.041518841842731</v>
+        <v>1.040260226446159</v>
       </c>
       <c r="L5">
-        <v>1.039685341307834</v>
+        <v>1.039113760919958</v>
       </c>
       <c r="M5">
-        <v>1.048998506380255</v>
+        <v>1.04824535214212</v>
       </c>
       <c r="N5">
-        <v>1.015751426058623</v>
+        <v>1.016482923785905</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.047351389574171</v>
+        <v>1.04675532384745</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.040433084809095</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.039552429895978</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022498131144317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017417231183588</v>
+        <v>1.016816999378099</v>
       </c>
       <c r="D6">
-        <v>1.032126458943589</v>
+        <v>1.030844559033515</v>
       </c>
       <c r="E6">
-        <v>1.030277123641022</v>
+        <v>1.029693138662353</v>
       </c>
       <c r="F6">
-        <v>1.039690544489048</v>
+        <v>1.038922715756459</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.047429638075317</v>
+        <v>1.047251521257362</v>
       </c>
       <c r="J6">
-        <v>1.035867798491824</v>
+        <v>1.035281768316018</v>
       </c>
       <c r="K6">
-        <v>1.04160058704984</v>
+        <v>1.040332600645274</v>
       </c>
       <c r="L6">
-        <v>1.039771337658107</v>
+        <v>1.039193713824893</v>
       </c>
       <c r="M6">
-        <v>1.049083428710752</v>
+        <v>1.048323780966849</v>
       </c>
       <c r="N6">
-        <v>1.015778678034504</v>
+        <v>1.016502773305362</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.047418599270868</v>
+        <v>1.04681739446852</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.040499624475191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.039613213431115</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022513617968519</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016372090856822</v>
+        <v>1.015821726459398</v>
       </c>
       <c r="D7">
-        <v>1.031357808236079</v>
+        <v>1.030143566457639</v>
       </c>
       <c r="E7">
-        <v>1.029460682408417</v>
+        <v>1.028922271239952</v>
       </c>
       <c r="F7">
-        <v>1.038886783585255</v>
+        <v>1.03816678026263</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.047299793195811</v>
+        <v>1.047138517301014</v>
       </c>
       <c r="J7">
-        <v>1.035360129441271</v>
+        <v>1.034823244826401</v>
       </c>
       <c r="K7">
-        <v>1.041089068609266</v>
+        <v>1.039888419767453</v>
       </c>
       <c r="L7">
-        <v>1.039213197671795</v>
+        <v>1.038680836303482</v>
       </c>
       <c r="M7">
-        <v>1.048534631709984</v>
+        <v>1.047822540899755</v>
       </c>
       <c r="N7">
-        <v>1.015605669172927</v>
+        <v>1.016404608787572</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.046984267229823</v>
+        <v>1.046420699893038</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.040142134423881</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.039303756270677</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022424173456831</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.011922280267703</v>
+        <v>1.011572225084271</v>
       </c>
       <c r="D8">
-        <v>1.028091514106909</v>
+        <v>1.027155377344555</v>
       </c>
       <c r="E8">
-        <v>1.025995313878588</v>
+        <v>1.025640649382914</v>
       </c>
       <c r="F8">
-        <v>1.035477898510516</v>
+        <v>1.034952737191239</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.046721119529185</v>
+        <v>1.046627047670989</v>
       </c>
       <c r="J8">
-        <v>1.033190205835027</v>
+        <v>1.032849985544484</v>
       </c>
       <c r="K8">
-        <v>1.038903951565977</v>
+        <v>1.037979658372875</v>
       </c>
       <c r="L8">
-        <v>1.036834308935197</v>
+        <v>1.036484151234381</v>
       </c>
       <c r="M8">
-        <v>1.04619782247345</v>
+        <v>1.045679184409193</v>
       </c>
       <c r="N8">
-        <v>1.014865205016928</v>
+        <v>1.015923198583047</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.04513485351774</v>
+        <v>1.044724388765808</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.038601644939799</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.037959136963296</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022032251774464</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.003780011411815</v>
+        <v>1.003783686257031</v>
       </c>
       <c r="D9">
-        <v>1.022156366852039</v>
+        <v>1.021716800573172</v>
       </c>
       <c r="E9">
-        <v>1.019701021013012</v>
+        <v>1.019670976945185</v>
       </c>
       <c r="F9">
-        <v>1.02929795152938</v>
+        <v>1.029119316337298</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.045571278943353</v>
+        <v>1.045594528196504</v>
       </c>
       <c r="J9">
-        <v>1.029199990246919</v>
+        <v>1.029203536686978</v>
       </c>
       <c r="K9">
-        <v>1.034899916776711</v>
+        <v>1.034467096757003</v>
       </c>
       <c r="L9">
-        <v>1.032482349561332</v>
+        <v>1.032452769198448</v>
       </c>
       <c r="M9">
-        <v>1.041932923780326</v>
+        <v>1.041756981082405</v>
       </c>
       <c r="N9">
-        <v>1.013501471097828</v>
+        <v>1.014944759538822</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.041759485874592</v>
+        <v>1.041620239255167</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.035767343495946</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.035472065233673</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.02128881555518</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9982074013022267</v>
+        <v>0.9984850987934208</v>
       </c>
       <c r="D10">
-        <v>1.018155862112915</v>
+        <v>1.018078059997082</v>
       </c>
       <c r="E10">
-        <v>1.015454155580794</v>
+        <v>1.015672220303205</v>
       </c>
       <c r="F10">
-        <v>1.025169268721872</v>
+        <v>1.025249328292572</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.044741050664895</v>
+        <v>1.044855203050433</v>
       </c>
       <c r="J10">
-        <v>1.026492322487377</v>
+        <v>1.026758950411516</v>
       </c>
       <c r="K10">
-        <v>1.032204866070994</v>
+        <v>1.032128404790098</v>
       </c>
       <c r="L10">
-        <v>1.029549876217157</v>
+        <v>1.029764158331801</v>
       </c>
       <c r="M10">
-        <v>1.03909848319863</v>
+        <v>1.039177187555346</v>
       </c>
       <c r="N10">
-        <v>1.012579619747256</v>
+        <v>1.014401871861356</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.039567587109282</v>
+        <v>1.039629872536084</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.033878607002942</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.033836979604073</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.02079154467021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,105 +997,123 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9962203309319948</v>
+        <v>0.996610511367257</v>
       </c>
       <c r="D11">
-        <v>1.016916891109195</v>
+        <v>1.016967911720761</v>
       </c>
       <c r="E11">
-        <v>1.014152821894134</v>
+        <v>1.014467574585733</v>
       </c>
       <c r="F11">
-        <v>1.024164112480201</v>
+        <v>1.024340834322205</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044529723047321</v>
+        <v>1.044680617126589</v>
       </c>
       <c r="J11">
-        <v>1.025751198308345</v>
+        <v>1.026124980027314</v>
       </c>
       <c r="K11">
-        <v>1.031526678911523</v>
+        <v>1.031576778575478</v>
       </c>
       <c r="L11">
-        <v>1.028812682725049</v>
+        <v>1.029121715543305</v>
       </c>
       <c r="M11">
-        <v>1.038644276735326</v>
+        <v>1.038817867454002</v>
       </c>
       <c r="N11">
-        <v>1.012359679796688</v>
+        <v>1.014481273185916</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.039643756614268</v>
+        <v>1.039781064776623</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.033432009612147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.033483079262245</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020724647120067</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9956530766721248</v>
+        <v>0.9960664861643762</v>
       </c>
       <c r="D12">
-        <v>1.016639645764505</v>
+        <v>1.016715019118573</v>
       </c>
       <c r="E12">
-        <v>1.013876323997208</v>
+        <v>1.014208821697576</v>
       </c>
       <c r="F12">
-        <v>1.02408377291845</v>
+        <v>1.024278724451595</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044512045366866</v>
+        <v>1.044669522279247</v>
       </c>
       <c r="J12">
-        <v>1.025642552304159</v>
+        <v>1.026038257378586</v>
       </c>
       <c r="K12">
-        <v>1.031454852019268</v>
+        <v>1.031528842381932</v>
       </c>
       <c r="L12">
-        <v>1.028742418240878</v>
+        <v>1.029068773696689</v>
       </c>
       <c r="M12">
-        <v>1.038763667586637</v>
+        <v>1.038955109839774</v>
       </c>
       <c r="N12">
-        <v>1.012348759240853</v>
+        <v>1.014577254865166</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.040064147929234</v>
+        <v>1.040215525326331</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.033381225482513</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.033449187410001</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.02075153878933</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9961559162190446</v>
+        <v>0.9965149618064454</v>
       </c>
       <c r="D13">
-        <v>1.017104712103747</v>
+        <v>1.01711713461689</v>
       </c>
       <c r="E13">
-        <v>1.014384869987489</v>
+        <v>1.014666836895705</v>
       </c>
       <c r="F13">
-        <v>1.024732482202906</v>
+        <v>1.02487897666387</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.044652235140748</v>
+        <v>1.04478988508639</v>
       </c>
       <c r="J13">
-        <v>1.026030640556605</v>
+        <v>1.026374387038662</v>
       </c>
       <c r="K13">
-        <v>1.031868430049301</v>
+        <v>1.031880625641838</v>
       </c>
       <c r="L13">
-        <v>1.029198445325628</v>
+        <v>1.029475227323567</v>
       </c>
       <c r="M13">
-        <v>1.03935820954733</v>
+        <v>1.039502079952936</v>
       </c>
       <c r="N13">
-        <v>1.012504885628919</v>
+        <v>1.014661736435696</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.040810549763998</v>
+        <v>1.040924282586965</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.033671142370222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.03369516574334</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.02085803824031</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9969944590849725</v>
+        <v>0.9972809137505469</v>
       </c>
       <c r="D14">
-        <v>1.017769140613017</v>
+        <v>1.017698459531839</v>
       </c>
       <c r="E14">
-        <v>1.015097703436719</v>
+        <v>1.015314013855049</v>
       </c>
       <c r="F14">
-        <v>1.025518397204143</v>
+        <v>1.025601279766065</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.044822176989464</v>
+        <v>1.044934305398499</v>
       </c>
       <c r="J14">
-        <v>1.026528642419986</v>
+        <v>1.02680306544106</v>
       </c>
       <c r="K14">
-        <v>1.032380100671251</v>
+        <v>1.032310694504174</v>
       </c>
       <c r="L14">
-        <v>1.029757010307662</v>
+        <v>1.029969393695365</v>
       </c>
       <c r="M14">
-        <v>1.039990961987619</v>
+        <v>1.040072378996475</v>
       </c>
       <c r="N14">
-        <v>1.012690415874383</v>
+        <v>1.014717326816754</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.041483829026446</v>
+        <v>1.04154818235034</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.034034338658141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.034000798843701</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020969559052949</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9974366057895812</v>
+        <v>0.9976888762857195</v>
       </c>
       <c r="D15">
-        <v>1.018101369926582</v>
+        <v>1.017991466185013</v>
       </c>
       <c r="E15">
-        <v>1.015449876737866</v>
+        <v>1.015635668230966</v>
       </c>
       <c r="F15">
-        <v>1.025881479254122</v>
+        <v>1.025934523221581</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.044899984627876</v>
+        <v>1.04500035231349</v>
       </c>
       <c r="J15">
-        <v>1.026764678182899</v>
+        <v>1.02700644480976</v>
       </c>
       <c r="K15">
-        <v>1.03261973030428</v>
+        <v>1.032511793849172</v>
       </c>
       <c r="L15">
-        <v>1.030015853477107</v>
+        <v>1.030198297939405</v>
       </c>
       <c r="M15">
-        <v>1.04026196294356</v>
+        <v>1.040314076182643</v>
       </c>
       <c r="N15">
-        <v>1.01277447194302</v>
+        <v>1.014733145978233</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.041735518018417</v>
+        <v>1.041776708085234</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.034209645369947</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.034149431152257</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021016948449349</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9996966640799161</v>
+        <v>0.9997995382598532</v>
       </c>
       <c r="D16">
-        <v>1.019708039922744</v>
+        <v>1.019422856890756</v>
       </c>
       <c r="E16">
-        <v>1.01715052224929</v>
+        <v>1.017204409388458</v>
       </c>
       <c r="F16">
-        <v>1.027526051422791</v>
+        <v>1.027447810271276</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045238788461033</v>
+        <v>1.045289135185736</v>
       </c>
       <c r="J16">
-        <v>1.027845498361703</v>
+        <v>1.027944301120726</v>
       </c>
       <c r="K16">
-        <v>1.033694688548924</v>
+        <v>1.033414387986126</v>
       </c>
       <c r="L16">
-        <v>1.031181083280922</v>
+        <v>1.031234042236921</v>
       </c>
       <c r="M16">
-        <v>1.04138021280925</v>
+        <v>1.041303284687482</v>
       </c>
       <c r="N16">
-        <v>1.013138012749455</v>
+        <v>1.01477712457108</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.042580715494726</v>
+        <v>1.042519910127854</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.034972851921591</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.034791066841145</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021202783193735</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.000993216780004</v>
+        <v>1.001026899525988</v>
       </c>
       <c r="D17">
-        <v>1.02059452917337</v>
+        <v>1.02022410038144</v>
       </c>
       <c r="E17">
-        <v>1.018083365760273</v>
+        <v>1.018076523991563</v>
       </c>
       <c r="F17">
-        <v>1.028373599783825</v>
+        <v>1.028233134540343</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.045406994878092</v>
+        <v>1.045434833273107</v>
       </c>
       <c r="J17">
-        <v>1.028413280565256</v>
+        <v>1.028445672615955</v>
       </c>
       <c r="K17">
-        <v>1.034250846738161</v>
+        <v>1.033886582566276</v>
       </c>
       <c r="L17">
-        <v>1.031781586980091</v>
+        <v>1.031774859743553</v>
       </c>
       <c r="M17">
-        <v>1.041901777594561</v>
+        <v>1.041763604057768</v>
       </c>
       <c r="N17">
-        <v>1.013319447203375</v>
+        <v>1.014810350753902</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.042864124338903</v>
+        <v>1.042754898644395</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.035368668778279</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.03512776485611</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021287866001959</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.00156991341473</v>
+        <v>1.001588632413997</v>
       </c>
       <c r="D18">
-        <v>1.020918670346</v>
+        <v>1.020527028963565</v>
       </c>
       <c r="E18">
-        <v>1.018419108065507</v>
+        <v>1.01840027855444</v>
       </c>
       <c r="F18">
-        <v>1.02857435004185</v>
+        <v>1.0284197805647</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.045440523086972</v>
+        <v>1.045464440410915</v>
       </c>
       <c r="J18">
-        <v>1.028573742227742</v>
+        <v>1.028591757182929</v>
       </c>
       <c r="K18">
-        <v>1.034385832017209</v>
+        <v>1.034000602577404</v>
       </c>
       <c r="L18">
-        <v>1.031927301465236</v>
+        <v>1.031908782034521</v>
       </c>
       <c r="M18">
-        <v>1.04191743097747</v>
+        <v>1.041765343272682</v>
       </c>
       <c r="N18">
-        <v>1.013353718698496</v>
+        <v>1.014794707512286</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.042639196562576</v>
+        <v>1.042518946778319</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.035452458248482</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.035195596351618</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.02128454476597</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.001517632857228</v>
+        <v>1.001562649331816</v>
       </c>
       <c r="D19">
-        <v>1.020761742256466</v>
+        <v>1.020400321085723</v>
       </c>
       <c r="E19">
-        <v>1.018233852562441</v>
+        <v>1.018240396263278</v>
       </c>
       <c r="F19">
-        <v>1.02820742215105</v>
+        <v>1.028076471480534</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.045363302564182</v>
+        <v>1.045397291283665</v>
       </c>
       <c r="J19">
-        <v>1.028389135483575</v>
+        <v>1.028432468546657</v>
       </c>
       <c r="K19">
-        <v>1.034168797247508</v>
+        <v>1.033813263776834</v>
       </c>
       <c r="L19">
-        <v>1.031682200567701</v>
+        <v>1.031688637037057</v>
       </c>
       <c r="M19">
-        <v>1.041494364685815</v>
+        <v>1.041365507219704</v>
       </c>
       <c r="N19">
-        <v>1.013266173786636</v>
+        <v>1.014722955533203</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.041979758651739</v>
+        <v>1.04187784292197</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.035305410778296</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.035070170751802</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021210145921698</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9996826101287417</v>
+        <v>0.9998680153505586</v>
       </c>
       <c r="D20">
-        <v>1.019232956529863</v>
+        <v>1.019044163074505</v>
       </c>
       <c r="E20">
-        <v>1.016582504423773</v>
+        <v>1.016718053626155</v>
       </c>
       <c r="F20">
-        <v>1.026268996425875</v>
+        <v>1.026266369753784</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.044971976366984</v>
+        <v>1.045054892269649</v>
       </c>
       <c r="J20">
-        <v>1.027225772108036</v>
+        <v>1.027404025732849</v>
       </c>
       <c r="K20">
-        <v>1.032945842913508</v>
+        <v>1.032760210402018</v>
       </c>
       <c r="L20">
-        <v>1.030339905575211</v>
+        <v>1.030473170944106</v>
       </c>
       <c r="M20">
-        <v>1.039865146046453</v>
+        <v>1.039862562570002</v>
       </c>
       <c r="N20">
-        <v>1.01283191744943</v>
+        <v>1.014479815794792</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.040163783905552</v>
+        <v>1.040161739357204</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.034444662325121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.034329942438367</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020929812950354</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9954159945604704</v>
+        <v>0.9959093880282077</v>
       </c>
       <c r="D21">
-        <v>1.016146178596053</v>
+        <v>1.016312743730828</v>
       </c>
       <c r="E21">
-        <v>1.013303909624177</v>
+        <v>1.013713612000062</v>
       </c>
       <c r="F21">
-        <v>1.02303355530573</v>
+        <v>1.023300521368556</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044298614012863</v>
+        <v>1.044486933187496</v>
       </c>
       <c r="J21">
-        <v>1.02510662931499</v>
+        <v>1.025579137257758</v>
       </c>
       <c r="K21">
-        <v>1.030827980029594</v>
+        <v>1.030991519299825</v>
       </c>
       <c r="L21">
-        <v>1.028037544073816</v>
+        <v>1.028439751572587</v>
       </c>
       <c r="M21">
-        <v>1.03759130613499</v>
+        <v>1.037853507437919</v>
       </c>
       <c r="N21">
-        <v>1.012104273351125</v>
+        <v>1.014399309870988</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.038323384408932</v>
+        <v>1.038530899759143</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.032950485162738</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.0330829761311</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020549304024855</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9927007390945056</v>
+        <v>0.9933893464451325</v>
       </c>
       <c r="D22">
-        <v>1.014193166513314</v>
+        <v>1.014584280141597</v>
       </c>
       <c r="E22">
-        <v>1.011235859832907</v>
+        <v>1.011819202395238</v>
       </c>
       <c r="F22">
-        <v>1.021010246807276</v>
+        <v>1.021447861227591</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043862114286978</v>
+        <v>1.044117393254912</v>
       </c>
       <c r="J22">
-        <v>1.023764681091427</v>
+        <v>1.024422454988065</v>
       </c>
       <c r="K22">
-        <v>1.029488601849138</v>
+        <v>1.029872252329085</v>
       </c>
       <c r="L22">
-        <v>1.026587970576038</v>
+        <v>1.027160099305977</v>
       </c>
       <c r="M22">
-        <v>1.036176669062719</v>
+        <v>1.036606078436888</v>
       </c>
       <c r="N22">
-        <v>1.011644222952212</v>
+        <v>1.014342228254068</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.037203789742934</v>
+        <v>1.037543639953985</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.031989942685395</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.032276767105548</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020307649322157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.994133082456812</v>
+        <v>0.994707935404662</v>
       </c>
       <c r="D23">
-        <v>1.015215492829923</v>
+        <v>1.015479664551311</v>
       </c>
       <c r="E23">
-        <v>1.012323958027489</v>
+        <v>1.012806498024352</v>
       </c>
       <c r="F23">
-        <v>1.022074138487889</v>
+        <v>1.022413973058021</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.044091072675471</v>
+        <v>1.044307027911409</v>
       </c>
       <c r="J23">
-        <v>1.024467204436758</v>
+        <v>1.025017066483018</v>
       </c>
       <c r="K23">
-        <v>1.030185461339161</v>
+        <v>1.030444720702506</v>
       </c>
       <c r="L23">
-        <v>1.027347914400683</v>
+        <v>1.027821416915155</v>
       </c>
       <c r="M23">
-        <v>1.036917639575923</v>
+        <v>1.037251265326053</v>
       </c>
       <c r="N23">
-        <v>1.011884183749428</v>
+        <v>1.014327359309849</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.037790220680164</v>
+        <v>1.038054264041175</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.032472992964531</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.032670924232719</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020428639412862</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,102 +1803,120 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9996900452757074</v>
+        <v>0.9998779405850711</v>
       </c>
       <c r="D24">
-        <v>1.019210432920064</v>
+        <v>1.01902440674086</v>
       </c>
       <c r="E24">
-        <v>1.016565368357915</v>
+        <v>1.016703415680676</v>
       </c>
       <c r="F24">
-        <v>1.02622569382899</v>
+        <v>1.026225351249016</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.044960543176086</v>
+        <v>1.045044465611633</v>
       </c>
       <c r="J24">
-        <v>1.027200031874781</v>
+        <v>1.027380689895099</v>
       </c>
       <c r="K24">
-        <v>1.032908386363614</v>
+        <v>1.032725470968772</v>
       </c>
       <c r="L24">
-        <v>1.030307691329731</v>
+        <v>1.030443415619737</v>
       </c>
       <c r="M24">
-        <v>1.039807394727093</v>
+        <v>1.039807057774235</v>
       </c>
       <c r="N24">
-        <v>1.012818974369787</v>
+        <v>1.014466555054408</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.040077273116224</v>
+        <v>1.040077006440472</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.034390720985225</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.034275251374058</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020915442627402</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>1.005939284072729</v>
+        <v>1.00583957878385</v>
       </c>
       <c r="D25">
-        <v>1.023736082611894</v>
+        <v>1.023157753586386</v>
       </c>
       <c r="E25">
-        <v>1.021367422747913</v>
+        <v>1.021243236330431</v>
       </c>
       <c r="F25">
-        <v>1.03093355295687</v>
+        <v>1.030656256177836</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.045890302469228</v>
+        <v>1.04587909186179</v>
       </c>
       <c r="J25">
-        <v>1.030268407602088</v>
+        <v>1.030172003406897</v>
       </c>
       <c r="K25">
-        <v>1.03597677104833</v>
+        <v>1.035406905261616</v>
       </c>
       <c r="L25">
-        <v>1.033642851189738</v>
+        <v>1.033520491800999</v>
       </c>
       <c r="M25">
-        <v>1.043069920137218</v>
+        <v>1.04279660836142</v>
       </c>
       <c r="N25">
-        <v>1.013868105411115</v>
+        <v>1.015175423606794</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.042659340130408</v>
+        <v>1.042443032798139</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.036557365296181</v>
+        <v>1.036167989360448</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021491813567414</v>
       </c>
     </row>
   </sheetData>
